--- a/Sample_Bank_Data/SEP 2023.xlsx
+++ b/Sample_Bank_Data/SEP 2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28816"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28906"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\OneDrive_2025-04-23\Sample Bank Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{C61CC667-27B4-49C2-A019-BCCCDF181362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E058E86F-09DF-44D5-995D-AA96466EABF5}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{C61CC667-27B4-49C2-A019-BCCCDF181362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{332ACCEA-73F3-40E9-B6A2-4C915AA91BBC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="8" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collateral Types" sheetId="12" r:id="rId1"/>
@@ -20,8 +20,10 @@
     <sheet name="fact restructred" sheetId="10" r:id="rId5"/>
     <sheet name="rating" sheetId="5" r:id="rId6"/>
     <sheet name="Rating and PDS&amp;P_x0009_Moody's_x0009_Fitch_x0009_" sheetId="11" r:id="rId7"/>
-    <sheet name="Risk Limit" sheetId="13" r:id="rId8"/>
-    <sheet name="STAGING" sheetId="7" r:id="rId9"/>
+    <sheet name="PD" sheetId="15" r:id="rId8"/>
+    <sheet name="Risk Limit" sheetId="13" r:id="rId9"/>
+    <sheet name="Provision" sheetId="14" r:id="rId10"/>
+    <sheet name="STAGING" sheetId="7" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'fact risk'!$B$1:$AD$51</definedName>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="219">
   <si>
     <t>Types of Collaterals</t>
   </si>
@@ -586,165 +588,105 @@
     <t>Internal Rating</t>
   </si>
   <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>Aaa</t>
+  </si>
+  <si>
+    <t>AA+</t>
+  </si>
+  <si>
+    <t>Aa1</t>
+  </si>
+  <si>
+    <t>Aa2</t>
+  </si>
+  <si>
+    <t>Baa1</t>
+  </si>
+  <si>
+    <t>Baa2</t>
+  </si>
+  <si>
+    <t>BBB-</t>
+  </si>
+  <si>
+    <t>Baa3</t>
+  </si>
+  <si>
+    <t>Ba1</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>Ba2</t>
+  </si>
+  <si>
+    <t>BB-</t>
+  </si>
+  <si>
+    <t>Ba3</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B-</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>CCC+</t>
+  </si>
+  <si>
+    <t>Caa1</t>
+  </si>
+  <si>
+    <t>CCC</t>
+  </si>
+  <si>
+    <t>Caa2</t>
+  </si>
+  <si>
+    <t>CCC-</t>
+  </si>
+  <si>
+    <t>Caa3</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>Ca</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>DDD</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
     <t>PD 2024</t>
   </si>
   <si>
-    <t>AAA</t>
-  </si>
-  <si>
-    <t>Aaa</t>
-  </si>
-  <si>
-    <t>0.0020%</t>
-  </si>
-  <si>
-    <t>AA+</t>
-  </si>
-  <si>
-    <t>Aa1</t>
-  </si>
-  <si>
-    <t>0.0232%</t>
-  </si>
-  <si>
-    <t>Aa2</t>
-  </si>
-  <si>
-    <t>0.0518%</t>
-  </si>
-  <si>
-    <t>0.1112%</t>
-  </si>
-  <si>
-    <t>0.2080%</t>
-  </si>
-  <si>
-    <t>0.3796%</t>
-  </si>
-  <si>
-    <t>0.5940%</t>
-  </si>
-  <si>
-    <t>Baa1</t>
-  </si>
-  <si>
-    <t>0.9130%</t>
-  </si>
-  <si>
-    <t>Baa2</t>
-  </si>
-  <si>
-    <t>1.3200%</t>
-  </si>
-  <si>
-    <t>BBB-</t>
-  </si>
-  <si>
-    <t>Baa3</t>
-  </si>
-  <si>
-    <t>2.6180%</t>
-  </si>
-  <si>
-    <t>Ba1</t>
-  </si>
-  <si>
-    <t>4.6200%</t>
-  </si>
-  <si>
-    <t>BB</t>
-  </si>
-  <si>
-    <t>Ba2</t>
-  </si>
-  <si>
-    <t>7.4800%</t>
-  </si>
-  <si>
-    <t>BB-</t>
-  </si>
-  <si>
-    <t>Ba3</t>
-  </si>
-  <si>
-    <t>10.7690%</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>15.2350%</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>19.9420%</t>
-  </si>
-  <si>
-    <t>B-</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>26.4440%</t>
-  </si>
-  <si>
-    <t>CCC+</t>
-  </si>
-  <si>
-    <t>Caa1</t>
-  </si>
-  <si>
-    <t>35.7268%</t>
-  </si>
-  <si>
-    <t>CCC</t>
-  </si>
-  <si>
-    <t>Caa2</t>
-  </si>
-  <si>
-    <t>48.2680%</t>
-  </si>
-  <si>
-    <t>CCC-</t>
-  </si>
-  <si>
-    <t>Caa3</t>
-  </si>
-  <si>
-    <t>72.8662%</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>Ca</t>
-  </si>
-  <si>
-    <t>100.0000%</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>DDD</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>DD</t>
-  </si>
-  <si>
     <t>Internal risk rating</t>
   </si>
   <si>
@@ -758,6 +700,12 @@
   </si>
   <si>
     <t>Group limit</t>
+  </si>
+  <si>
+    <t>Provision Stages</t>
+  </si>
+  <si>
+    <t>3F</t>
   </si>
 </sst>
 </file>
@@ -1326,6 +1274,71 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1C365E-231A-4D82-8112-994C3BECCFA8}">
+  <dimension ref="B1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2FE4088-AF22-41A1-89D6-9412CB39B032}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6EAC753-FD4B-4174-9852-2B0C91699448}">
   <dimension ref="B1:F51"/>
@@ -7726,11 +7739,11 @@
       </c>
       <c r="F3" s="17">
         <f t="shared" ref="F3:F39" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>8087655.6000000006</v>
+        <v>8092874.6000000006</v>
       </c>
       <c r="G3" s="16">
         <f t="shared" ref="G3:G39" ca="1" si="1">C3-F3</f>
-        <v>32339192.399999999</v>
+        <v>32333973.399999999</v>
       </c>
     </row>
     <row r="4" spans="2:7">
@@ -7748,11 +7761,11 @@
       </c>
       <c r="F4" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>10802921.08</v>
+        <v>10795945.08</v>
       </c>
       <c r="G4" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>43093629.32</v>
+        <v>43100605.32</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="30">
@@ -7770,11 +7783,11 @@
       </c>
       <c r="F5" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>13477659.560000001</v>
+        <v>13495163.560000001</v>
       </c>
       <c r="G5" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>53888593.239999995</v>
+        <v>53871089.239999995</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -7792,11 +7805,11 @@
       </c>
       <c r="F6" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>18886057.520000003</v>
+        <v>18884702.520000003</v>
       </c>
       <c r="G6" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>75419600.080000013</v>
+        <v>75420955.080000013</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="30">
@@ -7814,11 +7827,11 @@
       </c>
       <c r="F7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>21570235.200000003</v>
+        <v>21562019.200000003</v>
       </c>
       <c r="G7" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>86190340.799999997</v>
+        <v>86198556.799999997</v>
       </c>
     </row>
     <row r="8" spans="2:7">
@@ -7836,11 +7849,11 @@
       </c>
       <c r="F8" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>24229937.68</v>
+        <v>24222633.68</v>
       </c>
       <c r="G8" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>96852500.719999999</v>
+        <v>96859804.719999999</v>
       </c>
     </row>
     <row r="9" spans="2:7">
@@ -7858,11 +7871,11 @@
       </c>
       <c r="F9" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>29313794.640000001</v>
+        <v>29323478.640000001</v>
       </c>
       <c r="G9" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>117229648.55999999</v>
+        <v>117219964.55999999</v>
       </c>
     </row>
     <row r="10" spans="2:7">
@@ -7880,11 +7893,11 @@
       </c>
       <c r="F10" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>3337203.12</v>
+        <v>3341769.12</v>
       </c>
       <c r="G10" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>13271142.48</v>
+        <v>13266576.48</v>
       </c>
     </row>
     <row r="11" spans="2:7">
@@ -7902,11 +7915,11 @@
       </c>
       <c r="F11" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>6618087.6000000006</v>
+        <v>6625020.6000000006</v>
       </c>
       <c r="G11" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>26416760.399999999</v>
+        <v>26409827.399999999</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="30">
@@ -7924,11 +7937,11 @@
       </c>
       <c r="F12" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>9909014.0800000001</v>
+        <v>9898884.0800000001</v>
       </c>
       <c r="G12" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>39552336.32</v>
+        <v>39562466.32</v>
       </c>
     </row>
     <row r="13" spans="2:7">
@@ -7946,11 +7959,11 @@
       </c>
       <c r="F13" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>13178911.560000002</v>
+        <v>13178063.560000002</v>
       </c>
       <c r="G13" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>52708941.240000002</v>
+        <v>52709789.240000002</v>
       </c>
     </row>
     <row r="14" spans="2:7">
@@ -7968,11 +7981,11 @@
       </c>
       <c r="F14" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>16472703.039999999</v>
+        <v>16479574.039999999</v>
       </c>
       <c r="G14" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>65841652.159999989</v>
+        <v>65834781.159999989</v>
       </c>
     </row>
     <row r="15" spans="2:7">
@@ -7990,11 +8003,11 @@
       </c>
       <c r="F15" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>19764045.520000003</v>
+        <v>19772307.520000003</v>
       </c>
       <c r="G15" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>78976812.080000013</v>
+        <v>78968550.080000013</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="30">
@@ -8012,11 +8025,11 @@
       </c>
       <c r="F16" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>23037442.200000003</v>
+        <v>23034967.200000003</v>
       </c>
       <c r="G16" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>92115133.799999997</v>
+        <v>92117608.799999997</v>
       </c>
     </row>
     <row r="17" spans="2:7">
@@ -8034,11 +8047,11 @@
       </c>
       <c r="F17" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>26297828.68</v>
+        <v>26291465.68</v>
       </c>
       <c r="G17" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>105133409.72</v>
+        <v>105139772.72</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="30">
@@ -8056,11 +8069,11 @@
       </c>
       <c r="F18" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>29280679.159999996</v>
+        <v>29296063.159999996</v>
       </c>
       <c r="G18" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>117098661.63999999</v>
+        <v>117083277.63999999</v>
       </c>
     </row>
     <row r="19" spans="2:7">
@@ -8078,11 +8091,11 @@
       </c>
       <c r="F19" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>2997331.6400000006</v>
+        <v>3016849.6400000006</v>
       </c>
       <c r="G19" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>11968511.560000001</v>
+        <v>11948993.560000001</v>
       </c>
     </row>
     <row r="20" spans="2:7">
@@ -8100,11 +8113,11 @@
       </c>
       <c r="F20" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>6289341.1200000001</v>
+        <v>6290081.1200000001</v>
       </c>
       <c r="G20" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>25103004.479999997</v>
+        <v>25102264.479999997</v>
       </c>
     </row>
     <row r="21" spans="2:7">
@@ -8122,11 +8135,11 @@
       </c>
       <c r="F21" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>9576617.5999999996</v>
+        <v>9573179.5999999996</v>
       </c>
       <c r="G21" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>38242230.399999999</v>
+        <v>38245668.399999999</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="30">
@@ -8144,11 +8157,11 @@
       </c>
       <c r="F22" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>12854330.08</v>
+        <v>12852169.08</v>
       </c>
       <c r="G22" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>51391020.32</v>
+        <v>51393181.32</v>
       </c>
     </row>
     <row r="23" spans="2:7">
@@ -8166,11 +8179,11 @@
       </c>
       <c r="F23" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>16150749.560000001</v>
+        <v>16134843.560000001</v>
       </c>
       <c r="G23" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>64521103.239999995</v>
+        <v>64537009.239999995</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="30">
@@ -8188,11 +8201,11 @@
       </c>
       <c r="F24" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>19432345.039999999</v>
+        <v>19440213.039999999</v>
       </c>
       <c r="G24" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>77666010.159999996</v>
+        <v>77658142.159999996</v>
       </c>
     </row>
     <row r="25" spans="2:7">
@@ -8210,11 +8223,11 @@
       </c>
       <c r="F25" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>22726511.520000003</v>
+        <v>22707234.520000003</v>
       </c>
       <c r="G25" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>90798346.080000013</v>
+        <v>90817623.080000013</v>
       </c>
     </row>
     <row r="26" spans="2:7">
@@ -8232,11 +8245,11 @@
       </c>
       <c r="F26" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>26010966.200000003</v>
+        <v>26004145.200000003</v>
       </c>
       <c r="G26" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>103925609.8</v>
+        <v>103932430.8</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="30">
@@ -8254,11 +8267,11 @@
       </c>
       <c r="F27" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>29251640.680000003</v>
+        <v>29257336.680000003</v>
       </c>
       <c r="G27" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>116963597.72</v>
+        <v>116957901.72</v>
       </c>
     </row>
     <row r="28" spans="2:7">
@@ -8276,11 +8289,11 @@
       </c>
       <c r="F28" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>5630003.1600000001</v>
+        <v>5622222.1600000001</v>
       </c>
       <c r="G28" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>22477337.639999997</v>
+        <v>22485118.639999997</v>
       </c>
     </row>
     <row r="29" spans="2:7">
@@ -8298,11 +8311,11 @@
       </c>
       <c r="F29" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>8912633.6399999987</v>
+        <v>8918649.6399999987</v>
       </c>
       <c r="G29" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>35621209.559999995</v>
+        <v>35615193.559999995</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="30">
@@ -8320,11 +8333,11 @@
       </c>
       <c r="F30" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>12203476.119999999</v>
+        <v>12214527.119999999</v>
       </c>
       <c r="G30" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>48756869.479999997</v>
+        <v>48745818.479999997</v>
       </c>
     </row>
     <row r="31" spans="2:7">
@@ -8342,11 +8355,11 @@
       </c>
       <c r="F31" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>15479261.600000001</v>
+        <v>15484804.600000001</v>
       </c>
       <c r="G31" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>61907586.399999999</v>
+        <v>61902043.399999999</v>
       </c>
     </row>
     <row r="32" spans="2:7">
@@ -8364,11 +8377,11 @@
       </c>
       <c r="F32" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>18771856.079999998</v>
+        <v>18773838.079999998</v>
       </c>
       <c r="G32" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>75041494.319999993</v>
+        <v>75039512.319999993</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="30">
@@ -8386,11 +8399,11 @@
       </c>
       <c r="F33" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>22055129.560000002</v>
+        <v>22063913.560000002</v>
       </c>
       <c r="G33" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>88184723.239999995</v>
+        <v>88175939.239999995</v>
       </c>
     </row>
     <row r="34" spans="2:7">
@@ -8408,11 +8421,11 @@
       </c>
       <c r="F34" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>25348591.039999999</v>
+        <v>25350395.039999999</v>
       </c>
       <c r="G34" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>101317764.16</v>
+        <v>101315960.16</v>
       </c>
     </row>
     <row r="35" spans="2:7">
@@ -8430,11 +8443,11 @@
       </c>
       <c r="F35" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>28624893.52</v>
+        <v>28639985.52</v>
       </c>
       <c r="G35" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>114467964.08</v>
+        <v>114452872.08</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="30">
@@ -8452,11 +8465,11 @@
       </c>
       <c r="F36" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>5298724.2</v>
+        <v>5308067.2</v>
       </c>
       <c r="G36" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>21149851.800000001</v>
+        <v>21140508.800000001</v>
       </c>
     </row>
     <row r="37" spans="2:7">
@@ -8474,11 +8487,11 @@
       </c>
       <c r="F37" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>8557768.6799999997</v>
+        <v>8551410.6799999997</v>
       </c>
       <c r="G37" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>34169469.719999999</v>
+        <v>34175827.719999999</v>
       </c>
     </row>
     <row r="38" spans="2:7">
@@ -8496,11 +8509,11 @@
       </c>
       <c r="F38" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>11541621.160000002</v>
+        <v>11536648.160000002</v>
       </c>
       <c r="G38" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>46133719.640000001</v>
+        <v>46138692.640000001</v>
       </c>
     </row>
     <row r="39" spans="2:7">
@@ -8518,11 +8531,11 @@
       </c>
       <c r="F39" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>14840069.640000001</v>
+        <v>14837637.640000001</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>59261773.560000002</v>
+        <v>59264205.560000002</v>
       </c>
     </row>
   </sheetData>
@@ -9862,15 +9875,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ABFBA4B-6F4E-444D-93B2-E23E2D3BEB6D}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="30">
+    <row r="1" spans="1:5" ht="30.75">
       <c r="A1" s="23" t="s">
         <v>174</v>
       </c>
@@ -9886,19 +9899,16 @@
       <c r="E1" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="I1" s="23" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>180</v>
       </c>
-      <c r="B2" t="s">
-        <v>181</v>
-      </c>
       <c r="C2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D2">
         <v>21</v>
@@ -9906,22 +9916,16 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>181</v>
       </c>
-      <c r="I2" t="s">
+      <c r="B3" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B3" t="s">
-        <v>184</v>
-      </c>
       <c r="C3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -9929,19 +9933,13 @@
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="H3" t="s">
-        <v>184</v>
-      </c>
-      <c r="I3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>172</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C4" t="s">
         <v>172</v>
@@ -9952,14 +9950,8 @@
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="H4" t="s">
-        <v>186</v>
-      </c>
-      <c r="I4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>162</v>
       </c>
@@ -9975,14 +9967,8 @@
       <c r="E5">
         <v>4</v>
       </c>
-      <c r="H5" t="s">
-        <v>163</v>
-      </c>
-      <c r="I5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>165</v>
       </c>
@@ -9998,14 +9984,8 @@
       <c r="E6">
         <v>5</v>
       </c>
-      <c r="H6" t="s">
-        <v>164</v>
-      </c>
-      <c r="I6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>160</v>
       </c>
@@ -10021,14 +10001,8 @@
       <c r="E7">
         <v>6</v>
       </c>
-      <c r="H7" t="s">
-        <v>161</v>
-      </c>
-      <c r="I7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>169</v>
       </c>
@@ -10044,19 +10018,13 @@
       <c r="E8">
         <v>7</v>
       </c>
-      <c r="H8" t="s">
-        <v>166</v>
-      </c>
-      <c r="I8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>168</v>
       </c>
       <c r="B9" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C9" t="s">
         <v>168</v>
@@ -10067,19 +10035,13 @@
       <c r="E9">
         <v>8</v>
       </c>
-      <c r="H9" t="s">
-        <v>192</v>
-      </c>
-      <c r="I9" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>167</v>
       </c>
       <c r="B10" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C10" t="s">
         <v>167</v>
@@ -10090,22 +10052,16 @@
       <c r="E10">
         <v>9</v>
       </c>
-      <c r="H10" t="s">
-        <v>194</v>
-      </c>
-      <c r="I10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B11" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C11" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D11">
         <v>12</v>
@@ -10113,19 +10069,13 @@
       <c r="E11">
         <v>10</v>
       </c>
-      <c r="H11" t="s">
-        <v>197</v>
-      </c>
-      <c r="I11" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>173</v>
       </c>
       <c r="B12" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C12" t="s">
         <v>173</v>
@@ -10136,22 +10086,16 @@
       <c r="E12">
         <v>11</v>
       </c>
-      <c r="H12" t="s">
-        <v>199</v>
-      </c>
-      <c r="I12" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B13" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="C13" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -10159,22 +10103,16 @@
       <c r="E13">
         <v>12</v>
       </c>
-      <c r="H13" t="s">
-        <v>202</v>
-      </c>
-      <c r="I13" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="B14" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="C14" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="D14">
         <v>9</v>
@@ -10182,19 +10120,13 @@
       <c r="E14">
         <v>13</v>
       </c>
-      <c r="H14" t="s">
-        <v>205</v>
-      </c>
-      <c r="I14" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>171</v>
       </c>
       <c r="B15" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="C15" t="s">
         <v>171</v>
@@ -10205,22 +10137,16 @@
       <c r="E15">
         <v>14</v>
       </c>
-      <c r="H15" t="s">
-        <v>207</v>
-      </c>
-      <c r="I15" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="B16" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="C16" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="D16">
         <v>7</v>
@@ -10228,22 +10154,16 @@
       <c r="E16">
         <v>15</v>
       </c>
-      <c r="H16" t="s">
-        <v>210</v>
-      </c>
-      <c r="I16" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B17" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="C17" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="D17">
         <v>6</v>
@@ -10251,22 +10171,16 @@
       <c r="E17">
         <v>16</v>
       </c>
-      <c r="H17" t="s">
-        <v>213</v>
-      </c>
-      <c r="I17" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="C18" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -10274,22 +10188,16 @@
       <c r="E18">
         <v>17</v>
       </c>
-      <c r="H18" t="s">
-        <v>216</v>
-      </c>
-      <c r="I18" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="C19" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -10297,22 +10205,16 @@
       <c r="E19">
         <v>17</v>
       </c>
-      <c r="H19" t="s">
-        <v>219</v>
-      </c>
-      <c r="I19" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="C20" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -10320,22 +10222,16 @@
       <c r="E20">
         <v>17</v>
       </c>
-      <c r="H20" t="s">
-        <v>222</v>
-      </c>
-      <c r="I20" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="B21" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="C21" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -10343,16 +10239,10 @@
       <c r="E21">
         <v>17</v>
       </c>
-      <c r="H21" t="s">
-        <v>225</v>
-      </c>
-      <c r="I21" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+    </row>
+    <row r="22" spans="1:5">
       <c r="C22" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -10360,41 +10250,35 @@
       <c r="E22">
         <v>17</v>
       </c>
-      <c r="H22" t="s">
-        <v>227</v>
-      </c>
-      <c r="I22" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="B23" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="C23" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="C24" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:5">
       <c r="C25" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -10406,10 +10290,265 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC92BD2F-6CFC-4570-856E-0F07C5072734}">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30.75">
+      <c r="A1" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2.3199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>5.1799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>0.11119999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>0.20799999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>0.37959999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>0.59399999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0.91300000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>2.6179999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>190</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>7.48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>10.769</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>15.234999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>195</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>19.942</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>197</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>26.443999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>199</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>35.726799999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>48.268000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>72.866200000000006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>205</v>
+      </c>
+      <c r="B21">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>206</v>
+      </c>
+      <c r="B22">
+        <v>17</v>
+      </c>
+      <c r="C22">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45341381-04B5-4125-BA14-DAA744C202C3}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -10429,22 +10568,22 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="28" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="E1" s="29" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -10729,16 +10868,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2FE4088-AF22-41A1-89D6-9412CB39B032}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Sample_Bank_Data/SEP 2023.xlsx
+++ b/Sample_Bank_Data/SEP 2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28922"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{C1AC0192-DAE6-4F35-8B70-01A58E664243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0D035BA-25FD-443E-A7B6-BA313C213DF5}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{C1AC0192-DAE6-4F35-8B70-01A58E664243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14903FBE-B2F8-41A4-98C8-425D50D9F03E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collateral Types" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="310">
   <si>
     <t>Collateral Types</t>
   </si>
@@ -520,370 +520,115 @@
     <t>Shares6</t>
   </si>
   <si>
+    <t>Land6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest2</t>
+  </si>
+  <si>
+    <t>Gold4</t>
+  </si>
+  <si>
+    <t>Others4</t>
+  </si>
+  <si>
+    <t>Land7</t>
+  </si>
+  <si>
+    <t>Land8</t>
+  </si>
+  <si>
+    <t>Shares7</t>
+  </si>
+  <si>
+    <t>Shares9</t>
+  </si>
+  <si>
+    <t>Others5</t>
+  </si>
+  <si>
+    <t>Others6</t>
+  </si>
+  <si>
+    <t>Building7</t>
+  </si>
+  <si>
+    <t>Land9</t>
+  </si>
+  <si>
+    <t>Cash3</t>
+  </si>
+  <si>
+    <t>Risk Free Assest3</t>
+  </si>
+  <si>
+    <t>Others7</t>
+  </si>
+  <si>
+    <t>Cash4</t>
+  </si>
+  <si>
+    <t>Risk Free Assest4</t>
+  </si>
+  <si>
+    <t>Others8</t>
+  </si>
+  <si>
+    <t>Others9</t>
+  </si>
+  <si>
+    <t>Building8</t>
+  </si>
+  <si>
+    <t>Building9</t>
+  </si>
+  <si>
+    <t>Cash5</t>
+  </si>
+  <si>
+    <t>Gold5</t>
+  </si>
+  <si>
+    <t>Gold6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest5</t>
+  </si>
+  <si>
+    <t>Shares8</t>
+  </si>
+  <si>
+    <t>Cash6</t>
+  </si>
+  <si>
+    <t>Gold7</t>
+  </si>
+  <si>
+    <t>Risk Free Assest6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest7</t>
+  </si>
+  <si>
+    <t>Risk Free Assest8</t>
+  </si>
+  <si>
+    <t>Risk Free Assest9</t>
+  </si>
+  <si>
+    <t>Cash7</t>
+  </si>
+  <si>
+    <t>Shares10</t>
+  </si>
+  <si>
+    <t>Shares11</t>
+  </si>
+  <si>
+    <t>Shares12</t>
+  </si>
+  <si>
     <t>Building6</t>
-  </si>
-  <si>
-    <t>Land6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest2</t>
-  </si>
-  <si>
-    <t>Gold4</t>
-  </si>
-  <si>
-    <t>Others4</t>
-  </si>
-  <si>
-    <t>Land7</t>
-  </si>
-  <si>
-    <t>Land8</t>
-  </si>
-  <si>
-    <t>Shares7</t>
-  </si>
-  <si>
-    <t>Shares8</t>
-  </si>
-  <si>
-    <t>Others5</t>
-  </si>
-  <si>
-    <t>Shares9</t>
-  </si>
-  <si>
-    <t>Shares10</t>
-  </si>
-  <si>
-    <t>Others6</t>
-  </si>
-  <si>
-    <t>Building7</t>
-  </si>
-  <si>
-    <t>Land9</t>
-  </si>
-  <si>
-    <t>Cash3</t>
-  </si>
-  <si>
-    <t>Risk Free Assest3</t>
-  </si>
-  <si>
-    <t>Others7</t>
-  </si>
-  <si>
-    <t>Cash4</t>
-  </si>
-  <si>
-    <t>Risk Free Assest4</t>
-  </si>
-  <si>
-    <t>Others8</t>
-  </si>
-  <si>
-    <t>Land10</t>
-  </si>
-  <si>
-    <t>Land11</t>
-  </si>
-  <si>
-    <t>Others9</t>
-  </si>
-  <si>
-    <t>Shares11</t>
-  </si>
-  <si>
-    <t>Shares12</t>
-  </si>
-  <si>
-    <t>Others10</t>
-  </si>
-  <si>
-    <t>Land12</t>
-  </si>
-  <si>
-    <t>Building8</t>
-  </si>
-  <si>
-    <t>Others11</t>
-  </si>
-  <si>
-    <t>Shares13</t>
-  </si>
-  <si>
-    <t>Shares14</t>
-  </si>
-  <si>
-    <t>Others12</t>
-  </si>
-  <si>
-    <t>Building9</t>
-  </si>
-  <si>
-    <t>Building10</t>
-  </si>
-  <si>
-    <t>Others13</t>
-  </si>
-  <si>
-    <t>Cash5</t>
-  </si>
-  <si>
-    <t>Gold5</t>
-  </si>
-  <si>
-    <t>Others14</t>
-  </si>
-  <si>
-    <t>Shares15</t>
-  </si>
-  <si>
-    <t>Shares16</t>
-  </si>
-  <si>
-    <t>Others15</t>
-  </si>
-  <si>
-    <t>Building11</t>
-  </si>
-  <si>
-    <t>Building12</t>
-  </si>
-  <si>
-    <t>Shares17</t>
-  </si>
-  <si>
-    <t>Shares18</t>
-  </si>
-  <si>
-    <t>Others16</t>
-  </si>
-  <si>
-    <t>Others17</t>
-  </si>
-  <si>
-    <t>Others18</t>
-  </si>
-  <si>
-    <t>Land13</t>
-  </si>
-  <si>
-    <t>Building13</t>
-  </si>
-  <si>
-    <t>Gold6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest5</t>
-  </si>
-  <si>
-    <t>Others19</t>
-  </si>
-  <si>
-    <t>Building14</t>
-  </si>
-  <si>
-    <t>Land14</t>
-  </si>
-  <si>
-    <t>Shares19</t>
-  </si>
-  <si>
-    <t>Shares20</t>
-  </si>
-  <si>
-    <t>Others20</t>
-  </si>
-  <si>
-    <t>Others21</t>
-  </si>
-  <si>
-    <t>Cash6</t>
-  </si>
-  <si>
-    <t>Gold7</t>
-  </si>
-  <si>
-    <t>Shares21</t>
-  </si>
-  <si>
-    <t>Shares22</t>
-  </si>
-  <si>
-    <t>Others22</t>
-  </si>
-  <si>
-    <t>Land15</t>
-  </si>
-  <si>
-    <t>Building15</t>
-  </si>
-  <si>
-    <t>Risk Free Assest6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest7</t>
-  </si>
-  <si>
-    <t>Others23</t>
-  </si>
-  <si>
-    <t>Shares23</t>
-  </si>
-  <si>
-    <t>Shares24</t>
-  </si>
-  <si>
-    <t>Others24</t>
-  </si>
-  <si>
-    <t>Gold8</t>
-  </si>
-  <si>
-    <t>Risk Free Assest8</t>
-  </si>
-  <si>
-    <t>Others25</t>
-  </si>
-  <si>
-    <t>Risk Free Assest9</t>
-  </si>
-  <si>
-    <t>Risk Free Assest10</t>
-  </si>
-  <si>
-    <t>Shares25</t>
-  </si>
-  <si>
-    <t>Shares26</t>
-  </si>
-  <si>
-    <t>Others26</t>
-  </si>
-  <si>
-    <t>Land16</t>
-  </si>
-  <si>
-    <t>Building16</t>
-  </si>
-  <si>
-    <t>Land17</t>
-  </si>
-  <si>
-    <t>Building17</t>
-  </si>
-  <si>
-    <t>Shares27</t>
-  </si>
-  <si>
-    <t>Shares28</t>
-  </si>
-  <si>
-    <t>Others27</t>
-  </si>
-  <si>
-    <t>Building18</t>
-  </si>
-  <si>
-    <t>Building19</t>
-  </si>
-  <si>
-    <t>Cash7</t>
-  </si>
-  <si>
-    <t>Risk Free Assest11</t>
-  </si>
-  <si>
-    <t>Building20</t>
-  </si>
-  <si>
-    <t>Building21</t>
-  </si>
-  <si>
-    <t>Cash8</t>
-  </si>
-  <si>
-    <t>Risk Free Assest12</t>
-  </si>
-  <si>
-    <t>Shares29</t>
-  </si>
-  <si>
-    <t>Shares30</t>
-  </si>
-  <si>
-    <t>Building22</t>
-  </si>
-  <si>
-    <t>Building23</t>
-  </si>
-  <si>
-    <t>Others28</t>
-  </si>
-  <si>
-    <t>Building24</t>
-  </si>
-  <si>
-    <t>Land18</t>
-  </si>
-  <si>
-    <t>Cash9</t>
-  </si>
-  <si>
-    <t>Gold9</t>
-  </si>
-  <si>
-    <t>Shares31</t>
-  </si>
-  <si>
-    <t>Shares32</t>
-  </si>
-  <si>
-    <t>Others29</t>
-  </si>
-  <si>
-    <t>Cash10</t>
-  </si>
-  <si>
-    <t>Risk Free Assest13</t>
-  </si>
-  <si>
-    <t>Others30</t>
-  </si>
-  <si>
-    <t>Building25</t>
-  </si>
-  <si>
-    <t>Land19</t>
-  </si>
-  <si>
-    <t>Shares33</t>
-  </si>
-  <si>
-    <t>Shares34</t>
-  </si>
-  <si>
-    <t>Shares35</t>
-  </si>
-  <si>
-    <t>Shares36</t>
-  </si>
-  <si>
-    <t>Others31</t>
-  </si>
-  <si>
-    <t>Building26</t>
-  </si>
-  <si>
-    <t>Land20</t>
-  </si>
-  <si>
-    <t>Gold10</t>
-  </si>
-  <si>
-    <t>Risk Free Assest14</t>
   </si>
   <si>
     <t>Company</t>
@@ -1956,22 +1701,22 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="17" t="s">
-        <v>388</v>
+        <v>303</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>389</v>
+        <v>304</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>28</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>390</v>
+        <v>305</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>391</v>
+        <v>306</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>392</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2273,7 +2018,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>393</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -2303,7 +2048,7 @@
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>394</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -8369,8 +8114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A148"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9233,7 +8978,7 @@
         <v>125</v>
       </c>
       <c r="I27" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="J27">
         <v>2</v>
@@ -9265,7 +9010,7 @@
         <v>125</v>
       </c>
       <c r="I28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J28">
         <v>5</v>
@@ -9297,7 +9042,7 @@
         <v>133</v>
       </c>
       <c r="I29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J29">
         <v>5</v>
@@ -9329,7 +9074,7 @@
         <v>133</v>
       </c>
       <c r="I30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -9361,7 +9106,7 @@
         <v>128</v>
       </c>
       <c r="I31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J31">
         <v>3</v>
@@ -9393,7 +9138,7 @@
         <v>125</v>
       </c>
       <c r="I32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J32">
         <v>5</v>
@@ -9425,7 +9170,7 @@
         <v>125</v>
       </c>
       <c r="I33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -9457,7 +9202,7 @@
         <v>140</v>
       </c>
       <c r="I34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J34">
         <v>2</v>
@@ -9489,7 +9234,7 @@
         <v>140</v>
       </c>
       <c r="I35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -9521,7 +9266,7 @@
         <v>128</v>
       </c>
       <c r="I36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J36">
         <v>4</v>
@@ -9553,7 +9298,7 @@
         <v>140</v>
       </c>
       <c r="I37" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J37">
         <v>2</v>
@@ -9585,7 +9330,7 @@
         <v>140</v>
       </c>
       <c r="I38" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="J38">
         <v>2</v>
@@ -9617,7 +9362,7 @@
         <v>128</v>
       </c>
       <c r="I39" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J39">
         <v>5</v>
@@ -9649,7 +9394,7 @@
         <v>125</v>
       </c>
       <c r="I40" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J40">
         <v>4</v>
@@ -9681,7 +9426,7 @@
         <v>125</v>
       </c>
       <c r="I41" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J41">
         <v>4</v>
@@ -9713,7 +9458,7 @@
         <v>133</v>
       </c>
       <c r="I42" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J42">
         <v>5</v>
@@ -9745,7 +9490,7 @@
         <v>133</v>
       </c>
       <c r="I43" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J43">
         <v>3</v>
@@ -9777,7 +9522,7 @@
         <v>128</v>
       </c>
       <c r="I44" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J44">
         <v>5</v>
@@ -9809,7 +9554,7 @@
         <v>133</v>
       </c>
       <c r="I45" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J45">
         <v>2</v>
@@ -9841,7 +9586,7 @@
         <v>133</v>
       </c>
       <c r="I46" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J46">
         <v>4</v>
@@ -9873,7 +9618,7 @@
         <v>128</v>
       </c>
       <c r="I47" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J47">
         <v>3</v>
@@ -9905,7 +9650,7 @@
         <v>125</v>
       </c>
       <c r="I48" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="J48">
         <v>4</v>
@@ -9937,7 +9682,7 @@
         <v>125</v>
       </c>
       <c r="I49" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="J49">
         <v>4</v>
@@ -9969,7 +9714,7 @@
         <v>128</v>
       </c>
       <c r="I50" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="J50">
         <v>2</v>
@@ -10001,7 +9746,7 @@
         <v>140</v>
       </c>
       <c r="I51" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="J51">
         <v>2</v>
@@ -10033,7 +9778,7 @@
         <v>140</v>
       </c>
       <c r="I52" t="s">
-        <v>181</v>
+        <v>143</v>
       </c>
       <c r="J52">
         <v>3</v>
@@ -10065,7 +9810,7 @@
         <v>128</v>
       </c>
       <c r="I53" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="J53">
         <v>2</v>
@@ -10097,7 +9842,7 @@
         <v>125</v>
       </c>
       <c r="I54" t="s">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="J54">
         <v>2</v>
@@ -10129,7 +9874,7 @@
         <v>125</v>
       </c>
       <c r="I55" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="J55">
         <v>5</v>
@@ -10161,7 +9906,7 @@
         <v>128</v>
       </c>
       <c r="I56" t="s">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="J56">
         <v>3</v>
@@ -10193,7 +9938,7 @@
         <v>140</v>
       </c>
       <c r="I57" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c r="J57">
         <v>3</v>
@@ -10225,7 +9970,7 @@
         <v>140</v>
       </c>
       <c r="I58" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="J58">
         <v>2</v>
@@ -10257,7 +10002,7 @@
         <v>128</v>
       </c>
       <c r="I59" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
       <c r="J59">
         <v>4</v>
@@ -10289,7 +10034,7 @@
         <v>125</v>
       </c>
       <c r="I60" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="J60">
         <v>5</v>
@@ -10321,7 +10066,7 @@
         <v>125</v>
       </c>
       <c r="I61" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -10353,7 +10098,7 @@
         <v>128</v>
       </c>
       <c r="I62" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -10385,7 +10130,7 @@
         <v>133</v>
       </c>
       <c r="I63" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="J63">
         <v>2</v>
@@ -10417,7 +10162,7 @@
         <v>133</v>
       </c>
       <c r="I64" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -10449,7 +10194,7 @@
         <v>128</v>
       </c>
       <c r="I65" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="J65">
         <v>2</v>
@@ -10481,7 +10226,7 @@
         <v>140</v>
       </c>
       <c r="I66" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="J66">
         <v>5</v>
@@ -10513,7 +10258,7 @@
         <v>140</v>
       </c>
       <c r="I67" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="J67">
         <v>4</v>
@@ -10545,7 +10290,7 @@
         <v>128</v>
       </c>
       <c r="I68" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="J68">
         <v>2</v>
@@ -10577,7 +10322,7 @@
         <v>125</v>
       </c>
       <c r="I69" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="J69">
         <v>4</v>
@@ -10609,7 +10354,7 @@
         <v>125</v>
       </c>
       <c r="I70" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="J70">
         <v>2</v>
@@ -10641,7 +10386,7 @@
         <v>140</v>
       </c>
       <c r="I71" t="s">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="J71">
         <v>2</v>
@@ -10673,7 +10418,7 @@
         <v>140</v>
       </c>
       <c r="I72" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="J72">
         <v>2</v>
@@ -10705,7 +10450,7 @@
         <v>128</v>
       </c>
       <c r="I73" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="J73">
         <v>4</v>
@@ -10737,7 +10482,7 @@
         <v>128</v>
       </c>
       <c r="I74" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="J74">
         <v>5</v>
@@ -10769,7 +10514,7 @@
         <v>128</v>
       </c>
       <c r="I75" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="J75">
         <v>5</v>
@@ -10801,7 +10546,7 @@
         <v>125</v>
       </c>
       <c r="I76" t="s">
-        <v>205</v>
+        <v>127</v>
       </c>
       <c r="J76">
         <v>3</v>
@@ -10833,7 +10578,7 @@
         <v>125</v>
       </c>
       <c r="I77" t="s">
-        <v>206</v>
+        <v>138</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -10865,7 +10610,7 @@
         <v>133</v>
       </c>
       <c r="I78" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -10897,7 +10642,7 @@
         <v>133</v>
       </c>
       <c r="I79" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="J79">
         <v>5</v>
@@ -10929,7 +10674,7 @@
         <v>128</v>
       </c>
       <c r="I80" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -10961,7 +10706,7 @@
         <v>125</v>
       </c>
       <c r="I81" t="s">
-        <v>210</v>
+        <v>137</v>
       </c>
       <c r="J81">
         <v>2</v>
@@ -10993,7 +10738,7 @@
         <v>125</v>
       </c>
       <c r="I82" t="s">
-        <v>211</v>
+        <v>156</v>
       </c>
       <c r="J82">
         <v>3</v>
@@ -11025,7 +10770,7 @@
         <v>140</v>
       </c>
       <c r="I83" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -11057,7 +10802,7 @@
         <v>140</v>
       </c>
       <c r="I84" t="s">
-        <v>213</v>
+        <v>144</v>
       </c>
       <c r="J84">
         <v>5</v>
@@ -11089,7 +10834,7 @@
         <v>128</v>
       </c>
       <c r="I85" t="s">
-        <v>214</v>
+        <v>170</v>
       </c>
       <c r="J85">
         <v>4</v>
@@ -11121,7 +10866,7 @@
         <v>128</v>
       </c>
       <c r="I86" t="s">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="J86">
         <v>3</v>
@@ -11153,7 +10898,7 @@
         <v>133</v>
       </c>
       <c r="I87" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="J87">
         <v>4</v>
@@ -11185,7 +10930,7 @@
         <v>133</v>
       </c>
       <c r="I88" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="J88">
         <v>3</v>
@@ -11217,7 +10962,7 @@
         <v>140</v>
       </c>
       <c r="I89" t="s">
-        <v>218</v>
+        <v>143</v>
       </c>
       <c r="J89">
         <v>2</v>
@@ -11249,7 +10994,7 @@
         <v>140</v>
       </c>
       <c r="I90" t="s">
-        <v>219</v>
+        <v>163</v>
       </c>
       <c r="J90">
         <v>5</v>
@@ -11281,7 +11026,7 @@
         <v>128</v>
       </c>
       <c r="I91" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="J91">
         <v>2</v>
@@ -11313,7 +11058,7 @@
         <v>125</v>
       </c>
       <c r="I92" t="s">
-        <v>221</v>
+        <v>156</v>
       </c>
       <c r="J92">
         <v>3</v>
@@ -11345,7 +11090,7 @@
         <v>125</v>
       </c>
       <c r="I93" t="s">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="J93">
         <v>4</v>
@@ -11377,7 +11122,7 @@
         <v>133</v>
       </c>
       <c r="I94" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="J94">
         <v>5</v>
@@ -11409,7 +11154,7 @@
         <v>133</v>
       </c>
       <c r="I95" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -11441,7 +11186,7 @@
         <v>128</v>
       </c>
       <c r="I96" t="s">
-        <v>225</v>
+        <v>164</v>
       </c>
       <c r="J96">
         <v>5</v>
@@ -11473,7 +11218,7 @@
         <v>140</v>
       </c>
       <c r="I97" t="s">
-        <v>226</v>
+        <v>142</v>
       </c>
       <c r="J97">
         <v>2</v>
@@ -11505,7 +11250,7 @@
         <v>140</v>
       </c>
       <c r="I98" t="s">
-        <v>227</v>
+        <v>155</v>
       </c>
       <c r="J98">
         <v>2</v>
@@ -11537,7 +11282,7 @@
         <v>128</v>
       </c>
       <c r="I99" t="s">
-        <v>228</v>
+        <v>164</v>
       </c>
       <c r="J99">
         <v>3</v>
@@ -11569,7 +11314,7 @@
         <v>133</v>
       </c>
       <c r="I100" t="s">
-        <v>229</v>
+        <v>148</v>
       </c>
       <c r="J100">
         <v>2</v>
@@ -11601,7 +11346,7 @@
         <v>133</v>
       </c>
       <c r="I101" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="J101">
         <v>3</v>
@@ -11633,7 +11378,7 @@
         <v>128</v>
       </c>
       <c r="I102" t="s">
-        <v>231</v>
+        <v>129</v>
       </c>
       <c r="J102">
         <v>4</v>
@@ -11665,7 +11410,7 @@
         <v>133</v>
       </c>
       <c r="I103" t="s">
-        <v>232</v>
+        <v>187</v>
       </c>
       <c r="J103">
         <v>3</v>
@@ -11697,7 +11442,7 @@
         <v>133</v>
       </c>
       <c r="I104" t="s">
-        <v>233</v>
+        <v>152</v>
       </c>
       <c r="J104">
         <v>3</v>
@@ -11729,7 +11474,7 @@
         <v>140</v>
       </c>
       <c r="I105" t="s">
-        <v>234</v>
+        <v>154</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -11761,7 +11506,7 @@
         <v>140</v>
       </c>
       <c r="I106" t="s">
-        <v>235</v>
+        <v>162</v>
       </c>
       <c r="J106">
         <v>4</v>
@@ -11793,7 +11538,7 @@
         <v>128</v>
       </c>
       <c r="I107" t="s">
-        <v>236</v>
+        <v>164</v>
       </c>
       <c r="J107">
         <v>5</v>
@@ -11825,7 +11570,7 @@
         <v>125</v>
       </c>
       <c r="I108" t="s">
-        <v>237</v>
+        <v>150</v>
       </c>
       <c r="J108">
         <v>1</v>
@@ -11857,7 +11602,7 @@
         <v>125</v>
       </c>
       <c r="I109" t="s">
-        <v>238</v>
+        <v>146</v>
       </c>
       <c r="J109">
         <v>5</v>
@@ -11889,7 +11634,7 @@
         <v>125</v>
       </c>
       <c r="I110" t="s">
-        <v>239</v>
+        <v>147</v>
       </c>
       <c r="J110">
         <v>3</v>
@@ -11921,7 +11666,7 @@
         <v>125</v>
       </c>
       <c r="I111" t="s">
-        <v>240</v>
+        <v>137</v>
       </c>
       <c r="J111">
         <v>1</v>
@@ -11953,7 +11698,7 @@
         <v>140</v>
       </c>
       <c r="I112" t="s">
-        <v>241</v>
+        <v>144</v>
       </c>
       <c r="J112">
         <v>4</v>
@@ -11985,7 +11730,7 @@
         <v>140</v>
       </c>
       <c r="I113" t="s">
-        <v>242</v>
+        <v>143</v>
       </c>
       <c r="J113">
         <v>3</v>
@@ -12017,7 +11762,7 @@
         <v>128</v>
       </c>
       <c r="I114" t="s">
-        <v>243</v>
+        <v>159</v>
       </c>
       <c r="J114">
         <v>2</v>
@@ -12049,7 +11794,7 @@
         <v>125</v>
       </c>
       <c r="I115" t="s">
-        <v>244</v>
+        <v>138</v>
       </c>
       <c r="J115">
         <v>1</v>
@@ -12081,7 +11826,7 @@
         <v>125</v>
       </c>
       <c r="I116" t="s">
-        <v>245</v>
+        <v>131</v>
       </c>
       <c r="J116">
         <v>4</v>
@@ -12113,7 +11858,7 @@
         <v>133</v>
       </c>
       <c r="I117" t="s">
-        <v>246</v>
+        <v>188</v>
       </c>
       <c r="J117">
         <v>1</v>
@@ -12145,7 +11890,7 @@
         <v>133</v>
       </c>
       <c r="I118" t="s">
-        <v>247</v>
+        <v>157</v>
       </c>
       <c r="J118">
         <v>4</v>
@@ -12177,7 +11922,7 @@
         <v>125</v>
       </c>
       <c r="I119" t="s">
-        <v>248</v>
+        <v>146</v>
       </c>
       <c r="J119">
         <v>1</v>
@@ -12209,7 +11954,7 @@
         <v>125</v>
       </c>
       <c r="I120" t="s">
-        <v>249</v>
+        <v>126</v>
       </c>
       <c r="J120">
         <v>5</v>
@@ -12241,7 +11986,7 @@
         <v>133</v>
       </c>
       <c r="I121" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="J121">
         <v>3</v>
@@ -12273,7 +12018,7 @@
         <v>133</v>
       </c>
       <c r="I122" t="s">
-        <v>251</v>
+        <v>157</v>
       </c>
       <c r="J122">
         <v>3</v>
@@ -12305,7 +12050,7 @@
         <v>140</v>
       </c>
       <c r="I123" t="s">
-        <v>252</v>
+        <v>142</v>
       </c>
       <c r="J123">
         <v>3</v>
@@ -12337,7 +12082,7 @@
         <v>140</v>
       </c>
       <c r="I124" t="s">
-        <v>253</v>
+        <v>189</v>
       </c>
       <c r="J124">
         <v>5</v>
@@ -12369,7 +12114,7 @@
         <v>125</v>
       </c>
       <c r="I125" t="s">
-        <v>254</v>
+        <v>176</v>
       </c>
       <c r="J125">
         <v>4</v>
@@ -12401,7 +12146,7 @@
         <v>125</v>
       </c>
       <c r="I126" t="s">
-        <v>255</v>
+        <v>166</v>
       </c>
       <c r="J126">
         <v>4</v>
@@ -12433,7 +12178,7 @@
         <v>128</v>
       </c>
       <c r="I127" t="s">
-        <v>256</v>
+        <v>174</v>
       </c>
       <c r="J127">
         <v>1</v>
@@ -12465,7 +12210,7 @@
         <v>125</v>
       </c>
       <c r="I128" t="s">
-        <v>257</v>
+        <v>175</v>
       </c>
       <c r="J128">
         <v>2</v>
@@ -12497,7 +12242,7 @@
         <v>125</v>
       </c>
       <c r="I129" t="s">
-        <v>258</v>
+        <v>151</v>
       </c>
       <c r="J129">
         <v>3</v>
@@ -12529,7 +12274,7 @@
         <v>133</v>
       </c>
       <c r="I130" t="s">
-        <v>259</v>
+        <v>134</v>
       </c>
       <c r="J130">
         <v>5</v>
@@ -12561,7 +12306,7 @@
         <v>133</v>
       </c>
       <c r="I131" t="s">
-        <v>260</v>
+        <v>153</v>
       </c>
       <c r="J131">
         <v>4</v>
@@ -12593,7 +12338,7 @@
         <v>140</v>
       </c>
       <c r="I132" t="s">
-        <v>261</v>
+        <v>141</v>
       </c>
       <c r="J132">
         <v>3</v>
@@ -12625,7 +12370,7 @@
         <v>140</v>
       </c>
       <c r="I133" t="s">
-        <v>262</v>
+        <v>190</v>
       </c>
       <c r="J133">
         <v>3</v>
@@ -12657,7 +12402,7 @@
         <v>128</v>
       </c>
       <c r="I134" t="s">
-        <v>263</v>
+        <v>170</v>
       </c>
       <c r="J134">
         <v>2</v>
@@ -12689,7 +12434,7 @@
         <v>133</v>
       </c>
       <c r="I135" t="s">
-        <v>264</v>
+        <v>149</v>
       </c>
       <c r="J135">
         <v>2</v>
@@ -12721,7 +12466,7 @@
         <v>133</v>
       </c>
       <c r="I136" t="s">
-        <v>265</v>
+        <v>172</v>
       </c>
       <c r="J136">
         <v>3</v>
@@ -12753,7 +12498,7 @@
         <v>128</v>
       </c>
       <c r="I137" t="s">
-        <v>266</v>
+        <v>145</v>
       </c>
       <c r="J137">
         <v>2</v>
@@ -12785,7 +12530,7 @@
         <v>125</v>
       </c>
       <c r="I138" t="s">
-        <v>267</v>
+        <v>137</v>
       </c>
       <c r="J138">
         <v>1</v>
@@ -12817,7 +12562,7 @@
         <v>125</v>
       </c>
       <c r="I139" t="s">
-        <v>268</v>
+        <v>130</v>
       </c>
       <c r="J139">
         <v>1</v>
@@ -12849,7 +12594,7 @@
         <v>140</v>
       </c>
       <c r="I140" t="s">
-        <v>269</v>
+        <v>155</v>
       </c>
       <c r="J140">
         <v>2</v>
@@ -12881,7 +12626,7 @@
         <v>140</v>
       </c>
       <c r="I141" t="s">
-        <v>270</v>
+        <v>141</v>
       </c>
       <c r="J141">
         <v>1</v>
@@ -12913,7 +12658,7 @@
         <v>140</v>
       </c>
       <c r="I142" t="s">
-        <v>271</v>
+        <v>181</v>
       </c>
       <c r="J142">
         <v>3</v>
@@ -12945,7 +12690,7 @@
         <v>140</v>
       </c>
       <c r="I143" t="s">
-        <v>272</v>
+        <v>191</v>
       </c>
       <c r="J143">
         <v>5</v>
@@ -12977,7 +12722,7 @@
         <v>128</v>
       </c>
       <c r="I144" t="s">
-        <v>273</v>
+        <v>173</v>
       </c>
       <c r="J144">
         <v>2</v>
@@ -13009,7 +12754,7 @@
         <v>125</v>
       </c>
       <c r="I145" t="s">
-        <v>274</v>
+        <v>192</v>
       </c>
       <c r="J145">
         <v>2</v>
@@ -13041,7 +12786,7 @@
         <v>125</v>
       </c>
       <c r="I146" t="s">
-        <v>275</v>
+        <v>151</v>
       </c>
       <c r="J146">
         <v>2</v>
@@ -13073,7 +12818,7 @@
         <v>133</v>
       </c>
       <c r="I147" t="s">
-        <v>276</v>
+        <v>135</v>
       </c>
       <c r="J147">
         <v>4</v>
@@ -13105,7 +12850,7 @@
         <v>133</v>
       </c>
       <c r="I148" t="s">
-        <v>277</v>
+        <v>169</v>
       </c>
       <c r="J148">
         <v>2</v>
@@ -13136,27 +12881,27 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" s="24" t="s">
-        <v>278</v>
+        <v>193</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>279</v>
+        <v>194</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>280</v>
+        <v>195</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>281</v>
+        <v>196</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>282</v>
+        <v>197</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>283</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="27" t="s">
-        <v>284</v>
+        <v>199</v>
       </c>
       <c r="C3" s="28">
         <v>40426848</v>
@@ -13165,20 +12910,20 @@
         <v>2023</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>285</v>
+        <v>200</v>
       </c>
       <c r="F3" s="29">
         <f t="shared" ref="F3:F39" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>8106557.6000000006</v>
+        <v>8110250.6000000006</v>
       </c>
       <c r="G3" s="28">
         <f t="shared" ref="G3:G39" ca="1" si="1">C3-F3</f>
-        <v>32320290.399999999</v>
+        <v>32316597.399999999</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="27" t="s">
-        <v>286</v>
+        <v>201</v>
       </c>
       <c r="C4" s="28">
         <v>53896550.399999999</v>
@@ -13187,20 +12932,20 @@
         <v>2022</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>285</v>
+        <v>200</v>
       </c>
       <c r="F4" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>10793218.08</v>
+        <v>10800324.08</v>
       </c>
       <c r="G4" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>43103332.32</v>
+        <v>43096226.32</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="30" customHeight="1">
       <c r="B5" s="27" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="C5" s="28">
         <v>67366252.799999997</v>
@@ -13209,20 +12954,20 @@
         <v>2019</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>285</v>
+        <v>200</v>
       </c>
       <c r="F5" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>13488901.560000001</v>
+        <v>13475033.560000001</v>
       </c>
       <c r="G5" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>53877351.239999995</v>
+        <v>53891219.239999995</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="27" t="s">
-        <v>288</v>
+        <v>203</v>
       </c>
       <c r="C6" s="28">
         <v>94305657.600000009</v>
@@ -13231,20 +12976,20 @@
         <v>2023</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>285</v>
+        <v>200</v>
       </c>
       <c r="F6" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>18883729.520000003</v>
+        <v>18870126.520000003</v>
       </c>
       <c r="G6" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>75421928.080000013</v>
+        <v>75435531.080000013</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="30" customHeight="1">
       <c r="B7" s="27" t="s">
-        <v>289</v>
+        <v>204</v>
       </c>
       <c r="C7" s="28">
         <v>107760576</v>
@@ -13253,20 +12998,20 @@
         <v>2022</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>285</v>
+        <v>200</v>
       </c>
       <c r="F7" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>21570770.200000003</v>
+        <v>21554384.200000003</v>
       </c>
       <c r="G7" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>86189805.799999997</v>
+        <v>86206191.799999997</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="27" t="s">
-        <v>290</v>
+        <v>205</v>
       </c>
       <c r="C8" s="28">
         <v>121082438.40000001</v>
@@ -13275,20 +13020,20 @@
         <v>2019</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>285</v>
+        <v>200</v>
       </c>
       <c r="F8" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>24227840.680000003</v>
+        <v>24237964.680000003</v>
       </c>
       <c r="G8" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>96854597.719999999</v>
+        <v>96844473.719999999</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="27" t="s">
-        <v>291</v>
+        <v>206</v>
       </c>
       <c r="C9" s="28">
         <v>146543443.19999999</v>
@@ -13297,20 +13042,20 @@
         <v>2023</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>285</v>
+        <v>200</v>
       </c>
       <c r="F9" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29315761.640000001</v>
+        <v>29309921.640000001</v>
       </c>
       <c r="G9" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>117227681.55999999</v>
+        <v>117233521.55999999</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="27" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="C10" s="28">
         <v>16608345.6</v>
@@ -13319,20 +13064,20 @@
         <v>2022</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>285</v>
+        <v>200</v>
       </c>
       <c r="F10" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>3339407.12</v>
+        <v>3341261.12</v>
       </c>
       <c r="G10" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>13268938.48</v>
+        <v>13267084.48</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="27" t="s">
-        <v>293</v>
+        <v>208</v>
       </c>
       <c r="C11" s="28">
         <v>33034848</v>
@@ -13341,20 +13086,20 @@
         <v>2019</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>285</v>
+        <v>200</v>
       </c>
       <c r="F11" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>6611696.6000000006</v>
+        <v>6629153.6000000006</v>
       </c>
       <c r="G11" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>26423151.399999999</v>
+        <v>26405694.399999999</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="30" customHeight="1">
       <c r="B12" s="27" t="s">
-        <v>294</v>
+        <v>209</v>
       </c>
       <c r="C12" s="28">
         <v>49461350.399999999</v>
@@ -13363,20 +13108,20 @@
         <v>2020</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>285</v>
+        <v>200</v>
       </c>
       <c r="F12" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>9908766.0800000001</v>
+        <v>9906461.0800000001</v>
       </c>
       <c r="G12" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>39552584.32</v>
+        <v>39554889.32</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="27" t="s">
-        <v>295</v>
+        <v>210</v>
       </c>
       <c r="C13" s="28">
         <v>65887852.799999997</v>
@@ -13385,20 +13130,20 @@
         <v>2020</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>285</v>
+        <v>200</v>
       </c>
       <c r="F13" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>13185573.560000001</v>
+        <v>13188772.560000001</v>
       </c>
       <c r="G13" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>52702279.239999995</v>
+        <v>52699080.239999995</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="27" t="s">
-        <v>296</v>
+        <v>211</v>
       </c>
       <c r="C14" s="28">
         <v>82314355.199999988</v>
@@ -13407,20 +13152,20 @@
         <v>2020</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>285</v>
+        <v>200</v>
       </c>
       <c r="F14" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>16464008.039999999</v>
+        <v>16483787.039999999</v>
       </c>
       <c r="G14" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>65850347.159999989</v>
+        <v>65830568.159999989</v>
       </c>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="27" t="s">
-        <v>297</v>
+        <v>212</v>
       </c>
       <c r="C15" s="28">
         <v>98740857.600000009</v>
@@ -13429,20 +13174,20 @@
         <v>2020</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>298</v>
+        <v>213</v>
       </c>
       <c r="F15" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>19765869.520000003</v>
+        <v>19749926.520000003</v>
       </c>
       <c r="G15" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>78974988.080000013</v>
+        <v>78990931.080000013</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="30" customHeight="1">
       <c r="B16" s="27" t="s">
-        <v>299</v>
+        <v>214</v>
       </c>
       <c r="C16" s="28">
         <v>115152576</v>
@@ -13451,20 +13196,20 @@
         <v>2020</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>285</v>
+        <v>200</v>
       </c>
       <c r="F16" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>23050909.200000003</v>
+        <v>23053641.200000003</v>
       </c>
       <c r="G16" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>92101666.799999997</v>
+        <v>92098934.799999997</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="27" t="s">
-        <v>300</v>
+        <v>215</v>
       </c>
       <c r="C17" s="28">
         <v>131431238.40000001</v>
@@ -13473,20 +13218,20 @@
         <v>2020</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>285</v>
+        <v>200</v>
       </c>
       <c r="F17" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>26309264.680000003</v>
+        <v>26286889.680000003</v>
       </c>
       <c r="G17" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>105121973.72</v>
+        <v>105144348.72</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1">
       <c r="B18" s="27" t="s">
-        <v>301</v>
+        <v>216</v>
       </c>
       <c r="C18" s="28">
         <v>146379340.80000001</v>
@@ -13495,20 +13240,20 @@
         <v>2017</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>298</v>
+        <v>213</v>
       </c>
       <c r="F18" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29280785.160000004</v>
+        <v>29283890.160000004</v>
       </c>
       <c r="G18" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>117098555.64000002</v>
+        <v>117095450.64000002</v>
       </c>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="27" t="s">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="C19" s="28">
         <v>14965843.199999999</v>
@@ -13517,20 +13262,20 @@
         <v>2017</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>285</v>
+        <v>200</v>
       </c>
       <c r="F19" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>2997359.64</v>
+        <v>3016997.64</v>
       </c>
       <c r="G19" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>11968483.559999999</v>
+        <v>11948845.559999999</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="27" t="s">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="C20" s="28">
         <v>31392345.600000001</v>
@@ -13539,20 +13284,20 @@
         <v>2017</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>298</v>
+        <v>213</v>
       </c>
       <c r="F20" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>6296745.120000001</v>
+        <v>6282471.120000001</v>
       </c>
       <c r="G20" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>25095600.48</v>
+        <v>25109874.48</v>
       </c>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="27" t="s">
-        <v>304</v>
+        <v>219</v>
       </c>
       <c r="C21" s="28">
         <v>47818848</v>
@@ -13561,20 +13306,20 @@
         <v>2017</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>285</v>
+        <v>200</v>
       </c>
       <c r="F21" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>9580419.5999999996</v>
+        <v>9573613.5999999996</v>
       </c>
       <c r="G21" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>38238428.399999999</v>
+        <v>38245234.399999999</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="30" customHeight="1">
       <c r="B22" s="27" t="s">
-        <v>305</v>
+        <v>220</v>
       </c>
       <c r="C22" s="28">
         <v>64245350.399999999</v>
@@ -13583,20 +13328,20 @@
         <v>2017</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>285</v>
+        <v>200</v>
       </c>
       <c r="F22" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>12863540.08</v>
+        <v>12865683.08</v>
       </c>
       <c r="G22" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>51381810.32</v>
+        <v>51379667.32</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="27" t="s">
-        <v>306</v>
+        <v>221</v>
       </c>
       <c r="C23" s="28">
         <v>80671852.799999997</v>
@@ -13605,20 +13350,20 @@
         <v>2017</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>285</v>
+        <v>200</v>
       </c>
       <c r="F23" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>16144926.560000001</v>
+        <v>16155508.560000001</v>
       </c>
       <c r="G23" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>64526926.239999995</v>
+        <v>64516344.239999995</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="30" customHeight="1">
       <c r="B24" s="27" t="s">
-        <v>307</v>
+        <v>222</v>
       </c>
       <c r="C24" s="28">
         <v>97098355.199999988</v>
@@ -13627,20 +13372,20 @@
         <v>2017</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>285</v>
+        <v>200</v>
       </c>
       <c r="F24" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>19421733.039999999</v>
+        <v>19438187.039999999</v>
       </c>
       <c r="G24" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>77676622.159999996</v>
+        <v>77660168.159999996</v>
       </c>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="27" t="s">
-        <v>308</v>
+        <v>223</v>
       </c>
       <c r="C25" s="28">
         <v>113524857.59999999</v>
@@ -13649,20 +13394,20 @@
         <v>2015</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>285</v>
+        <v>200</v>
       </c>
       <c r="F25" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>22718439.52</v>
+        <v>22723885.52</v>
       </c>
       <c r="G25" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>90806418.079999998</v>
+        <v>90800972.079999998</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="27" t="s">
-        <v>309</v>
+        <v>224</v>
       </c>
       <c r="C26" s="28">
         <v>129936576</v>
@@ -13671,20 +13416,20 @@
         <v>2015</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>298</v>
+        <v>213</v>
       </c>
       <c r="F26" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>25997481.200000003</v>
+        <v>25988597.200000003</v>
       </c>
       <c r="G26" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>103939094.8</v>
+        <v>103947978.8</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1">
       <c r="B27" s="27" t="s">
-        <v>310</v>
+        <v>225</v>
       </c>
       <c r="C27" s="28">
         <v>146215238.40000001</v>
@@ -13693,20 +13438,20 @@
         <v>2015</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>298</v>
+        <v>213</v>
       </c>
       <c r="F27" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29250100.680000003</v>
+        <v>29253249.680000003</v>
       </c>
       <c r="G27" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>116965137.72</v>
+        <v>116961988.72</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="27" t="s">
-        <v>311</v>
+        <v>226</v>
       </c>
       <c r="C28" s="28">
         <v>28107340.800000001</v>
@@ -13715,20 +13460,20 @@
         <v>2015</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>298</v>
+        <v>213</v>
       </c>
       <c r="F28" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>5630380.1600000001</v>
+        <v>5627602.1600000001</v>
       </c>
       <c r="G28" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>22476960.640000001</v>
+        <v>22479738.640000001</v>
       </c>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="27" t="s">
-        <v>312</v>
+        <v>227</v>
       </c>
       <c r="C29" s="28">
         <v>44533843.200000003</v>
@@ -13737,20 +13482,20 @@
         <v>2015</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>298</v>
+        <v>213</v>
       </c>
       <c r="F29" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>8926311.6400000006</v>
+        <v>8907512.6400000006</v>
       </c>
       <c r="G29" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>35607531.560000002</v>
+        <v>35626330.560000002</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="30" customHeight="1">
       <c r="B30" s="27" t="s">
-        <v>313</v>
+        <v>228</v>
       </c>
       <c r="C30" s="28">
         <v>60960345.599999987</v>
@@ -13759,20 +13504,20 @@
         <v>2015</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>285</v>
+        <v>200</v>
       </c>
       <c r="F30" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>12214116.119999997</v>
+        <v>12204860.119999997</v>
       </c>
       <c r="G30" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>48746229.479999989</v>
+        <v>48755485.479999989</v>
       </c>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="27" t="s">
-        <v>314</v>
+        <v>229</v>
       </c>
       <c r="C31" s="28">
         <v>77386848</v>
@@ -13781,20 +13526,20 @@
         <v>2015</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>285</v>
+        <v>200</v>
       </c>
       <c r="F31" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>15490340.600000001</v>
+        <v>15479793.600000001</v>
       </c>
       <c r="G31" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>61896507.399999999</v>
+        <v>61907054.399999999</v>
       </c>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="27" t="s">
-        <v>315</v>
+        <v>230</v>
       </c>
       <c r="C32" s="28">
         <v>93813350.399999991</v>
@@ -13803,20 +13548,20 @@
         <v>2015</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>285</v>
+        <v>200</v>
       </c>
       <c r="F32" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>18769675.079999998</v>
+        <v>18781837.079999998</v>
       </c>
       <c r="G32" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>75043675.319999993</v>
+        <v>75031513.319999993</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="30" customHeight="1">
       <c r="B33" s="27" t="s">
-        <v>316</v>
+        <v>231</v>
       </c>
       <c r="C33" s="28">
         <v>110239852.8</v>
@@ -13825,20 +13570,20 @@
         <v>2015</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>285</v>
+        <v>200</v>
       </c>
       <c r="F33" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>22050016.560000002</v>
+        <v>22048441.560000002</v>
       </c>
       <c r="G33" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>88189836.239999995</v>
+        <v>88191411.239999995</v>
       </c>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="27" t="s">
-        <v>317</v>
+        <v>232</v>
       </c>
       <c r="C34" s="28">
         <v>126666355.2</v>
@@ -13847,20 +13592,20 @@
         <v>2015</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>285</v>
+        <v>200</v>
       </c>
       <c r="F34" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>25355088.040000003</v>
+        <v>25357736.040000003</v>
       </c>
       <c r="G34" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>101311267.16</v>
+        <v>101308619.16</v>
       </c>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="27" t="s">
-        <v>318</v>
+        <v>233</v>
       </c>
       <c r="C35" s="28">
         <v>143092857.59999999</v>
@@ -13869,20 +13614,20 @@
         <v>2015</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>298</v>
+        <v>213</v>
       </c>
       <c r="F35" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>28632440.52</v>
+        <v>28626318.52</v>
       </c>
       <c r="G35" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>114460417.08</v>
+        <v>114466539.08</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="30" customHeight="1">
       <c r="B36" s="27" t="s">
-        <v>319</v>
+        <v>234</v>
       </c>
       <c r="C36" s="28">
         <v>26448576</v>
@@ -13891,20 +13636,20 @@
         <v>2015</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>298</v>
+        <v>213</v>
       </c>
       <c r="F36" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>5298499.2</v>
+        <v>5296754.2</v>
       </c>
       <c r="G36" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>21150076.800000001</v>
+        <v>21151821.800000001</v>
       </c>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="27" t="s">
-        <v>320</v>
+        <v>235</v>
       </c>
       <c r="C37" s="28">
         <v>42727238.399999999</v>
@@ -13913,20 +13658,20 @@
         <v>2015</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>298</v>
+        <v>213</v>
       </c>
       <c r="F37" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>8566650.6799999997</v>
+        <v>8560455.6799999997</v>
       </c>
       <c r="G37" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>34160587.719999999</v>
+        <v>34166782.719999999</v>
       </c>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="27" t="s">
-        <v>321</v>
+        <v>236</v>
       </c>
       <c r="C38" s="28">
         <v>57675340.799999997</v>
@@ -13935,20 +13680,20 @@
         <v>2015</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>298</v>
+        <v>213</v>
       </c>
       <c r="F38" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>11558060.16</v>
+        <v>11556911.16</v>
       </c>
       <c r="G38" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>46117280.640000001</v>
+        <v>46118429.640000001</v>
       </c>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="27" t="s">
-        <v>322</v>
+        <v>237</v>
       </c>
       <c r="C39" s="28">
         <v>74101843.200000003</v>
@@ -13957,15 +13702,15 @@
         <v>2015</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>298</v>
+        <v>213</v>
       </c>
       <c r="F39" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>14833025.640000001</v>
+        <v>14832621.640000001</v>
       </c>
       <c r="G39" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>59268817.560000002</v>
+        <v>59269221.560000002</v>
       </c>
     </row>
   </sheetData>
@@ -14001,10 +13746,10 @@
         <v>94</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>323</v>
+        <v>238</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>324</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -14016,10 +13761,10 @@
       </c>
       <c r="D3" s="30"/>
       <c r="E3" s="31" t="s">
-        <v>325</v>
+        <v>240</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>326</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -14033,10 +13778,10 @@
         <v>2</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>327</v>
+        <v>242</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>328</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -14048,15 +13793,15 @@
       </c>
       <c r="D5" s="30"/>
       <c r="E5" s="31" t="s">
-        <v>327</v>
+        <v>242</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>328</v>
+        <v>243</v>
       </c>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="30" t="s">
-        <v>329</v>
+        <v>244</v>
       </c>
       <c r="C40" s="30">
         <v>6</v>
@@ -14074,7 +13819,7 @@
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="30" t="s">
-        <v>330</v>
+        <v>245</v>
       </c>
       <c r="C41" s="30">
         <v>7</v>
@@ -14131,13 +13876,13 @@
         <v>99</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>331</v>
+        <v>246</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>332</v>
+        <v>247</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>333</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -14145,7 +13890,7 @@
         <v>114</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>334</v>
+        <v>249</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
@@ -14157,10 +13902,10 @@
         <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H2" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -14182,10 +13927,10 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H3" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -14206,10 +13951,10 @@
         <v>12</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
       <c r="H4" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -14230,10 +13975,10 @@
         <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H5" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -14254,10 +13999,10 @@
         <v>14</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
       <c r="H6" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -14279,10 +14024,10 @@
         <v>7</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
       <c r="H7" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -14304,10 +14049,10 @@
         <v>11</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H8" t="s">
-        <v>341</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -14329,10 +14074,10 @@
         <v>12</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H9" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -14354,10 +14099,10 @@
         <v>12</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H10" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -14379,10 +14124,10 @@
         <v>12</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
       <c r="H11" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -14404,7 +14149,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -14426,10 +14171,10 @@
         <v>4</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H13" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -14451,7 +14196,7 @@
         <v>12</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -14474,7 +14219,7 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -14496,7 +14241,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -14518,10 +14263,10 @@
         <v>10</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H17" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -14543,7 +14288,7 @@
         <v>7</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -14565,7 +14310,7 @@
         <v>9</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -14587,7 +14332,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -14610,7 +14355,7 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" t="s">
-        <v>346</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -14632,7 +14377,7 @@
         <v>4</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -14654,7 +14399,7 @@
         <v>6</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -14676,7 +14421,7 @@
         <v>14</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -14698,7 +14443,7 @@
         <v>12</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>347</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -14720,7 +14465,7 @@
         <v>13</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -14742,7 +14487,7 @@
         <v>4</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -14764,10 +14509,10 @@
         <v>7</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H28" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -14789,10 +14534,10 @@
         <v>12</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H29" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -14814,7 +14559,7 @@
         <v>12</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -14836,7 +14581,7 @@
         <v>15</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -14859,7 +14604,7 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -14881,10 +14626,10 @@
         <v>7</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H33" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -14906,10 +14651,10 @@
         <v>13</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H34" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -14931,10 +14676,10 @@
         <v>15</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H35" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -14956,10 +14701,10 @@
         <v>13</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H36" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -14981,7 +14726,7 @@
         <v>11</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -15003,7 +14748,7 @@
         <v>7</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -15025,7 +14770,7 @@
         <v>10</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -15047,10 +14792,10 @@
         <v>13</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H40" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -15072,10 +14817,10 @@
         <v>12</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H41" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -15097,7 +14842,7 @@
         <v>3</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -15119,7 +14864,7 @@
         <v>6</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -15141,7 +14886,7 @@
         <v>11</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -15163,7 +14908,7 @@
         <v>13</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -15185,7 +14930,7 @@
         <v>15</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -15207,7 +14952,7 @@
         <v>3</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -15229,7 +14974,7 @@
         <v>8</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>348</v>
+        <v>263</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -15251,7 +14996,7 @@
         <v>11</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -15273,7 +15018,7 @@
         <v>12</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -15295,7 +15040,7 @@
         <v>10</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -15315,30 +15060,30 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1">
       <c r="A1" s="33" t="s">
-        <v>349</v>
+        <v>264</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>350</v>
+        <v>265</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>351</v>
+        <v>266</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>352</v>
+        <v>267</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>353</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>354</v>
+        <v>269</v>
       </c>
       <c r="B2" t="s">
-        <v>355</v>
+        <v>270</v>
       </c>
       <c r="C2" t="s">
-        <v>354</v>
+        <v>269</v>
       </c>
       <c r="D2">
         <v>21</v>
@@ -15349,13 +15094,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>356</v>
+        <v>271</v>
       </c>
       <c r="B3" t="s">
-        <v>357</v>
+        <v>272</v>
       </c>
       <c r="C3" t="s">
-        <v>356</v>
+        <v>271</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -15366,13 +15111,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>347</v>
+        <v>262</v>
       </c>
       <c r="B4" t="s">
-        <v>358</v>
+        <v>273</v>
       </c>
       <c r="C4" t="s">
-        <v>347</v>
+        <v>262</v>
       </c>
       <c r="D4">
         <v>19</v>
@@ -15383,13 +15128,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
       <c r="B5" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
       <c r="C5" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
       <c r="D5">
         <v>18</v>
@@ -15400,13 +15145,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
       <c r="B6" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
       <c r="C6" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
       <c r="D6">
         <v>17</v>
@@ -15417,13 +15162,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="B7" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
       <c r="C7" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="D7">
         <v>16</v>
@@ -15434,13 +15179,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
       <c r="B8" t="s">
-        <v>341</v>
+        <v>256</v>
       </c>
       <c r="C8" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
       <c r="D8">
         <v>15</v>
@@ -15451,13 +15196,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
       <c r="B9" t="s">
-        <v>359</v>
+        <v>274</v>
       </c>
       <c r="C9" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
       <c r="D9">
         <v>14</v>
@@ -15468,13 +15213,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
       <c r="B10" t="s">
-        <v>360</v>
+        <v>275</v>
       </c>
       <c r="C10" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
       <c r="D10">
         <v>13</v>
@@ -15485,13 +15230,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>361</v>
+        <v>276</v>
       </c>
       <c r="B11" t="s">
-        <v>362</v>
+        <v>277</v>
       </c>
       <c r="C11" t="s">
-        <v>361</v>
+        <v>276</v>
       </c>
       <c r="D11">
         <v>12</v>
@@ -15502,13 +15247,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>348</v>
+        <v>263</v>
       </c>
       <c r="B12" t="s">
-        <v>363</v>
+        <v>278</v>
       </c>
       <c r="C12" t="s">
-        <v>348</v>
+        <v>263</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -15519,13 +15264,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>364</v>
+        <v>279</v>
       </c>
       <c r="B13" t="s">
-        <v>365</v>
+        <v>280</v>
       </c>
       <c r="C13" t="s">
-        <v>364</v>
+        <v>279</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -15536,13 +15281,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>366</v>
+        <v>281</v>
       </c>
       <c r="B14" t="s">
-        <v>367</v>
+        <v>282</v>
       </c>
       <c r="C14" t="s">
-        <v>366</v>
+        <v>281</v>
       </c>
       <c r="D14">
         <v>9</v>
@@ -15553,13 +15298,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>346</v>
+        <v>261</v>
       </c>
       <c r="B15" t="s">
-        <v>368</v>
+        <v>283</v>
       </c>
       <c r="C15" t="s">
-        <v>346</v>
+        <v>261</v>
       </c>
       <c r="D15">
         <v>8</v>
@@ -15570,13 +15315,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>369</v>
+        <v>284</v>
       </c>
       <c r="B16" t="s">
-        <v>370</v>
+        <v>285</v>
       </c>
       <c r="C16" t="s">
-        <v>369</v>
+        <v>284</v>
       </c>
       <c r="D16">
         <v>7</v>
@@ -15587,13 +15332,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="B17" t="s">
-        <v>372</v>
+        <v>287</v>
       </c>
       <c r="C17" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="D17">
         <v>6</v>
@@ -15604,13 +15349,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>373</v>
+        <v>288</v>
       </c>
       <c r="B18" t="s">
-        <v>374</v>
+        <v>289</v>
       </c>
       <c r="C18" t="s">
-        <v>373</v>
+        <v>288</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -15621,13 +15366,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>375</v>
+        <v>290</v>
       </c>
       <c r="B19" t="s">
-        <v>376</v>
+        <v>291</v>
       </c>
       <c r="C19" t="s">
-        <v>375</v>
+        <v>290</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -15638,13 +15383,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>377</v>
+        <v>292</v>
       </c>
       <c r="B20" t="s">
-        <v>378</v>
+        <v>293</v>
       </c>
       <c r="C20" t="s">
-        <v>377</v>
+        <v>292</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -15655,13 +15400,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>379</v>
+        <v>294</v>
       </c>
       <c r="B21" t="s">
-        <v>380</v>
+        <v>295</v>
       </c>
       <c r="C21" t="s">
-        <v>379</v>
+        <v>294</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -15672,7 +15417,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="C22" t="s">
-        <v>381</v>
+        <v>296</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -15683,13 +15428,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>382</v>
+        <v>297</v>
       </c>
       <c r="B23" t="s">
-        <v>381</v>
+        <v>296</v>
       </c>
       <c r="C23" t="s">
-        <v>383</v>
+        <v>298</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -15697,10 +15442,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>384</v>
+        <v>299</v>
       </c>
       <c r="C24" t="s">
-        <v>385</v>
+        <v>300</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -15708,7 +15453,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="C25" t="s">
-        <v>384</v>
+        <v>299</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -15731,21 +15476,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1">
       <c r="A1" s="33" t="s">
-        <v>350</v>
+        <v>265</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>353</v>
+        <v>268</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>386</v>
+        <v>301</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>387</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>355</v>
+        <v>270</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -15759,7 +15504,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>357</v>
+        <v>272</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -15773,7 +15518,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>358</v>
+        <v>273</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -15787,7 +15532,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -15801,7 +15546,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -15815,7 +15560,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -15829,7 +15574,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>341</v>
+        <v>256</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -15843,7 +15588,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>359</v>
+        <v>274</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -15857,7 +15602,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>360</v>
+        <v>275</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -15871,7 +15616,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>362</v>
+        <v>277</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -15885,7 +15630,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>363</v>
+        <v>278</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -15899,7 +15644,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>365</v>
+        <v>280</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -15913,7 +15658,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>367</v>
+        <v>282</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -15927,7 +15672,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>368</v>
+        <v>283</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -15941,7 +15686,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>370</v>
+        <v>285</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -15955,7 +15700,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>372</v>
+        <v>287</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -15969,7 +15714,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>374</v>
+        <v>289</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -15983,7 +15728,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>376</v>
+        <v>291</v>
       </c>
       <c r="B19">
         <v>17</v>
@@ -15997,7 +15742,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>378</v>
+        <v>293</v>
       </c>
       <c r="B20">
         <v>17</v>
@@ -16011,7 +15756,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>380</v>
+        <v>295</v>
       </c>
       <c r="B21">
         <v>17</v>
@@ -16025,7 +15770,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>381</v>
+        <v>296</v>
       </c>
       <c r="B22">
         <v>17</v>

--- a/Sample_Bank_Data/SEP 2023.xlsx
+++ b/Sample_Bank_Data/SEP 2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{C1AC0192-DAE6-4F35-8B70-01A58E664243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14903FBE-B2F8-41A4-98C8-425D50D9F03E}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{C1AC0192-DAE6-4F35-8B70-01A58E664243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83117F72-CA41-497F-B0B5-98271D45AA72}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="307">
   <si>
     <t>Collateral Types</t>
   </si>
@@ -424,9 +424,6 @@
     <t>Collateral Grade</t>
   </si>
   <si>
-    <t>Collatral Land &amp; Building</t>
-  </si>
-  <si>
     <t>50%</t>
   </si>
   <si>
@@ -448,9 +445,6 @@
     <t>Building2</t>
   </si>
   <si>
-    <t>Collatral Cash, Gold &amp; Other Riskfree Assests</t>
-  </si>
-  <si>
     <t>0%</t>
   </si>
   <si>
@@ -467,9 +461,6 @@
   </si>
   <si>
     <t>Building4</t>
-  </si>
-  <si>
-    <t>Collatral Shares &amp; Other Paper Assests</t>
   </si>
   <si>
     <t>75%</t>
@@ -1701,22 +1692,22 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="17" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>28</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2018,7 +2009,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -2048,7 +2039,7 @@
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -8114,8 +8105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="I76" sqref="I76"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8166,7 +8157,7 @@
         <v>6343058.5</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -8175,10 +8166,10 @@
         <v>7</v>
       </c>
       <c r="H2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" t="s">
         <v>125</v>
-      </c>
-      <c r="I2" t="s">
-        <v>126</v>
       </c>
       <c r="J2">
         <v>4</v>
@@ -8198,7 +8189,7 @@
         <v>6343058.5</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -8207,10 +8198,10 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -8239,10 +8230,10 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" t="s">
         <v>128</v>
-      </c>
-      <c r="I4" t="s">
-        <v>129</v>
       </c>
       <c r="J4">
         <v>5</v>
@@ -8262,7 +8253,7 @@
         <v>12480196.5</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -8271,10 +8262,10 @@
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -8294,7 +8285,7 @@
         <v>12480196.5</v>
       </c>
       <c r="E6" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
@@ -8303,10 +8294,10 @@
         <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -8326,7 +8317,7 @@
         <v>49393186.5</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -8335,10 +8326,10 @@
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J7">
         <v>5</v>
@@ -8358,7 +8349,7 @@
         <v>49393186.5</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -8367,10 +8358,10 @@
         <v>14</v>
       </c>
       <c r="H8" t="s">
+        <v>131</v>
+      </c>
+      <c r="I8" t="s">
         <v>133</v>
-      </c>
-      <c r="I8" t="s">
-        <v>135</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -8399,10 +8390,10 @@
         <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -8422,7 +8413,7 @@
         <v>49407937.5</v>
       </c>
       <c r="E10" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
         <v>5</v>
@@ -8431,10 +8422,10 @@
         <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J10">
         <v>4</v>
@@ -8454,7 +8445,7 @@
         <v>49407937.5</v>
       </c>
       <c r="E11" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
         <v>5</v>
@@ -8463,10 +8454,10 @@
         <v>6</v>
       </c>
       <c r="H11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -8486,7 +8477,7 @@
         <v>11746032</v>
       </c>
       <c r="E12" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
@@ -8495,10 +8486,10 @@
         <v>22</v>
       </c>
       <c r="H12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -8518,7 +8509,7 @@
         <v>11746032</v>
       </c>
       <c r="E13" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
@@ -8527,10 +8518,10 @@
         <v>21</v>
       </c>
       <c r="H13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -8550,7 +8541,7 @@
         <v>38280043.5</v>
       </c>
       <c r="E14" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
@@ -8559,10 +8550,10 @@
         <v>21</v>
       </c>
       <c r="H14" t="s">
+        <v>137</v>
+      </c>
+      <c r="I14" t="s">
         <v>140</v>
-      </c>
-      <c r="I14" t="s">
-        <v>143</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -8582,7 +8573,7 @@
         <v>38280043.5</v>
       </c>
       <c r="E15" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -8591,10 +8582,10 @@
         <v>22</v>
       </c>
       <c r="H15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -8623,10 +8614,10 @@
         <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -8646,7 +8637,7 @@
         <v>28402755.5</v>
       </c>
       <c r="E17" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
         <v>5</v>
@@ -8655,10 +8646,10 @@
         <v>6</v>
       </c>
       <c r="H17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J17">
         <v>3</v>
@@ -8678,7 +8669,7 @@
         <v>28402755.5</v>
       </c>
       <c r="E18" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -8687,10 +8678,10 @@
         <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I18" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J18">
         <v>3</v>
@@ -8710,7 +8701,7 @@
         <v>43833068.5</v>
       </c>
       <c r="E19" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
@@ -8719,10 +8710,10 @@
         <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J19">
         <v>3</v>
@@ -8742,7 +8733,7 @@
         <v>43833068.5</v>
       </c>
       <c r="E20" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
@@ -8751,10 +8742,10 @@
         <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -8774,7 +8765,7 @@
         <v>27157020</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -8783,10 +8774,10 @@
         <v>10</v>
       </c>
       <c r="H21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I21" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -8806,7 +8797,7 @@
         <v>27157020</v>
       </c>
       <c r="E22" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -8815,10 +8806,10 @@
         <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I22" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J22">
         <v>5</v>
@@ -8838,7 +8829,7 @@
         <v>11723675.5</v>
       </c>
       <c r="E23" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
@@ -8847,10 +8838,10 @@
         <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I23" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J23">
         <v>3</v>
@@ -8870,7 +8861,7 @@
         <v>11723675.5</v>
       </c>
       <c r="E24" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
@@ -8879,10 +8870,10 @@
         <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -8902,7 +8893,7 @@
         <v>33941860.5</v>
       </c>
       <c r="E25" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F25" t="s">
         <v>20</v>
@@ -8911,10 +8902,10 @@
         <v>21</v>
       </c>
       <c r="H25" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I25" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J25">
         <v>2</v>
@@ -8934,7 +8925,7 @@
         <v>33941860.5</v>
       </c>
       <c r="E26" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F26" t="s">
         <v>20</v>
@@ -8943,10 +8934,10 @@
         <v>22</v>
       </c>
       <c r="H26" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I26" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J26">
         <v>2</v>
@@ -8966,7 +8957,7 @@
         <v>16065411.5</v>
       </c>
       <c r="E27" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
         <v>5</v>
@@ -8975,10 +8966,10 @@
         <v>6</v>
       </c>
       <c r="H27" t="s">
+        <v>124</v>
+      </c>
+      <c r="I27" t="s">
         <v>125</v>
-      </c>
-      <c r="I27" t="s">
-        <v>126</v>
       </c>
       <c r="J27">
         <v>2</v>
@@ -8998,7 +8989,7 @@
         <v>16065411.5</v>
       </c>
       <c r="E28" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -9007,10 +8998,10 @@
         <v>10</v>
       </c>
       <c r="H28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I28" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J28">
         <v>5</v>
@@ -9030,7 +9021,7 @@
         <v>38270479.5</v>
       </c>
       <c r="E29" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
@@ -9039,10 +9030,10 @@
         <v>18</v>
       </c>
       <c r="H29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I29" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J29">
         <v>5</v>
@@ -9062,7 +9053,7 @@
         <v>38270479.5</v>
       </c>
       <c r="E30" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F30" t="s">
         <v>14</v>
@@ -9071,10 +9062,10 @@
         <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I30" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -9103,10 +9094,10 @@
         <v>24</v>
       </c>
       <c r="H31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I31" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J31">
         <v>3</v>
@@ -9126,7 +9117,7 @@
         <v>10548856.5</v>
       </c>
       <c r="E32" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -9135,10 +9126,10 @@
         <v>11</v>
       </c>
       <c r="H32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I32" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J32">
         <v>5</v>
@@ -9158,7 +9149,7 @@
         <v>10548856.5</v>
       </c>
       <c r="E33" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -9167,10 +9158,10 @@
         <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I33" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -9190,7 +9181,7 @@
         <v>45072968.5</v>
       </c>
       <c r="E34" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F34" t="s">
         <v>20</v>
@@ -9199,10 +9190,10 @@
         <v>21</v>
       </c>
       <c r="H34" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I34" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J34">
         <v>2</v>
@@ -9222,7 +9213,7 @@
         <v>45072968.5</v>
       </c>
       <c r="E35" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F35" t="s">
         <v>20</v>
@@ -9231,10 +9222,10 @@
         <v>22</v>
       </c>
       <c r="H35" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I35" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -9263,10 +9254,10 @@
         <v>24</v>
       </c>
       <c r="H36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I36" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J36">
         <v>4</v>
@@ -9286,7 +9277,7 @@
         <v>49372562.5</v>
       </c>
       <c r="E37" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F37" t="s">
         <v>20</v>
@@ -9295,10 +9286,10 @@
         <v>21</v>
       </c>
       <c r="H37" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I37" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J37">
         <v>2</v>
@@ -9318,7 +9309,7 @@
         <v>49372562.5</v>
       </c>
       <c r="E38" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F38" t="s">
         <v>20</v>
@@ -9327,10 +9318,10 @@
         <v>22</v>
       </c>
       <c r="H38" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I38" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J38">
         <v>2</v>
@@ -9359,10 +9350,10 @@
         <v>24</v>
       </c>
       <c r="H39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I39" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J39">
         <v>5</v>
@@ -9382,7 +9373,7 @@
         <v>11738448.5</v>
       </c>
       <c r="E40" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F40" t="s">
         <v>5</v>
@@ -9391,10 +9382,10 @@
         <v>8</v>
       </c>
       <c r="H40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I40" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J40">
         <v>4</v>
@@ -9414,7 +9405,7 @@
         <v>11738448.5</v>
       </c>
       <c r="E41" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -9423,10 +9414,10 @@
         <v>10</v>
       </c>
       <c r="H41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I41" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J41">
         <v>4</v>
@@ -9446,7 +9437,7 @@
         <v>32722063.5</v>
       </c>
       <c r="E42" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F42" t="s">
         <v>15</v>
@@ -9455,10 +9446,10 @@
         <v>15</v>
       </c>
       <c r="H42" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I42" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J42">
         <v>5</v>
@@ -9478,7 +9469,7 @@
         <v>32722063.5</v>
       </c>
       <c r="E43" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F43" t="s">
         <v>16</v>
@@ -9487,10 +9478,10 @@
         <v>17</v>
       </c>
       <c r="H43" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I43" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J43">
         <v>3</v>
@@ -9519,10 +9510,10 @@
         <v>24</v>
       </c>
       <c r="H44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I44" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J44">
         <v>5</v>
@@ -9542,7 +9533,7 @@
         <v>39449654.5</v>
       </c>
       <c r="E45" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F45" t="s">
         <v>15</v>
@@ -9551,10 +9542,10 @@
         <v>15</v>
       </c>
       <c r="H45" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I45" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J45">
         <v>2</v>
@@ -9574,7 +9565,7 @@
         <v>39449654.5</v>
       </c>
       <c r="E46" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
@@ -9583,10 +9574,10 @@
         <v>18</v>
       </c>
       <c r="H46" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I46" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J46">
         <v>4</v>
@@ -9615,10 +9606,10 @@
         <v>24</v>
       </c>
       <c r="H47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I47" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J47">
         <v>3</v>
@@ -9638,7 +9629,7 @@
         <v>22844895.5</v>
       </c>
       <c r="E48" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
@@ -9647,10 +9638,10 @@
         <v>11</v>
       </c>
       <c r="H48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I48" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J48">
         <v>4</v>
@@ -9670,7 +9661,7 @@
         <v>22844895.5</v>
       </c>
       <c r="E49" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
@@ -9679,10 +9670,10 @@
         <v>10</v>
       </c>
       <c r="H49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J49">
         <v>4</v>
@@ -9711,10 +9702,10 @@
         <v>24</v>
       </c>
       <c r="H50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I50" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J50">
         <v>2</v>
@@ -9734,7 +9725,7 @@
         <v>6193853</v>
       </c>
       <c r="E51" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F51" t="s">
         <v>20</v>
@@ -9743,10 +9734,10 @@
         <v>22</v>
       </c>
       <c r="H51" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I51" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J51">
         <v>2</v>
@@ -9766,7 +9757,7 @@
         <v>6193853</v>
       </c>
       <c r="E52" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F52" t="s">
         <v>20</v>
@@ -9775,10 +9766,10 @@
         <v>21</v>
       </c>
       <c r="H52" t="s">
+        <v>137</v>
+      </c>
+      <c r="I52" t="s">
         <v>140</v>
-      </c>
-      <c r="I52" t="s">
-        <v>143</v>
       </c>
       <c r="J52">
         <v>3</v>
@@ -9807,10 +9798,10 @@
         <v>24</v>
       </c>
       <c r="H53" t="s">
+        <v>127</v>
+      </c>
+      <c r="I53" t="s">
         <v>128</v>
-      </c>
-      <c r="I53" t="s">
-        <v>129</v>
       </c>
       <c r="J53">
         <v>2</v>
@@ -9830,7 +9821,7 @@
         <v>6191408</v>
       </c>
       <c r="E54" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
@@ -9839,10 +9830,10 @@
         <v>12</v>
       </c>
       <c r="H54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J54">
         <v>2</v>
@@ -9862,7 +9853,7 @@
         <v>6191408</v>
       </c>
       <c r="E55" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F55" t="s">
         <v>5</v>
@@ -9871,10 +9862,10 @@
         <v>8</v>
       </c>
       <c r="H55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I55" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J55">
         <v>5</v>
@@ -9903,10 +9894,10 @@
         <v>24</v>
       </c>
       <c r="H56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I56" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J56">
         <v>3</v>
@@ -9926,7 +9917,7 @@
         <v>17274785.5</v>
       </c>
       <c r="E57" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F57" t="s">
         <v>20</v>
@@ -9935,10 +9926,10 @@
         <v>22</v>
       </c>
       <c r="H57" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I57" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J57">
         <v>3</v>
@@ -9958,7 +9949,7 @@
         <v>17274785.5</v>
       </c>
       <c r="E58" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F58" t="s">
         <v>20</v>
@@ -9967,10 +9958,10 @@
         <v>21</v>
       </c>
       <c r="H58" t="s">
+        <v>137</v>
+      </c>
+      <c r="I58" t="s">
         <v>140</v>
-      </c>
-      <c r="I58" t="s">
-        <v>143</v>
       </c>
       <c r="J58">
         <v>2</v>
@@ -9999,10 +9990,10 @@
         <v>24</v>
       </c>
       <c r="H59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I59" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J59">
         <v>4</v>
@@ -10022,7 +10013,7 @@
         <v>38275917.5</v>
       </c>
       <c r="E60" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
@@ -10031,10 +10022,10 @@
         <v>8</v>
       </c>
       <c r="H60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I60" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J60">
         <v>5</v>
@@ -10054,7 +10045,7 @@
         <v>38275917.5</v>
       </c>
       <c r="E61" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F61" t="s">
         <v>5</v>
@@ -10063,10 +10054,10 @@
         <v>7</v>
       </c>
       <c r="H61" t="s">
+        <v>124</v>
+      </c>
+      <c r="I61" t="s">
         <v>125</v>
-      </c>
-      <c r="I61" t="s">
-        <v>126</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -10095,10 +10086,10 @@
         <v>24</v>
       </c>
       <c r="H62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I62" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -10118,7 +10109,7 @@
         <v>6178822</v>
       </c>
       <c r="E63" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F63" t="s">
         <v>15</v>
@@ -10127,10 +10118,10 @@
         <v>15</v>
       </c>
       <c r="H63" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I63" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J63">
         <v>2</v>
@@ -10150,7 +10141,7 @@
         <v>6178822</v>
       </c>
       <c r="E64" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F64" t="s">
         <v>14</v>
@@ -10159,10 +10150,10 @@
         <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I64" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -10191,10 +10182,10 @@
         <v>24</v>
       </c>
       <c r="H65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I65" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J65">
         <v>2</v>
@@ -10214,7 +10205,7 @@
         <v>32719260</v>
       </c>
       <c r="E66" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F66" t="s">
         <v>20</v>
@@ -10223,10 +10214,10 @@
         <v>22</v>
       </c>
       <c r="H66" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I66" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J66">
         <v>5</v>
@@ -10246,7 +10237,7 @@
         <v>32719260</v>
       </c>
       <c r="E67" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F67" t="s">
         <v>20</v>
@@ -10255,10 +10246,10 @@
         <v>21</v>
       </c>
       <c r="H67" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I67" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J67">
         <v>4</v>
@@ -10287,10 +10278,10 @@
         <v>24</v>
       </c>
       <c r="H68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I68" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J68">
         <v>2</v>
@@ -10310,7 +10301,7 @@
         <v>28405040.5</v>
       </c>
       <c r="E69" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F69" t="s">
         <v>5</v>
@@ -10319,10 +10310,10 @@
         <v>6</v>
       </c>
       <c r="H69" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I69" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J69">
         <v>4</v>
@@ -10342,7 +10333,7 @@
         <v>28405040.5</v>
       </c>
       <c r="E70" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F70" t="s">
         <v>5</v>
@@ -10351,10 +10342,10 @@
         <v>7</v>
       </c>
       <c r="H70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J70">
         <v>2</v>
@@ -10374,7 +10365,7 @@
         <v>39461066.5</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F71" t="s">
         <v>20</v>
@@ -10383,10 +10374,10 @@
         <v>22</v>
       </c>
       <c r="H71" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I71" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J71">
         <v>2</v>
@@ -10406,7 +10397,7 @@
         <v>39461066.5</v>
       </c>
       <c r="E72" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F72" t="s">
         <v>20</v>
@@ -10415,10 +10406,10 @@
         <v>21</v>
       </c>
       <c r="H72" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I72" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J72">
         <v>2</v>
@@ -10447,10 +10438,10 @@
         <v>24</v>
       </c>
       <c r="H73" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I73" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J73">
         <v>4</v>
@@ -10479,10 +10470,10 @@
         <v>24</v>
       </c>
       <c r="H74" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I74" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J74">
         <v>5</v>
@@ -10511,10 +10502,10 @@
         <v>24</v>
       </c>
       <c r="H75" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I75" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J75">
         <v>5</v>
@@ -10534,7 +10525,7 @@
         <v>38271926</v>
       </c>
       <c r="E76" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F76" t="s">
         <v>9</v>
@@ -10543,10 +10534,10 @@
         <v>10</v>
       </c>
       <c r="H76" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I76" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J76">
         <v>3</v>
@@ -10566,7 +10557,7 @@
         <v>38271926</v>
       </c>
       <c r="E77" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F77" t="s">
         <v>5</v>
@@ -10575,10 +10566,10 @@
         <v>6</v>
       </c>
       <c r="H77" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I77" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -10598,7 +10589,7 @@
         <v>43841753</v>
       </c>
       <c r="E78" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F78" t="s">
         <v>14</v>
@@ -10607,10 +10598,10 @@
         <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I78" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -10630,7 +10621,7 @@
         <v>43841753</v>
       </c>
       <c r="E79" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F79" t="s">
         <v>16</v>
@@ -10639,10 +10630,10 @@
         <v>18</v>
       </c>
       <c r="H79" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I79" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J79">
         <v>5</v>
@@ -10671,10 +10662,10 @@
         <v>24</v>
       </c>
       <c r="H80" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I80" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -10694,7 +10685,7 @@
         <v>22847790</v>
       </c>
       <c r="E81" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F81" t="s">
         <v>5</v>
@@ -10703,10 +10694,10 @@
         <v>8</v>
       </c>
       <c r="H81" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I81" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J81">
         <v>2</v>
@@ -10726,7 +10717,7 @@
         <v>22847790</v>
       </c>
       <c r="E82" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F82" t="s">
         <v>9</v>
@@ -10735,10 +10726,10 @@
         <v>10</v>
       </c>
       <c r="H82" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I82" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J82">
         <v>3</v>
@@ -10758,7 +10749,7 @@
         <v>11745506.5</v>
       </c>
       <c r="E83" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F83" t="s">
         <v>20</v>
@@ -10767,10 +10758,10 @@
         <v>21</v>
       </c>
       <c r="H83" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I83" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -10790,7 +10781,7 @@
         <v>11745506.5</v>
       </c>
       <c r="E84" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F84" t="s">
         <v>20</v>
@@ -10799,10 +10790,10 @@
         <v>22</v>
       </c>
       <c r="H84" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I84" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J84">
         <v>5</v>
@@ -10831,10 +10822,10 @@
         <v>24</v>
       </c>
       <c r="H85" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I85" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J85">
         <v>4</v>
@@ -10863,10 +10854,10 @@
         <v>24</v>
       </c>
       <c r="H86" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I86" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J86">
         <v>3</v>
@@ -10886,7 +10877,7 @@
         <v>28397010.5</v>
       </c>
       <c r="E87" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F87" t="s">
         <v>15</v>
@@ -10895,10 +10886,10 @@
         <v>15</v>
       </c>
       <c r="H87" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I87" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J87">
         <v>4</v>
@@ -10918,7 +10909,7 @@
         <v>28397010.5</v>
       </c>
       <c r="E88" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F88" t="s">
         <v>14</v>
@@ -10927,10 +10918,10 @@
         <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I88" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J88">
         <v>3</v>
@@ -10950,7 +10941,7 @@
         <v>33937832</v>
       </c>
       <c r="E89" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F89" t="s">
         <v>20</v>
@@ -10959,10 +10950,10 @@
         <v>21</v>
       </c>
       <c r="H89" t="s">
+        <v>137</v>
+      </c>
+      <c r="I89" t="s">
         <v>140</v>
-      </c>
-      <c r="I89" t="s">
-        <v>143</v>
       </c>
       <c r="J89">
         <v>2</v>
@@ -10982,7 +10973,7 @@
         <v>33937832</v>
       </c>
       <c r="E90" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F90" t="s">
         <v>20</v>
@@ -10991,10 +10982,10 @@
         <v>22</v>
       </c>
       <c r="H90" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I90" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J90">
         <v>5</v>
@@ -11023,10 +11014,10 @@
         <v>24</v>
       </c>
       <c r="H91" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I91" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J91">
         <v>2</v>
@@ -11046,7 +11037,7 @@
         <v>5478410.5</v>
       </c>
       <c r="E92" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F92" t="s">
         <v>9</v>
@@ -11055,10 +11046,10 @@
         <v>12</v>
       </c>
       <c r="H92" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I92" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J92">
         <v>3</v>
@@ -11078,7 +11069,7 @@
         <v>5478410.5</v>
       </c>
       <c r="E93" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F93" t="s">
         <v>5</v>
@@ -11087,10 +11078,10 @@
         <v>6</v>
       </c>
       <c r="H93" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I93" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J93">
         <v>4</v>
@@ -11110,7 +11101,7 @@
         <v>5496141.5</v>
       </c>
       <c r="E94" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F94" t="s">
         <v>16</v>
@@ -11119,10 +11110,10 @@
         <v>18</v>
       </c>
       <c r="H94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I94" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J94">
         <v>5</v>
@@ -11142,7 +11133,7 @@
         <v>5496141.5</v>
       </c>
       <c r="E95" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F95" t="s">
         <v>16</v>
@@ -11151,10 +11142,10 @@
         <v>17</v>
       </c>
       <c r="H95" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I95" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -11183,10 +11174,10 @@
         <v>24</v>
       </c>
       <c r="H96" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I96" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J96">
         <v>5</v>
@@ -11206,7 +11197,7 @@
         <v>43828060.5</v>
       </c>
       <c r="E97" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F97" t="s">
         <v>20</v>
@@ -11215,10 +11206,10 @@
         <v>22</v>
       </c>
       <c r="H97" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I97" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J97">
         <v>2</v>
@@ -11238,7 +11229,7 @@
         <v>43828060.5</v>
       </c>
       <c r="E98" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F98" t="s">
         <v>20</v>
@@ -11247,10 +11238,10 @@
         <v>21</v>
       </c>
       <c r="H98" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I98" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J98">
         <v>2</v>
@@ -11279,10 +11270,10 @@
         <v>24</v>
       </c>
       <c r="H99" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I99" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J99">
         <v>3</v>
@@ -11302,7 +11293,7 @@
         <v>11727442.5</v>
       </c>
       <c r="E100" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F100" t="s">
         <v>14</v>
@@ -11311,10 +11302,10 @@
         <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I100" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J100">
         <v>2</v>
@@ -11334,7 +11325,7 @@
         <v>11727442.5</v>
       </c>
       <c r="E101" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F101" t="s">
         <v>16</v>
@@ -11343,10 +11334,10 @@
         <v>17</v>
       </c>
       <c r="H101" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I101" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J101">
         <v>3</v>
@@ -11375,10 +11366,10 @@
         <v>24</v>
       </c>
       <c r="H102" t="s">
+        <v>127</v>
+      </c>
+      <c r="I102" t="s">
         <v>128</v>
-      </c>
-      <c r="I102" t="s">
-        <v>129</v>
       </c>
       <c r="J102">
         <v>4</v>
@@ -11398,7 +11389,7 @@
         <v>49387672</v>
       </c>
       <c r="E103" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F103" t="s">
         <v>16</v>
@@ -11407,10 +11398,10 @@
         <v>17</v>
       </c>
       <c r="H103" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I103" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J103">
         <v>3</v>
@@ -11430,7 +11421,7 @@
         <v>49387672</v>
       </c>
       <c r="E104" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F104" t="s">
         <v>16</v>
@@ -11439,10 +11430,10 @@
         <v>18</v>
       </c>
       <c r="H104" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I104" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J104">
         <v>3</v>
@@ -11462,7 +11453,7 @@
         <v>11751939</v>
       </c>
       <c r="E105" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F105" t="s">
         <v>20</v>
@@ -11471,10 +11462,10 @@
         <v>21</v>
       </c>
       <c r="H105" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I105" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -11494,7 +11485,7 @@
         <v>11751939</v>
       </c>
       <c r="E106" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F106" t="s">
         <v>20</v>
@@ -11503,10 +11494,10 @@
         <v>22</v>
       </c>
       <c r="H106" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I106" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J106">
         <v>4</v>
@@ -11535,10 +11526,10 @@
         <v>24</v>
       </c>
       <c r="H107" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I107" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J107">
         <v>5</v>
@@ -11558,7 +11549,7 @@
         <v>6175149.5</v>
       </c>
       <c r="E108" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F108" t="s">
         <v>9</v>
@@ -11567,10 +11558,10 @@
         <v>12</v>
       </c>
       <c r="H108" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I108" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J108">
         <v>1</v>
@@ -11590,7 +11581,7 @@
         <v>6175149.5</v>
       </c>
       <c r="E109" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F109" t="s">
         <v>5</v>
@@ -11599,10 +11590,10 @@
         <v>8</v>
       </c>
       <c r="H109" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I109" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J109">
         <v>5</v>
@@ -11622,7 +11613,7 @@
         <v>17273882</v>
       </c>
       <c r="E110" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F110" t="s">
         <v>9</v>
@@ -11631,10 +11622,10 @@
         <v>12</v>
       </c>
       <c r="H110" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I110" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J110">
         <v>3</v>
@@ -11654,7 +11645,7 @@
         <v>17273882</v>
       </c>
       <c r="E111" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F111" t="s">
         <v>5</v>
@@ -11663,10 +11654,10 @@
         <v>7</v>
       </c>
       <c r="H111" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I111" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J111">
         <v>1</v>
@@ -11686,7 +11677,7 @@
         <v>32716931</v>
       </c>
       <c r="E112" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F112" t="s">
         <v>20</v>
@@ -11695,10 +11686,10 @@
         <v>22</v>
       </c>
       <c r="H112" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I112" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J112">
         <v>4</v>
@@ -11718,7 +11709,7 @@
         <v>32716931</v>
       </c>
       <c r="E113" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F113" t="s">
         <v>20</v>
@@ -11727,10 +11718,10 @@
         <v>21</v>
       </c>
       <c r="H113" t="s">
+        <v>137</v>
+      </c>
+      <c r="I113" t="s">
         <v>140</v>
-      </c>
-      <c r="I113" t="s">
-        <v>143</v>
       </c>
       <c r="J113">
         <v>3</v>
@@ -11759,10 +11750,10 @@
         <v>24</v>
       </c>
       <c r="H114" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I114" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J114">
         <v>2</v>
@@ -11782,7 +11773,7 @@
         <v>38275716.5</v>
       </c>
       <c r="E115" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F115" t="s">
         <v>5</v>
@@ -11791,10 +11782,10 @@
         <v>6</v>
       </c>
       <c r="H115" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I115" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J115">
         <v>1</v>
@@ -11814,7 +11805,7 @@
         <v>38275716.5</v>
       </c>
       <c r="E116" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F116" t="s">
         <v>5</v>
@@ -11823,10 +11814,10 @@
         <v>7</v>
       </c>
       <c r="H116" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I116" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J116">
         <v>4</v>
@@ -11846,7 +11837,7 @@
         <v>49394656.5</v>
       </c>
       <c r="E117" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F117" t="s">
         <v>15</v>
@@ -11855,10 +11846,10 @@
         <v>15</v>
       </c>
       <c r="H117" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I117" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J117">
         <v>1</v>
@@ -11878,7 +11869,7 @@
         <v>49394656.5</v>
       </c>
       <c r="E118" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F118" t="s">
         <v>16</v>
@@ -11887,10 +11878,10 @@
         <v>17</v>
       </c>
       <c r="H118" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I118" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J118">
         <v>4</v>
@@ -11910,7 +11901,7 @@
         <v>22841743</v>
       </c>
       <c r="E119" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F119" t="s">
         <v>5</v>
@@ -11919,10 +11910,10 @@
         <v>6</v>
       </c>
       <c r="H119" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I119" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J119">
         <v>1</v>
@@ -11942,7 +11933,7 @@
         <v>22841743</v>
       </c>
       <c r="E120" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F120" t="s">
         <v>5</v>
@@ -11951,10 +11942,10 @@
         <v>7</v>
       </c>
       <c r="H120" t="s">
+        <v>124</v>
+      </c>
+      <c r="I120" t="s">
         <v>125</v>
-      </c>
-      <c r="I120" t="s">
-        <v>126</v>
       </c>
       <c r="J120">
         <v>5</v>
@@ -11974,7 +11965,7 @@
         <v>22842691</v>
       </c>
       <c r="E121" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F121" t="s">
         <v>15</v>
@@ -11983,10 +11974,10 @@
         <v>15</v>
       </c>
       <c r="H121" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I121" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J121">
         <v>3</v>
@@ -12006,7 +11997,7 @@
         <v>22842691</v>
       </c>
       <c r="E122" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F122" t="s">
         <v>16</v>
@@ -12015,10 +12006,10 @@
         <v>18</v>
       </c>
       <c r="H122" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I122" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J122">
         <v>3</v>
@@ -12038,7 +12029,7 @@
         <v>11732917.5</v>
       </c>
       <c r="E123" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F123" t="s">
         <v>20</v>
@@ -12047,10 +12038,10 @@
         <v>22</v>
       </c>
       <c r="H123" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I123" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J123">
         <v>3</v>
@@ -12070,7 +12061,7 @@
         <v>11732917.5</v>
       </c>
       <c r="E124" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F124" t="s">
         <v>20</v>
@@ -12079,10 +12070,10 @@
         <v>21</v>
       </c>
       <c r="H124" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I124" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J124">
         <v>5</v>
@@ -12102,7 +12093,7 @@
         <v>32712182</v>
       </c>
       <c r="E125" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F125" t="s">
         <v>5</v>
@@ -12111,10 +12102,10 @@
         <v>7</v>
       </c>
       <c r="H125" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I125" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J125">
         <v>4</v>
@@ -12134,7 +12125,7 @@
         <v>32712182</v>
       </c>
       <c r="E126" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F126" t="s">
         <v>5</v>
@@ -12143,10 +12134,10 @@
         <v>8</v>
       </c>
       <c r="H126" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I126" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J126">
         <v>4</v>
@@ -12175,10 +12166,10 @@
         <v>24</v>
       </c>
       <c r="H127" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I127" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J127">
         <v>1</v>
@@ -12198,7 +12189,7 @@
         <v>28382691.5</v>
       </c>
       <c r="E128" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F128" t="s">
         <v>5</v>
@@ -12207,10 +12198,10 @@
         <v>7</v>
       </c>
       <c r="H128" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I128" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J128">
         <v>2</v>
@@ -12230,7 +12221,7 @@
         <v>28382691.5</v>
       </c>
       <c r="E129" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F129" t="s">
         <v>9</v>
@@ -12239,10 +12230,10 @@
         <v>11</v>
       </c>
       <c r="H129" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I129" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J129">
         <v>3</v>
@@ -12262,7 +12253,7 @@
         <v>17273645</v>
       </c>
       <c r="E130" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F130" t="s">
         <v>15</v>
@@ -12271,10 +12262,10 @@
         <v>15</v>
       </c>
       <c r="H130" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I130" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J130">
         <v>5</v>
@@ -12294,7 +12285,7 @@
         <v>17273645</v>
       </c>
       <c r="E131" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F131" t="s">
         <v>14</v>
@@ -12303,10 +12294,10 @@
         <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I131" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J131">
         <v>4</v>
@@ -12326,7 +12317,7 @@
         <v>27152028.5</v>
       </c>
       <c r="E132" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F132" t="s">
         <v>20</v>
@@ -12335,10 +12326,10 @@
         <v>22</v>
       </c>
       <c r="H132" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I132" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J132">
         <v>3</v>
@@ -12358,7 +12349,7 @@
         <v>27152028.5</v>
       </c>
       <c r="E133" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F133" t="s">
         <v>20</v>
@@ -12367,10 +12358,10 @@
         <v>21</v>
       </c>
       <c r="H133" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I133" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J133">
         <v>3</v>
@@ -12399,10 +12390,10 @@
         <v>24</v>
       </c>
       <c r="H134" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I134" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J134">
         <v>2</v>
@@ -12422,7 +12413,7 @@
         <v>33948937</v>
       </c>
       <c r="E135" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F135" t="s">
         <v>15</v>
@@ -12431,10 +12422,10 @@
         <v>15</v>
       </c>
       <c r="H135" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I135" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J135">
         <v>2</v>
@@ -12454,7 +12445,7 @@
         <v>33948937</v>
       </c>
       <c r="E136" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F136" t="s">
         <v>16</v>
@@ -12463,10 +12454,10 @@
         <v>17</v>
       </c>
       <c r="H136" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I136" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J136">
         <v>3</v>
@@ -12495,10 +12486,10 @@
         <v>24</v>
       </c>
       <c r="H137" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I137" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J137">
         <v>2</v>
@@ -12518,7 +12509,7 @@
         <v>21603317</v>
       </c>
       <c r="E138" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F138" t="s">
         <v>5</v>
@@ -12527,10 +12518,10 @@
         <v>6</v>
       </c>
       <c r="H138" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I138" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J138">
         <v>1</v>
@@ -12550,7 +12541,7 @@
         <v>21603317</v>
       </c>
       <c r="E139" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F139" t="s">
         <v>9</v>
@@ -12559,10 +12550,10 @@
         <v>11</v>
       </c>
       <c r="H139" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I139" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J139">
         <v>1</v>
@@ -12582,7 +12573,7 @@
         <v>32718719</v>
       </c>
       <c r="E140" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F140" t="s">
         <v>20</v>
@@ -12591,10 +12582,10 @@
         <v>21</v>
       </c>
       <c r="H140" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I140" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J140">
         <v>2</v>
@@ -12614,7 +12605,7 @@
         <v>32718719</v>
       </c>
       <c r="E141" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F141" t="s">
         <v>20</v>
@@ -12623,10 +12614,10 @@
         <v>22</v>
       </c>
       <c r="H141" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I141" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J141">
         <v>1</v>
@@ -12646,7 +12637,7 @@
         <v>39460901.5</v>
       </c>
       <c r="E142" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F142" t="s">
         <v>20</v>
@@ -12655,10 +12646,10 @@
         <v>21</v>
       </c>
       <c r="H142" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I142" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J142">
         <v>3</v>
@@ -12678,7 +12669,7 @@
         <v>39460901.5</v>
       </c>
       <c r="E143" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F143" t="s">
         <v>20</v>
@@ -12687,10 +12678,10 @@
         <v>22</v>
       </c>
       <c r="H143" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I143" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="J143">
         <v>5</v>
@@ -12719,10 +12710,10 @@
         <v>24</v>
       </c>
       <c r="H144" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I144" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J144">
         <v>2</v>
@@ -12742,7 +12733,7 @@
         <v>16058454</v>
       </c>
       <c r="E145" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F145" t="s">
         <v>5</v>
@@ -12751,10 +12742,10 @@
         <v>8</v>
       </c>
       <c r="H145" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I145" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J145">
         <v>2</v>
@@ -12774,7 +12765,7 @@
         <v>16058454</v>
       </c>
       <c r="E146" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F146" t="s">
         <v>9</v>
@@ -12783,10 +12774,10 @@
         <v>10</v>
       </c>
       <c r="H146" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I146" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J146">
         <v>2</v>
@@ -12806,7 +12797,7 @@
         <v>27152739.5</v>
       </c>
       <c r="E147" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F147" t="s">
         <v>14</v>
@@ -12815,10 +12806,10 @@
         <v>14</v>
       </c>
       <c r="H147" t="s">
+        <v>131</v>
+      </c>
+      <c r="I147" t="s">
         <v>133</v>
-      </c>
-      <c r="I147" t="s">
-        <v>135</v>
       </c>
       <c r="J147">
         <v>4</v>
@@ -12838,7 +12829,7 @@
         <v>27152739.5</v>
       </c>
       <c r="E148" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F148" t="s">
         <v>16</v>
@@ -12847,10 +12838,10 @@
         <v>17</v>
       </c>
       <c r="H148" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I148" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J148">
         <v>2</v>
@@ -12881,27 +12872,27 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="F2" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="G2" s="25" t="s">
         <v>195</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="27" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C3" s="28">
         <v>40426848</v>
@@ -12910,20 +12901,20 @@
         <v>2023</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F3" s="29">
         <f t="shared" ref="F3:F39" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>8110250.6000000006</v>
+        <v>8092812.6000000006</v>
       </c>
       <c r="G3" s="28">
         <f t="shared" ref="G3:G39" ca="1" si="1">C3-F3</f>
-        <v>32316597.399999999</v>
+        <v>32334035.399999999</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="27" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C4" s="28">
         <v>53896550.399999999</v>
@@ -12932,20 +12923,20 @@
         <v>2022</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F4" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>10800324.08</v>
+        <v>10792921.08</v>
       </c>
       <c r="G4" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>43096226.32</v>
+        <v>43103629.32</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="30" customHeight="1">
       <c r="B5" s="27" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C5" s="28">
         <v>67366252.799999997</v>
@@ -12954,20 +12945,20 @@
         <v>2019</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F5" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>13475033.560000001</v>
+        <v>13495778.560000001</v>
       </c>
       <c r="G5" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>53891219.239999995</v>
+        <v>53870474.239999995</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="27" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C6" s="28">
         <v>94305657.600000009</v>
@@ -12976,20 +12967,20 @@
         <v>2023</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F6" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>18870126.520000003</v>
+        <v>18877844.520000003</v>
       </c>
       <c r="G6" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>75435531.080000013</v>
+        <v>75427813.080000013</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="30" customHeight="1">
       <c r="B7" s="27" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C7" s="28">
         <v>107760576</v>
@@ -12998,20 +12989,20 @@
         <v>2022</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F7" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>21554384.200000003</v>
+        <v>21553537.200000003</v>
       </c>
       <c r="G7" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>86206191.799999997</v>
+        <v>86207038.799999997</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="27" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C8" s="28">
         <v>121082438.40000001</v>
@@ -13020,20 +13011,20 @@
         <v>2019</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F8" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>24237964.680000003</v>
+        <v>24232820.680000003</v>
       </c>
       <c r="G8" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>96844473.719999999</v>
+        <v>96849617.719999999</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="27" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C9" s="28">
         <v>146543443.19999999</v>
@@ -13042,20 +13033,20 @@
         <v>2023</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F9" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29309921.640000001</v>
+        <v>29310160.640000001</v>
       </c>
       <c r="G9" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>117233521.55999999</v>
+        <v>117233282.55999999</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="27" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C10" s="28">
         <v>16608345.6</v>
@@ -13064,20 +13055,20 @@
         <v>2022</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F10" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>3341261.12</v>
+        <v>3325442.12</v>
       </c>
       <c r="G10" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>13267084.48</v>
+        <v>13282903.48</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="27" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C11" s="28">
         <v>33034848</v>
@@ -13086,20 +13077,20 @@
         <v>2019</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F11" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>6629153.6000000006</v>
+        <v>6609270.6000000006</v>
       </c>
       <c r="G11" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>26405694.399999999</v>
+        <v>26425577.399999999</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="30" customHeight="1">
       <c r="B12" s="27" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C12" s="28">
         <v>49461350.399999999</v>
@@ -13108,20 +13099,20 @@
         <v>2020</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F12" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>9906461.0800000001</v>
+        <v>9899162.0800000001</v>
       </c>
       <c r="G12" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>39554889.32</v>
+        <v>39562188.32</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="27" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C13" s="28">
         <v>65887852.799999997</v>
@@ -13130,20 +13121,20 @@
         <v>2020</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F13" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>13188772.560000001</v>
+        <v>13194206.560000001</v>
       </c>
       <c r="G13" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>52699080.239999995</v>
+        <v>52693646.239999995</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="27" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C14" s="28">
         <v>82314355.199999988</v>
@@ -13152,20 +13143,20 @@
         <v>2020</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F14" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>16483787.039999999</v>
+        <v>16477258.039999999</v>
       </c>
       <c r="G14" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>65830568.159999989</v>
+        <v>65837097.159999989</v>
       </c>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="27" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C15" s="28">
         <v>98740857.600000009</v>
@@ -13174,20 +13165,20 @@
         <v>2020</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F15" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>19749926.520000003</v>
+        <v>19771310.520000003</v>
       </c>
       <c r="G15" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>78990931.080000013</v>
+        <v>78969547.080000013</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="30" customHeight="1">
       <c r="B16" s="27" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C16" s="28">
         <v>115152576</v>
@@ -13196,20 +13187,20 @@
         <v>2020</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F16" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>23053641.200000003</v>
+        <v>23041577.200000003</v>
       </c>
       <c r="G16" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>92098934.799999997</v>
+        <v>92110998.799999997</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="27" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C17" s="28">
         <v>131431238.40000001</v>
@@ -13218,20 +13209,20 @@
         <v>2020</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F17" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>26286889.680000003</v>
+        <v>26309044.680000003</v>
       </c>
       <c r="G17" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>105144348.72</v>
+        <v>105122193.72</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1">
       <c r="B18" s="27" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C18" s="28">
         <v>146379340.80000001</v>
@@ -13240,20 +13231,20 @@
         <v>2017</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F18" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29283890.160000004</v>
+        <v>29284664.160000004</v>
       </c>
       <c r="G18" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>117095450.64000002</v>
+        <v>117094676.64000002</v>
       </c>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="27" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C19" s="28">
         <v>14965843.199999999</v>
@@ -13262,20 +13253,20 @@
         <v>2017</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F19" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>3016997.64</v>
+        <v>3015378.64</v>
       </c>
       <c r="G19" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>11948845.559999999</v>
+        <v>11950464.559999999</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="27" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C20" s="28">
         <v>31392345.600000001</v>
@@ -13284,20 +13275,20 @@
         <v>2017</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F20" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>6282471.120000001</v>
+        <v>6296671.120000001</v>
       </c>
       <c r="G20" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>25109874.48</v>
+        <v>25095674.48</v>
       </c>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="27" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C21" s="28">
         <v>47818848</v>
@@ -13306,20 +13297,20 @@
         <v>2017</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F21" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>9573613.5999999996</v>
+        <v>9570914.5999999996</v>
       </c>
       <c r="G21" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>38245234.399999999</v>
+        <v>38247933.399999999</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="30" customHeight="1">
       <c r="B22" s="27" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C22" s="28">
         <v>64245350.399999999</v>
@@ -13328,20 +13319,20 @@
         <v>2017</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F22" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>12865683.08</v>
+        <v>12854891.08</v>
       </c>
       <c r="G22" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>51379667.32</v>
+        <v>51390459.32</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="27" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C23" s="28">
         <v>80671852.799999997</v>
@@ -13350,20 +13341,20 @@
         <v>2017</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F23" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>16155508.560000001</v>
+        <v>16148041.560000001</v>
       </c>
       <c r="G23" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>64516344.239999995</v>
+        <v>64523811.239999995</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="30" customHeight="1">
       <c r="B24" s="27" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C24" s="28">
         <v>97098355.199999988</v>
@@ -13372,20 +13363,20 @@
         <v>2017</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F24" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>19438187.039999999</v>
+        <v>19433297.039999999</v>
       </c>
       <c r="G24" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>77660168.159999996</v>
+        <v>77665058.159999996</v>
       </c>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="27" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C25" s="28">
         <v>113524857.59999999</v>
@@ -13394,20 +13385,20 @@
         <v>2015</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F25" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>22723885.52</v>
+        <v>22705794.52</v>
       </c>
       <c r="G25" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>90800972.079999998</v>
+        <v>90819063.079999998</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="27" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C26" s="28">
         <v>129936576</v>
@@ -13416,20 +13407,20 @@
         <v>2015</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F26" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>25988597.200000003</v>
+        <v>26000794.200000003</v>
       </c>
       <c r="G26" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>103947978.8</v>
+        <v>103935781.8</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1">
       <c r="B27" s="27" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C27" s="28">
         <v>146215238.40000001</v>
@@ -13438,20 +13429,20 @@
         <v>2015</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F27" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29253249.680000003</v>
+        <v>29250894.680000003</v>
       </c>
       <c r="G27" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>116961988.72</v>
+        <v>116964343.72</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="27" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C28" s="28">
         <v>28107340.800000001</v>
@@ -13460,20 +13451,20 @@
         <v>2015</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F28" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>5627602.1600000001</v>
+        <v>5628774.1600000001</v>
       </c>
       <c r="G28" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>22479738.640000001</v>
+        <v>22478566.640000001</v>
       </c>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="27" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C29" s="28">
         <v>44533843.200000003</v>
@@ -13482,20 +13473,20 @@
         <v>2015</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F29" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>8907512.6400000006</v>
+        <v>8924993.6400000006</v>
       </c>
       <c r="G29" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>35626330.560000002</v>
+        <v>35608849.560000002</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="30" customHeight="1">
       <c r="B30" s="27" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C30" s="28">
         <v>60960345.599999987</v>
@@ -13504,20 +13495,20 @@
         <v>2015</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F30" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>12204860.119999997</v>
+        <v>12211120.119999997</v>
       </c>
       <c r="G30" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>48755485.479999989</v>
+        <v>48749225.479999989</v>
       </c>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="27" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C31" s="28">
         <v>77386848</v>
@@ -13526,20 +13517,20 @@
         <v>2015</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F31" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>15479793.600000001</v>
+        <v>15497752.600000001</v>
       </c>
       <c r="G31" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>61907054.399999999</v>
+        <v>61889095.399999999</v>
       </c>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="27" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C32" s="28">
         <v>93813350.399999991</v>
@@ -13548,20 +13539,20 @@
         <v>2015</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F32" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>18781837.079999998</v>
+        <v>18763090.079999998</v>
       </c>
       <c r="G32" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>75031513.319999993</v>
+        <v>75050260.319999993</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="30" customHeight="1">
       <c r="B33" s="27" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C33" s="28">
         <v>110239852.8</v>
@@ -13570,20 +13561,20 @@
         <v>2015</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F33" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>22048441.560000002</v>
+        <v>22062960.560000002</v>
       </c>
       <c r="G33" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>88191411.239999995</v>
+        <v>88176892.239999995</v>
       </c>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="27" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C34" s="28">
         <v>126666355.2</v>
@@ -13592,20 +13583,20 @@
         <v>2015</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F34" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>25357736.040000003</v>
+        <v>25341553.040000003</v>
       </c>
       <c r="G34" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>101308619.16</v>
+        <v>101324802.16</v>
       </c>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="27" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C35" s="28">
         <v>143092857.59999999</v>
@@ -13614,20 +13605,20 @@
         <v>2015</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F35" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>28626318.52</v>
+        <v>28633754.52</v>
       </c>
       <c r="G35" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>114466539.08</v>
+        <v>114459103.08</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="30" customHeight="1">
       <c r="B36" s="27" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C36" s="28">
         <v>26448576</v>
@@ -13636,20 +13627,20 @@
         <v>2015</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F36" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>5296754.2</v>
+        <v>5293714.2</v>
       </c>
       <c r="G36" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>21151821.800000001</v>
+        <v>21154861.800000001</v>
       </c>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="27" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C37" s="28">
         <v>42727238.399999999</v>
@@ -13658,20 +13649,20 @@
         <v>2015</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F37" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>8560455.6799999997</v>
+        <v>8556899.6799999997</v>
       </c>
       <c r="G37" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>34166782.719999999</v>
+        <v>34170338.719999999</v>
       </c>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="27" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C38" s="28">
         <v>57675340.799999997</v>
@@ -13680,20 +13671,20 @@
         <v>2015</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F38" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>11556911.16</v>
+        <v>11535401.16</v>
       </c>
       <c r="G38" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>46118429.640000001</v>
+        <v>46139939.640000001</v>
       </c>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="27" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C39" s="28">
         <v>74101843.200000003</v>
@@ -13702,15 +13693,15 @@
         <v>2015</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F39" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>14832621.640000001</v>
+        <v>14841477.640000001</v>
       </c>
       <c r="G39" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>59269221.560000002</v>
+        <v>59260365.560000002</v>
       </c>
     </row>
   </sheetData>
@@ -13746,10 +13737,10 @@
         <v>94</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -13761,10 +13752,10 @@
       </c>
       <c r="D3" s="30"/>
       <c r="E3" s="31" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -13778,10 +13769,10 @@
         <v>2</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -13793,15 +13784,15 @@
       </c>
       <c r="D5" s="30"/>
       <c r="E5" s="31" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="30" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C40" s="30">
         <v>6</v>
@@ -13819,7 +13810,7 @@
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="30" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C41" s="30">
         <v>7</v>
@@ -13876,13 +13867,13 @@
         <v>99</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -13890,7 +13881,7 @@
         <v>114</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
@@ -13902,10 +13893,10 @@
         <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -13927,10 +13918,10 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -13951,10 +13942,10 @@
         <v>12</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -13975,10 +13966,10 @@
         <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -13999,10 +13990,10 @@
         <v>14</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -14024,10 +14015,10 @@
         <v>7</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -14049,10 +14040,10 @@
         <v>11</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -14074,10 +14065,10 @@
         <v>12</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -14099,10 +14090,10 @@
         <v>12</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -14124,10 +14115,10 @@
         <v>12</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H11" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -14149,7 +14140,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -14171,10 +14162,10 @@
         <v>4</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H13" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -14196,7 +14187,7 @@
         <v>12</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -14219,7 +14210,7 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -14241,7 +14232,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -14263,10 +14254,10 @@
         <v>10</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H17" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -14288,7 +14279,7 @@
         <v>7</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -14310,7 +14301,7 @@
         <v>9</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -14332,7 +14323,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -14355,7 +14346,7 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -14377,7 +14368,7 @@
         <v>4</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -14399,7 +14390,7 @@
         <v>6</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -14421,7 +14412,7 @@
         <v>14</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -14443,7 +14434,7 @@
         <v>12</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -14465,7 +14456,7 @@
         <v>13</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -14487,7 +14478,7 @@
         <v>4</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -14509,10 +14500,10 @@
         <v>7</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H28" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -14534,10 +14525,10 @@
         <v>12</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H29" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -14559,7 +14550,7 @@
         <v>12</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -14581,7 +14572,7 @@
         <v>15</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -14604,7 +14595,7 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -14626,10 +14617,10 @@
         <v>7</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H33" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -14651,10 +14642,10 @@
         <v>13</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H34" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -14676,10 +14667,10 @@
         <v>15</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H35" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -14701,10 +14692,10 @@
         <v>13</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H36" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -14726,7 +14717,7 @@
         <v>11</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -14748,7 +14739,7 @@
         <v>7</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -14770,7 +14761,7 @@
         <v>10</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -14792,10 +14783,10 @@
         <v>13</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H40" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -14817,10 +14808,10 @@
         <v>12</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H41" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -14842,7 +14833,7 @@
         <v>3</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -14864,7 +14855,7 @@
         <v>6</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -14886,7 +14877,7 @@
         <v>11</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -14908,7 +14899,7 @@
         <v>13</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -14930,7 +14921,7 @@
         <v>15</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -14952,7 +14943,7 @@
         <v>3</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -14974,7 +14965,7 @@
         <v>8</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -14996,7 +14987,7 @@
         <v>11</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -15018,7 +15009,7 @@
         <v>12</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -15040,7 +15031,7 @@
         <v>10</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -15060,30 +15051,30 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1">
       <c r="A1" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="E1" s="34" t="s">
         <v>265</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>266</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D2">
         <v>21</v>
@@ -15094,13 +15085,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -15111,13 +15102,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D4">
         <v>19</v>
@@ -15128,13 +15119,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D5">
         <v>18</v>
@@ -15145,13 +15136,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D6">
         <v>17</v>
@@ -15162,13 +15153,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D7">
         <v>16</v>
@@ -15179,13 +15170,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C8" t="s">
         <v>256</v>
-      </c>
-      <c r="C8" t="s">
-        <v>259</v>
       </c>
       <c r="D8">
         <v>15</v>
@@ -15196,13 +15187,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B9" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C9" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D9">
         <v>14</v>
@@ -15213,13 +15204,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B10" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D10">
         <v>13</v>
@@ -15230,13 +15221,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B11" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D11">
         <v>12</v>
@@ -15247,13 +15238,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B12" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C12" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -15264,13 +15255,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B13" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C13" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -15281,13 +15272,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B14" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C14" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D14">
         <v>9</v>
@@ -15298,13 +15289,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B15" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C15" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D15">
         <v>8</v>
@@ -15315,13 +15306,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B16" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C16" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D16">
         <v>7</v>
@@ -15332,13 +15323,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B17" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C17" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D17">
         <v>6</v>
@@ -15349,13 +15340,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B18" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C18" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -15366,13 +15357,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B19" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C19" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -15383,13 +15374,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B20" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C20" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -15400,13 +15391,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B21" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C21" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -15417,7 +15408,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="C22" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -15428,13 +15419,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B23" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C23" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -15442,10 +15433,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C24" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -15453,7 +15444,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="C25" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -15476,21 +15467,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1">
       <c r="A1" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>265</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>268</v>
-      </c>
       <c r="C1" s="33" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -15504,7 +15495,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -15518,7 +15509,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -15532,7 +15523,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -15546,7 +15537,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -15560,7 +15551,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -15574,7 +15565,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -15588,7 +15579,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -15602,7 +15593,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -15616,7 +15607,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -15630,7 +15621,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -15644,7 +15635,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -15658,7 +15649,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -15672,7 +15663,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -15686,7 +15677,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -15700,7 +15691,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -15714,7 +15705,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -15728,7 +15719,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B19">
         <v>17</v>
@@ -15742,7 +15733,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B20">
         <v>17</v>
@@ -15756,7 +15747,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B21">
         <v>17</v>
@@ -15770,7 +15761,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B22">
         <v>17</v>

--- a/Sample_Bank_Data/SEP 2023.xlsx
+++ b/Sample_Bank_Data/SEP 2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{C1AC0192-DAE6-4F35-8B70-01A58E664243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83117F72-CA41-497F-B0B5-98271D45AA72}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{C1AC0192-DAE6-4F35-8B70-01A58E664243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F517DE59-D8C1-4670-8BBB-1D8CE85FAC75}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collateral Types" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="307">
   <si>
     <t>Collateral Types</t>
   </si>
@@ -2958,8 +2958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD52"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:Y1"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8105,7 +8105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
@@ -12854,10 +12854,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B2:G39"/>
+  <dimension ref="A2:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12870,7 +12870,10 @@
     <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
       <c r="B2" s="24" t="s">
         <v>190</v>
       </c>
@@ -12890,7 +12893,10 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
       <c r="B3" s="27" t="s">
         <v>196</v>
       </c>
@@ -12905,14 +12911,17 @@
       </c>
       <c r="F3" s="29">
         <f t="shared" ref="F3:F39" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>8092812.6000000006</v>
+        <v>8098136.6000000006</v>
       </c>
       <c r="G3" s="28">
         <f t="shared" ref="G3:G39" ca="1" si="1">C3-F3</f>
-        <v>32334035.399999999</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
+        <v>32328711.399999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
       <c r="B4" s="27" t="s">
         <v>198</v>
       </c>
@@ -12927,14 +12936,17 @@
       </c>
       <c r="F4" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>10792921.08</v>
+        <v>10781991.08</v>
       </c>
       <c r="G4" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>43103629.32</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="30" customHeight="1">
+        <v>43114559.32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
       <c r="B5" s="27" t="s">
         <v>199</v>
       </c>
@@ -12949,14 +12961,17 @@
       </c>
       <c r="F5" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>13495778.560000001</v>
+        <v>13488825.560000001</v>
       </c>
       <c r="G5" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>53870474.239999995</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
+        <v>53877427.239999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
       <c r="B6" s="27" t="s">
         <v>200</v>
       </c>
@@ -12971,14 +12986,17 @@
       </c>
       <c r="F6" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>18877844.520000003</v>
+        <v>18873313.520000003</v>
       </c>
       <c r="G6" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>75427813.080000013</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="30" customHeight="1">
+        <v>75432344.080000013</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1">
+      <c r="A7" t="s">
+        <v>114</v>
+      </c>
       <c r="B7" s="27" t="s">
         <v>201</v>
       </c>
@@ -12993,14 +13011,17 @@
       </c>
       <c r="F7" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>21553537.200000003</v>
+        <v>21561008.200000003</v>
       </c>
       <c r="G7" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>86207038.799999997</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
+        <v>86199567.799999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
       <c r="B8" s="27" t="s">
         <v>202</v>
       </c>
@@ -13015,14 +13036,17 @@
       </c>
       <c r="F8" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>24232820.680000003</v>
+        <v>24218532.680000003</v>
       </c>
       <c r="G8" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>96849617.719999999</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
+        <v>96863905.719999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>114</v>
+      </c>
       <c r="B9" s="27" t="s">
         <v>203</v>
       </c>
@@ -13037,14 +13061,17 @@
       </c>
       <c r="F9" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29310160.640000001</v>
+        <v>29331597.640000001</v>
       </c>
       <c r="G9" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>117233282.55999999</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
+        <v>117211845.55999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>114</v>
+      </c>
       <c r="B10" s="27" t="s">
         <v>204</v>
       </c>
@@ -13059,14 +13086,17 @@
       </c>
       <c r="F10" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>3325442.12</v>
+        <v>3324185.12</v>
       </c>
       <c r="G10" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>13282903.48</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
+        <v>13284160.48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>114</v>
+      </c>
       <c r="B11" s="27" t="s">
         <v>205</v>
       </c>
@@ -13081,14 +13111,17 @@
       </c>
       <c r="F11" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>6609270.6000000006</v>
+        <v>6623148.6000000006</v>
       </c>
       <c r="G11" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>26425577.399999999</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="30" customHeight="1">
+        <v>26411699.399999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1">
+      <c r="A12" t="s">
+        <v>114</v>
+      </c>
       <c r="B12" s="27" t="s">
         <v>206</v>
       </c>
@@ -13103,14 +13136,17 @@
       </c>
       <c r="F12" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>9899162.0800000001</v>
+        <v>9903565.0800000001</v>
       </c>
       <c r="G12" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>39562188.32</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
+        <v>39557785.32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>114</v>
+      </c>
       <c r="B13" s="27" t="s">
         <v>207</v>
       </c>
@@ -13125,14 +13161,17 @@
       </c>
       <c r="F13" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>13194206.560000001</v>
+        <v>13185707.560000001</v>
       </c>
       <c r="G13" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>52693646.239999995</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
+        <v>52702145.239999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>114</v>
+      </c>
       <c r="B14" s="27" t="s">
         <v>208</v>
       </c>
@@ -13147,14 +13186,17 @@
       </c>
       <c r="F14" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>16477258.039999999</v>
+        <v>16486043.039999999</v>
       </c>
       <c r="G14" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>65837097.159999989</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7">
+        <v>65828312.159999989</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>114</v>
+      </c>
       <c r="B15" s="27" t="s">
         <v>209</v>
       </c>
@@ -13169,14 +13211,17 @@
       </c>
       <c r="F15" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>19771310.520000003</v>
+        <v>19756371.520000003</v>
       </c>
       <c r="G15" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>78969547.080000013</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="30" customHeight="1">
+        <v>78984486.080000013</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1">
+      <c r="A16" t="s">
+        <v>114</v>
+      </c>
       <c r="B16" s="27" t="s">
         <v>211</v>
       </c>
@@ -13191,14 +13236,17 @@
       </c>
       <c r="F16" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>23041577.200000003</v>
+        <v>23031968.200000003</v>
       </c>
       <c r="G16" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>92110998.799999997</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
+        <v>92120607.799999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>114</v>
+      </c>
       <c r="B17" s="27" t="s">
         <v>212</v>
       </c>
@@ -13213,14 +13261,17 @@
       </c>
       <c r="F17" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>26309044.680000003</v>
+        <v>26305682.680000003</v>
       </c>
       <c r="G17" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>105122193.72</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1">
+        <v>105125555.72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1">
+      <c r="A18" t="s">
+        <v>114</v>
+      </c>
       <c r="B18" s="27" t="s">
         <v>213</v>
       </c>
@@ -13235,14 +13286,17 @@
       </c>
       <c r="F18" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29284664.160000004</v>
+        <v>29292739.160000004</v>
       </c>
       <c r="G18" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>117094676.64000002</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7">
+        <v>117086601.64000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>114</v>
+      </c>
       <c r="B19" s="27" t="s">
         <v>214</v>
       </c>
@@ -13257,14 +13311,17 @@
       </c>
       <c r="F19" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>3015378.64</v>
+        <v>3010412.64</v>
       </c>
       <c r="G19" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>11950464.559999999</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
+        <v>11955430.559999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>114</v>
+      </c>
       <c r="B20" s="27" t="s">
         <v>215</v>
       </c>
@@ -13279,14 +13336,17 @@
       </c>
       <c r="F20" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>6296671.120000001</v>
+        <v>6296708.120000001</v>
       </c>
       <c r="G20" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>25095674.48</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
+        <v>25095637.48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
       <c r="B21" s="27" t="s">
         <v>216</v>
       </c>
@@ -13301,14 +13361,17 @@
       </c>
       <c r="F21" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>9570914.5999999996</v>
+        <v>9576355.5999999996</v>
       </c>
       <c r="G21" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>38247933.399999999</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="30" customHeight="1">
+        <v>38242492.399999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1">
+      <c r="A22" t="s">
+        <v>114</v>
+      </c>
       <c r="B22" s="27" t="s">
         <v>217</v>
       </c>
@@ -13323,14 +13386,17 @@
       </c>
       <c r="F22" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>12854891.08</v>
+        <v>12849389.08</v>
       </c>
       <c r="G22" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>51390459.32</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
+        <v>51395961.32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>114</v>
+      </c>
       <c r="B23" s="27" t="s">
         <v>218</v>
       </c>
@@ -13345,14 +13411,17 @@
       </c>
       <c r="F23" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>16148041.560000001</v>
+        <v>16158308.560000001</v>
       </c>
       <c r="G23" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>64523811.239999995</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="30" customHeight="1">
+        <v>64513544.239999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1">
+      <c r="A24" t="s">
+        <v>114</v>
+      </c>
       <c r="B24" s="27" t="s">
         <v>219</v>
       </c>
@@ -13367,14 +13436,17 @@
       </c>
       <c r="F24" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>19433297.039999999</v>
+        <v>19441081.039999999</v>
       </c>
       <c r="G24" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>77665058.159999996</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7">
+        <v>77657274.159999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>114</v>
+      </c>
       <c r="B25" s="27" t="s">
         <v>220</v>
       </c>
@@ -13389,14 +13461,17 @@
       </c>
       <c r="F25" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>22705794.52</v>
+        <v>22716549.52</v>
       </c>
       <c r="G25" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>90819063.079999998</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7">
+        <v>90808308.079999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>114</v>
+      </c>
       <c r="B26" s="27" t="s">
         <v>221</v>
       </c>
@@ -13411,14 +13486,17 @@
       </c>
       <c r="F26" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>26000794.200000003</v>
+        <v>25998725.200000003</v>
       </c>
       <c r="G26" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>103935781.8</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1">
+        <v>103937850.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" customHeight="1">
+      <c r="A27" t="s">
+        <v>114</v>
+      </c>
       <c r="B27" s="27" t="s">
         <v>222</v>
       </c>
@@ -13433,14 +13511,17 @@
       </c>
       <c r="F27" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29250894.680000003</v>
+        <v>29255084.680000003</v>
       </c>
       <c r="G27" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>116964343.72</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
+        <v>116960153.72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>114</v>
+      </c>
       <c r="B28" s="27" t="s">
         <v>223</v>
       </c>
@@ -13455,14 +13536,17 @@
       </c>
       <c r="F28" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>5628774.1600000001</v>
+        <v>5634386.1600000001</v>
       </c>
       <c r="G28" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>22478566.640000001</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7">
+        <v>22472954.640000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>114</v>
+      </c>
       <c r="B29" s="27" t="s">
         <v>224</v>
       </c>
@@ -13477,14 +13561,17 @@
       </c>
       <c r="F29" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>8924993.6400000006</v>
+        <v>8925047.6400000006</v>
       </c>
       <c r="G29" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>35608849.560000002</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1">
+        <v>35608795.560000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" customHeight="1">
+      <c r="A30" t="s">
+        <v>114</v>
+      </c>
       <c r="B30" s="27" t="s">
         <v>225</v>
       </c>
@@ -13499,14 +13586,17 @@
       </c>
       <c r="F30" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>12211120.119999997</v>
+        <v>12202912.119999997</v>
       </c>
       <c r="G30" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>48749225.479999989</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
+        <v>48757433.479999989</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>114</v>
+      </c>
       <c r="B31" s="27" t="s">
         <v>226</v>
       </c>
@@ -13521,14 +13611,17 @@
       </c>
       <c r="F31" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>15497752.600000001</v>
+        <v>15490840.600000001</v>
       </c>
       <c r="G31" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>61889095.399999999</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7">
+        <v>61896007.399999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>114</v>
+      </c>
       <c r="B32" s="27" t="s">
         <v>227</v>
       </c>
@@ -13543,14 +13636,17 @@
       </c>
       <c r="F32" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>18763090.079999998</v>
+        <v>18767606.079999998</v>
       </c>
       <c r="G32" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>75050260.319999993</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="30" customHeight="1">
+        <v>75045744.319999993</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" customHeight="1">
+      <c r="A33" t="s">
+        <v>114</v>
+      </c>
       <c r="B33" s="27" t="s">
         <v>228</v>
       </c>
@@ -13565,14 +13661,17 @@
       </c>
       <c r="F33" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>22062960.560000002</v>
+        <v>22063440.560000002</v>
       </c>
       <c r="G33" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>88176892.239999995</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7">
+        <v>88176412.239999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>114</v>
+      </c>
       <c r="B34" s="27" t="s">
         <v>229</v>
       </c>
@@ -13587,14 +13686,17 @@
       </c>
       <c r="F34" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>25341553.040000003</v>
+        <v>25356484.040000003</v>
       </c>
       <c r="G34" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>101324802.16</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7">
+        <v>101309871.16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>114</v>
+      </c>
       <c r="B35" s="27" t="s">
         <v>230</v>
       </c>
@@ -13609,14 +13711,17 @@
       </c>
       <c r="F35" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>28633754.52</v>
+        <v>28633322.52</v>
       </c>
       <c r="G35" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>114459103.08</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" ht="30" customHeight="1">
+        <v>114459535.08</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" customHeight="1">
+      <c r="A36" t="s">
+        <v>114</v>
+      </c>
       <c r="B36" s="27" t="s">
         <v>231</v>
       </c>
@@ -13631,14 +13736,17 @@
       </c>
       <c r="F36" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>5293714.2</v>
+        <v>5290275.2</v>
       </c>
       <c r="G36" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>21154861.800000001</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7">
+        <v>21158300.800000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>114</v>
+      </c>
       <c r="B37" s="27" t="s">
         <v>232</v>
       </c>
@@ -13653,14 +13761,17 @@
       </c>
       <c r="F37" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>8556899.6799999997</v>
+        <v>8554706.6799999997</v>
       </c>
       <c r="G37" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>34170338.719999999</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7">
+        <v>34172531.719999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>114</v>
+      </c>
       <c r="B38" s="27" t="s">
         <v>233</v>
       </c>
@@ -13675,14 +13786,17 @@
       </c>
       <c r="F38" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>11535401.16</v>
+        <v>11557361.16</v>
       </c>
       <c r="G38" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>46139939.640000001</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7">
+        <v>46117979.640000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>114</v>
+      </c>
       <c r="B39" s="27" t="s">
         <v>234</v>
       </c>
@@ -13697,11 +13811,11 @@
       </c>
       <c r="F39" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>14841477.640000001</v>
+        <v>14820763.640000001</v>
       </c>
       <c r="G39" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>59260365.560000002</v>
+        <v>59281079.560000002</v>
       </c>
     </row>
   </sheetData>
@@ -13711,10 +13825,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B2:F41"/>
+  <dimension ref="A2:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13726,7 +13840,10 @@
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
       <c r="B2" s="30" t="s">
         <v>25</v>
       </c>
@@ -13743,7 +13860,10 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
       <c r="B3" s="30" t="s">
         <v>48</v>
       </c>
@@ -13758,7 +13878,10 @@
         <v>238</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
       <c r="B4" s="30" t="s">
         <v>51</v>
       </c>
@@ -13775,7 +13898,10 @@
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
       <c r="B5" s="30" t="s">
         <v>52</v>
       </c>

--- a/Sample_Bank_Data/SEP 2023.xlsx
+++ b/Sample_Bank_Data/SEP 2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{C1AC0192-DAE6-4F35-8B70-01A58E664243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F517DE59-D8C1-4670-8BBB-1D8CE85FAC75}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{C1AC0192-DAE6-4F35-8B70-01A58E664243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{025CF8F5-7EE7-4CB8-9C37-982364BC3CF6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="5" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collateral Types" sheetId="1" r:id="rId1"/>
@@ -376,13 +376,13 @@
     <t>Total Collateral</t>
   </si>
   <si>
-    <t>HC Collateral Building</t>
-  </si>
-  <si>
-    <t>HC Collateral Cash</t>
-  </si>
-  <si>
-    <t>HC Collateral Shares</t>
+    <t>HC Collateral Land &amp; Building</t>
+  </si>
+  <si>
+    <t>HC Collateral Cash, Gold &amp; Other Riskfree Assests</t>
+  </si>
+  <si>
+    <t>HC Collateral Shares &amp; Other Paper Assests</t>
   </si>
   <si>
     <t>HC Collateral Hawalat Haq</t>
@@ -2958,8 +2958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD52"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:A40"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8106,7 +8106,7 @@
   <dimension ref="A1:J148"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12911,11 +12911,11 @@
       </c>
       <c r="F3" s="29">
         <f t="shared" ref="F3:F39" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>8098136.6000000006</v>
+        <v>8106255.6000000006</v>
       </c>
       <c r="G3" s="28">
         <f t="shared" ref="G3:G39" ca="1" si="1">C3-F3</f>
-        <v>32328711.399999999</v>
+        <v>32320592.399999999</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -12936,11 +12936,11 @@
       </c>
       <c r="F4" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>10781991.08</v>
+        <v>10781695.08</v>
       </c>
       <c r="G4" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>43114559.32</v>
+        <v>43114855.32</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1">
@@ -12961,11 +12961,11 @@
       </c>
       <c r="F5" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>13488825.560000001</v>
+        <v>13477643.560000001</v>
       </c>
       <c r="G5" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>53877427.239999995</v>
+        <v>53888609.239999995</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -12986,11 +12986,11 @@
       </c>
       <c r="F6" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>18873313.520000003</v>
+        <v>18885611.520000003</v>
       </c>
       <c r="G6" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>75432344.080000013</v>
+        <v>75420046.080000013</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1">
@@ -13011,11 +13011,11 @@
       </c>
       <c r="F7" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>21561008.200000003</v>
+        <v>21573694.200000003</v>
       </c>
       <c r="G7" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>86199567.799999997</v>
+        <v>86186881.799999997</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13036,11 +13036,11 @@
       </c>
       <c r="F8" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>24218532.680000003</v>
+        <v>24233347.680000003</v>
       </c>
       <c r="G8" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>96863905.719999999</v>
+        <v>96849090.719999999</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -13061,11 +13061,11 @@
       </c>
       <c r="F9" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29331597.640000001</v>
+        <v>29316137.640000001</v>
       </c>
       <c r="G9" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>117211845.55999999</v>
+        <v>117227305.55999999</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -13086,11 +13086,11 @@
       </c>
       <c r="F10" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>3324185.12</v>
+        <v>3331121.12</v>
       </c>
       <c r="G10" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>13284160.48</v>
+        <v>13277224.48</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -13111,11 +13111,11 @@
       </c>
       <c r="F11" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>6623148.6000000006</v>
+        <v>6628411.6000000006</v>
       </c>
       <c r="G11" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>26411699.399999999</v>
+        <v>26406436.399999999</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1">
@@ -13136,11 +13136,11 @@
       </c>
       <c r="F12" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>9903565.0800000001</v>
+        <v>9915378.0800000001</v>
       </c>
       <c r="G12" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>39557785.32</v>
+        <v>39545972.32</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -13161,11 +13161,11 @@
       </c>
       <c r="F13" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>13185707.560000001</v>
+        <v>13184988.560000001</v>
       </c>
       <c r="G13" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>52702145.239999995</v>
+        <v>52702864.239999995</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -13186,11 +13186,11 @@
       </c>
       <c r="F14" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>16486043.039999999</v>
+        <v>16485178.039999999</v>
       </c>
       <c r="G14" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>65828312.159999989</v>
+        <v>65829177.159999989</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -13211,11 +13211,11 @@
       </c>
       <c r="F15" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>19756371.520000003</v>
+        <v>19770122.520000003</v>
       </c>
       <c r="G15" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>78984486.080000013</v>
+        <v>78970735.080000013</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1">
@@ -13236,11 +13236,11 @@
       </c>
       <c r="F16" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>23031968.200000003</v>
+        <v>23035188.200000003</v>
       </c>
       <c r="G16" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>92120607.799999997</v>
+        <v>92117387.799999997</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -13261,11 +13261,11 @@
       </c>
       <c r="F17" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>26305682.680000003</v>
+        <v>26295688.680000003</v>
       </c>
       <c r="G17" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>105125555.72</v>
+        <v>105135549.72</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1">
@@ -13286,11 +13286,11 @@
       </c>
       <c r="F18" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29292739.160000004</v>
+        <v>29293128.160000004</v>
       </c>
       <c r="G18" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>117086601.64000002</v>
+        <v>117086212.64000002</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -13311,11 +13311,11 @@
       </c>
       <c r="F19" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>3010412.64</v>
+        <v>3004570.64</v>
       </c>
       <c r="G19" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>11955430.559999999</v>
+        <v>11961272.559999999</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -13336,11 +13336,11 @@
       </c>
       <c r="F20" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>6296708.120000001</v>
+        <v>6285292.120000001</v>
       </c>
       <c r="G20" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>25095637.48</v>
+        <v>25107053.48</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -13361,11 +13361,11 @@
       </c>
       <c r="F21" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>9576355.5999999996</v>
+        <v>9588281.5999999996</v>
       </c>
       <c r="G21" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>38242492.399999999</v>
+        <v>38230566.399999999</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1">
@@ -13386,11 +13386,11 @@
       </c>
       <c r="F22" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>12849389.08</v>
+        <v>12853295.08</v>
       </c>
       <c r="G22" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>51395961.32</v>
+        <v>51392055.32</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -13411,11 +13411,11 @@
       </c>
       <c r="F23" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>16158308.560000001</v>
+        <v>16157917.560000001</v>
       </c>
       <c r="G23" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>64513544.239999995</v>
+        <v>64513935.239999995</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1">
@@ -13436,11 +13436,11 @@
       </c>
       <c r="F24" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>19441081.039999999</v>
+        <v>19428540.039999999</v>
       </c>
       <c r="G24" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>77657274.159999996</v>
+        <v>77669815.159999996</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -13461,11 +13461,11 @@
       </c>
       <c r="F25" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>22716549.52</v>
+        <v>22722915.52</v>
       </c>
       <c r="G25" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>90808308.079999998</v>
+        <v>90801942.079999998</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -13486,11 +13486,11 @@
       </c>
       <c r="F26" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>25998725.200000003</v>
+        <v>25995524.200000003</v>
       </c>
       <c r="G26" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>103937850.8</v>
+        <v>103941051.8</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1">
@@ -13511,11 +13511,11 @@
       </c>
       <c r="F27" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29255084.680000003</v>
+        <v>29261546.680000003</v>
       </c>
       <c r="G27" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>116960153.72</v>
+        <v>116953691.72</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -13536,11 +13536,11 @@
       </c>
       <c r="F28" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>5634386.1600000001</v>
+        <v>5627151.1600000001</v>
       </c>
       <c r="G28" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>22472954.640000001</v>
+        <v>22480189.640000001</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -13561,11 +13561,11 @@
       </c>
       <c r="F29" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>8925047.6400000006</v>
+        <v>8930400.6400000006</v>
       </c>
       <c r="G29" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>35608795.560000002</v>
+        <v>35603442.560000002</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1">
@@ -13586,11 +13586,11 @@
       </c>
       <c r="F30" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>12202912.119999997</v>
+        <v>12206346.119999997</v>
       </c>
       <c r="G30" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>48757433.479999989</v>
+        <v>48753999.479999989</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -13611,11 +13611,11 @@
       </c>
       <c r="F31" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>15490840.600000001</v>
+        <v>15491951.600000001</v>
       </c>
       <c r="G31" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>61896007.399999999</v>
+        <v>61894896.399999999</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -13636,11 +13636,11 @@
       </c>
       <c r="F32" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>18767606.079999998</v>
+        <v>18775852.079999998</v>
       </c>
       <c r="G32" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>75045744.319999993</v>
+        <v>75037498.319999993</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1">
@@ -13661,11 +13661,11 @@
       </c>
       <c r="F33" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>22063440.560000002</v>
+        <v>22066919.560000002</v>
       </c>
       <c r="G33" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>88176412.239999995</v>
+        <v>88172933.239999995</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -13686,11 +13686,11 @@
       </c>
       <c r="F34" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>25356484.040000003</v>
+        <v>25354995.040000003</v>
       </c>
       <c r="G34" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>101309871.16</v>
+        <v>101311360.16</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -13711,11 +13711,11 @@
       </c>
       <c r="F35" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>28633322.52</v>
+        <v>28633607.52</v>
       </c>
       <c r="G35" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>114459535.08</v>
+        <v>114459250.08</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="30" customHeight="1">
@@ -13736,11 +13736,11 @@
       </c>
       <c r="F36" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>5290275.2</v>
+        <v>5302425.2</v>
       </c>
       <c r="G36" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>21158300.800000001</v>
+        <v>21146150.800000001</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -13761,11 +13761,11 @@
       </c>
       <c r="F37" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>8554706.6799999997</v>
+        <v>8567878.6799999997</v>
       </c>
       <c r="G37" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>34172531.719999999</v>
+        <v>34159359.719999999</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -13786,11 +13786,11 @@
       </c>
       <c r="F38" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>11557361.16</v>
+        <v>11547783.16</v>
       </c>
       <c r="G38" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>46117979.640000001</v>
+        <v>46127557.640000001</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -13811,11 +13811,11 @@
       </c>
       <c r="F39" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>14820763.640000001</v>
+        <v>14825897.640000001</v>
       </c>
       <c r="G39" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>59281079.560000002</v>
+        <v>59275945.560000002</v>
       </c>
     </row>
   </sheetData>
@@ -13827,7 +13827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>

--- a/Sample_Bank_Data/SEP 2023.xlsx
+++ b/Sample_Bank_Data/SEP 2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28922"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{C1AC0192-DAE6-4F35-8B70-01A58E664243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0D035BA-25FD-443E-A7B6-BA313C213DF5}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{C1AC0192-DAE6-4F35-8B70-01A58E664243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{025CF8F5-7EE7-4CB8-9C37-982364BC3CF6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="5" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collateral Types" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="307">
   <si>
     <t>Collateral Types</t>
   </si>
@@ -376,13 +376,13 @@
     <t>Total Collateral</t>
   </si>
   <si>
-    <t>HC Collateral Building</t>
-  </si>
-  <si>
-    <t>HC Collateral Cash</t>
-  </si>
-  <si>
-    <t>HC Collateral Shares</t>
+    <t>HC Collateral Land &amp; Building</t>
+  </si>
+  <si>
+    <t>HC Collateral Cash, Gold &amp; Other Riskfree Assests</t>
+  </si>
+  <si>
+    <t>HC Collateral Shares &amp; Other Paper Assests</t>
   </si>
   <si>
     <t>HC Collateral Hawalat Haq</t>
@@ -424,9 +424,6 @@
     <t>Collateral Grade</t>
   </si>
   <si>
-    <t>Collatral Land &amp; Building</t>
-  </si>
-  <si>
     <t>50%</t>
   </si>
   <si>
@@ -448,9 +445,6 @@
     <t>Building2</t>
   </si>
   <si>
-    <t>Collatral Cash, Gold &amp; Other Riskfree Assests</t>
-  </si>
-  <si>
     <t>0%</t>
   </si>
   <si>
@@ -469,9 +463,6 @@
     <t>Building4</t>
   </si>
   <si>
-    <t>Collatral Shares &amp; Other Paper Assests</t>
-  </si>
-  <si>
     <t>75%</t>
   </si>
   <si>
@@ -520,370 +511,115 @@
     <t>Shares6</t>
   </si>
   <si>
+    <t>Land6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest2</t>
+  </si>
+  <si>
+    <t>Gold4</t>
+  </si>
+  <si>
+    <t>Others4</t>
+  </si>
+  <si>
+    <t>Land7</t>
+  </si>
+  <si>
+    <t>Land8</t>
+  </si>
+  <si>
+    <t>Shares7</t>
+  </si>
+  <si>
+    <t>Shares9</t>
+  </si>
+  <si>
+    <t>Others5</t>
+  </si>
+  <si>
+    <t>Others6</t>
+  </si>
+  <si>
+    <t>Building7</t>
+  </si>
+  <si>
+    <t>Land9</t>
+  </si>
+  <si>
+    <t>Cash3</t>
+  </si>
+  <si>
+    <t>Risk Free Assest3</t>
+  </si>
+  <si>
+    <t>Others7</t>
+  </si>
+  <si>
+    <t>Cash4</t>
+  </si>
+  <si>
+    <t>Risk Free Assest4</t>
+  </si>
+  <si>
+    <t>Others8</t>
+  </si>
+  <si>
+    <t>Others9</t>
+  </si>
+  <si>
+    <t>Building8</t>
+  </si>
+  <si>
+    <t>Building9</t>
+  </si>
+  <si>
+    <t>Cash5</t>
+  </si>
+  <si>
+    <t>Gold5</t>
+  </si>
+  <si>
+    <t>Gold6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest5</t>
+  </si>
+  <si>
+    <t>Shares8</t>
+  </si>
+  <si>
+    <t>Cash6</t>
+  </si>
+  <si>
+    <t>Gold7</t>
+  </si>
+  <si>
+    <t>Risk Free Assest6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest7</t>
+  </si>
+  <si>
+    <t>Risk Free Assest8</t>
+  </si>
+  <si>
+    <t>Risk Free Assest9</t>
+  </si>
+  <si>
+    <t>Cash7</t>
+  </si>
+  <si>
+    <t>Shares10</t>
+  </si>
+  <si>
+    <t>Shares11</t>
+  </si>
+  <si>
+    <t>Shares12</t>
+  </si>
+  <si>
     <t>Building6</t>
-  </si>
-  <si>
-    <t>Land6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest2</t>
-  </si>
-  <si>
-    <t>Gold4</t>
-  </si>
-  <si>
-    <t>Others4</t>
-  </si>
-  <si>
-    <t>Land7</t>
-  </si>
-  <si>
-    <t>Land8</t>
-  </si>
-  <si>
-    <t>Shares7</t>
-  </si>
-  <si>
-    <t>Shares8</t>
-  </si>
-  <si>
-    <t>Others5</t>
-  </si>
-  <si>
-    <t>Shares9</t>
-  </si>
-  <si>
-    <t>Shares10</t>
-  </si>
-  <si>
-    <t>Others6</t>
-  </si>
-  <si>
-    <t>Building7</t>
-  </si>
-  <si>
-    <t>Land9</t>
-  </si>
-  <si>
-    <t>Cash3</t>
-  </si>
-  <si>
-    <t>Risk Free Assest3</t>
-  </si>
-  <si>
-    <t>Others7</t>
-  </si>
-  <si>
-    <t>Cash4</t>
-  </si>
-  <si>
-    <t>Risk Free Assest4</t>
-  </si>
-  <si>
-    <t>Others8</t>
-  </si>
-  <si>
-    <t>Land10</t>
-  </si>
-  <si>
-    <t>Land11</t>
-  </si>
-  <si>
-    <t>Others9</t>
-  </si>
-  <si>
-    <t>Shares11</t>
-  </si>
-  <si>
-    <t>Shares12</t>
-  </si>
-  <si>
-    <t>Others10</t>
-  </si>
-  <si>
-    <t>Land12</t>
-  </si>
-  <si>
-    <t>Building8</t>
-  </si>
-  <si>
-    <t>Others11</t>
-  </si>
-  <si>
-    <t>Shares13</t>
-  </si>
-  <si>
-    <t>Shares14</t>
-  </si>
-  <si>
-    <t>Others12</t>
-  </si>
-  <si>
-    <t>Building9</t>
-  </si>
-  <si>
-    <t>Building10</t>
-  </si>
-  <si>
-    <t>Others13</t>
-  </si>
-  <si>
-    <t>Cash5</t>
-  </si>
-  <si>
-    <t>Gold5</t>
-  </si>
-  <si>
-    <t>Others14</t>
-  </si>
-  <si>
-    <t>Shares15</t>
-  </si>
-  <si>
-    <t>Shares16</t>
-  </si>
-  <si>
-    <t>Others15</t>
-  </si>
-  <si>
-    <t>Building11</t>
-  </si>
-  <si>
-    <t>Building12</t>
-  </si>
-  <si>
-    <t>Shares17</t>
-  </si>
-  <si>
-    <t>Shares18</t>
-  </si>
-  <si>
-    <t>Others16</t>
-  </si>
-  <si>
-    <t>Others17</t>
-  </si>
-  <si>
-    <t>Others18</t>
-  </si>
-  <si>
-    <t>Land13</t>
-  </si>
-  <si>
-    <t>Building13</t>
-  </si>
-  <si>
-    <t>Gold6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest5</t>
-  </si>
-  <si>
-    <t>Others19</t>
-  </si>
-  <si>
-    <t>Building14</t>
-  </si>
-  <si>
-    <t>Land14</t>
-  </si>
-  <si>
-    <t>Shares19</t>
-  </si>
-  <si>
-    <t>Shares20</t>
-  </si>
-  <si>
-    <t>Others20</t>
-  </si>
-  <si>
-    <t>Others21</t>
-  </si>
-  <si>
-    <t>Cash6</t>
-  </si>
-  <si>
-    <t>Gold7</t>
-  </si>
-  <si>
-    <t>Shares21</t>
-  </si>
-  <si>
-    <t>Shares22</t>
-  </si>
-  <si>
-    <t>Others22</t>
-  </si>
-  <si>
-    <t>Land15</t>
-  </si>
-  <si>
-    <t>Building15</t>
-  </si>
-  <si>
-    <t>Risk Free Assest6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest7</t>
-  </si>
-  <si>
-    <t>Others23</t>
-  </si>
-  <si>
-    <t>Shares23</t>
-  </si>
-  <si>
-    <t>Shares24</t>
-  </si>
-  <si>
-    <t>Others24</t>
-  </si>
-  <si>
-    <t>Gold8</t>
-  </si>
-  <si>
-    <t>Risk Free Assest8</t>
-  </si>
-  <si>
-    <t>Others25</t>
-  </si>
-  <si>
-    <t>Risk Free Assest9</t>
-  </si>
-  <si>
-    <t>Risk Free Assest10</t>
-  </si>
-  <si>
-    <t>Shares25</t>
-  </si>
-  <si>
-    <t>Shares26</t>
-  </si>
-  <si>
-    <t>Others26</t>
-  </si>
-  <si>
-    <t>Land16</t>
-  </si>
-  <si>
-    <t>Building16</t>
-  </si>
-  <si>
-    <t>Land17</t>
-  </si>
-  <si>
-    <t>Building17</t>
-  </si>
-  <si>
-    <t>Shares27</t>
-  </si>
-  <si>
-    <t>Shares28</t>
-  </si>
-  <si>
-    <t>Others27</t>
-  </si>
-  <si>
-    <t>Building18</t>
-  </si>
-  <si>
-    <t>Building19</t>
-  </si>
-  <si>
-    <t>Cash7</t>
-  </si>
-  <si>
-    <t>Risk Free Assest11</t>
-  </si>
-  <si>
-    <t>Building20</t>
-  </si>
-  <si>
-    <t>Building21</t>
-  </si>
-  <si>
-    <t>Cash8</t>
-  </si>
-  <si>
-    <t>Risk Free Assest12</t>
-  </si>
-  <si>
-    <t>Shares29</t>
-  </si>
-  <si>
-    <t>Shares30</t>
-  </si>
-  <si>
-    <t>Building22</t>
-  </si>
-  <si>
-    <t>Building23</t>
-  </si>
-  <si>
-    <t>Others28</t>
-  </si>
-  <si>
-    <t>Building24</t>
-  </si>
-  <si>
-    <t>Land18</t>
-  </si>
-  <si>
-    <t>Cash9</t>
-  </si>
-  <si>
-    <t>Gold9</t>
-  </si>
-  <si>
-    <t>Shares31</t>
-  </si>
-  <si>
-    <t>Shares32</t>
-  </si>
-  <si>
-    <t>Others29</t>
-  </si>
-  <si>
-    <t>Cash10</t>
-  </si>
-  <si>
-    <t>Risk Free Assest13</t>
-  </si>
-  <si>
-    <t>Others30</t>
-  </si>
-  <si>
-    <t>Building25</t>
-  </si>
-  <si>
-    <t>Land19</t>
-  </si>
-  <si>
-    <t>Shares33</t>
-  </si>
-  <si>
-    <t>Shares34</t>
-  </si>
-  <si>
-    <t>Shares35</t>
-  </si>
-  <si>
-    <t>Shares36</t>
-  </si>
-  <si>
-    <t>Others31</t>
-  </si>
-  <si>
-    <t>Building26</t>
-  </si>
-  <si>
-    <t>Land20</t>
-  </si>
-  <si>
-    <t>Gold10</t>
-  </si>
-  <si>
-    <t>Risk Free Assest14</t>
   </si>
   <si>
     <t>Company</t>
@@ -1956,22 +1692,22 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="17" t="s">
-        <v>388</v>
+        <v>300</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>389</v>
+        <v>301</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>28</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>390</v>
+        <v>302</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>391</v>
+        <v>303</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>392</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2273,7 +2009,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>393</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -2303,7 +2039,7 @@
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>394</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -3222,8 +2958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD52"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:Y1"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8369,8 +8105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A148"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8421,7 +8157,7 @@
         <v>6343058.5</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -8430,10 +8166,10 @@
         <v>7</v>
       </c>
       <c r="H2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" t="s">
         <v>125</v>
-      </c>
-      <c r="I2" t="s">
-        <v>126</v>
       </c>
       <c r="J2">
         <v>4</v>
@@ -8453,7 +8189,7 @@
         <v>6343058.5</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -8462,10 +8198,10 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -8494,10 +8230,10 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" t="s">
         <v>128</v>
-      </c>
-      <c r="I4" t="s">
-        <v>129</v>
       </c>
       <c r="J4">
         <v>5</v>
@@ -8517,7 +8253,7 @@
         <v>12480196.5</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -8526,10 +8262,10 @@
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -8549,7 +8285,7 @@
         <v>12480196.5</v>
       </c>
       <c r="E6" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
@@ -8558,10 +8294,10 @@
         <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -8581,7 +8317,7 @@
         <v>49393186.5</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -8590,10 +8326,10 @@
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J7">
         <v>5</v>
@@ -8613,7 +8349,7 @@
         <v>49393186.5</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -8622,10 +8358,10 @@
         <v>14</v>
       </c>
       <c r="H8" t="s">
+        <v>131</v>
+      </c>
+      <c r="I8" t="s">
         <v>133</v>
-      </c>
-      <c r="I8" t="s">
-        <v>135</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -8654,10 +8390,10 @@
         <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -8677,7 +8413,7 @@
         <v>49407937.5</v>
       </c>
       <c r="E10" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
         <v>5</v>
@@ -8686,10 +8422,10 @@
         <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J10">
         <v>4</v>
@@ -8709,7 +8445,7 @@
         <v>49407937.5</v>
       </c>
       <c r="E11" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
         <v>5</v>
@@ -8718,10 +8454,10 @@
         <v>6</v>
       </c>
       <c r="H11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -8741,7 +8477,7 @@
         <v>11746032</v>
       </c>
       <c r="E12" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
@@ -8750,10 +8486,10 @@
         <v>22</v>
       </c>
       <c r="H12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -8773,7 +8509,7 @@
         <v>11746032</v>
       </c>
       <c r="E13" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
@@ -8782,10 +8518,10 @@
         <v>21</v>
       </c>
       <c r="H13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -8805,7 +8541,7 @@
         <v>38280043.5</v>
       </c>
       <c r="E14" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
@@ -8814,10 +8550,10 @@
         <v>21</v>
       </c>
       <c r="H14" t="s">
+        <v>137</v>
+      </c>
+      <c r="I14" t="s">
         <v>140</v>
-      </c>
-      <c r="I14" t="s">
-        <v>143</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -8837,7 +8573,7 @@
         <v>38280043.5</v>
       </c>
       <c r="E15" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -8846,10 +8582,10 @@
         <v>22</v>
       </c>
       <c r="H15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -8878,10 +8614,10 @@
         <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -8901,7 +8637,7 @@
         <v>28402755.5</v>
       </c>
       <c r="E17" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
         <v>5</v>
@@ -8910,10 +8646,10 @@
         <v>6</v>
       </c>
       <c r="H17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J17">
         <v>3</v>
@@ -8933,7 +8669,7 @@
         <v>28402755.5</v>
       </c>
       <c r="E18" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -8942,10 +8678,10 @@
         <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I18" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J18">
         <v>3</v>
@@ -8965,7 +8701,7 @@
         <v>43833068.5</v>
       </c>
       <c r="E19" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
@@ -8974,10 +8710,10 @@
         <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J19">
         <v>3</v>
@@ -8997,7 +8733,7 @@
         <v>43833068.5</v>
       </c>
       <c r="E20" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
@@ -9006,10 +8742,10 @@
         <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -9029,7 +8765,7 @@
         <v>27157020</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -9038,10 +8774,10 @@
         <v>10</v>
       </c>
       <c r="H21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I21" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -9061,7 +8797,7 @@
         <v>27157020</v>
       </c>
       <c r="E22" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -9070,10 +8806,10 @@
         <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I22" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J22">
         <v>5</v>
@@ -9093,7 +8829,7 @@
         <v>11723675.5</v>
       </c>
       <c r="E23" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
@@ -9102,10 +8838,10 @@
         <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I23" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J23">
         <v>3</v>
@@ -9125,7 +8861,7 @@
         <v>11723675.5</v>
       </c>
       <c r="E24" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
@@ -9134,10 +8870,10 @@
         <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -9157,7 +8893,7 @@
         <v>33941860.5</v>
       </c>
       <c r="E25" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F25" t="s">
         <v>20</v>
@@ -9166,10 +8902,10 @@
         <v>21</v>
       </c>
       <c r="H25" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I25" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J25">
         <v>2</v>
@@ -9189,7 +8925,7 @@
         <v>33941860.5</v>
       </c>
       <c r="E26" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F26" t="s">
         <v>20</v>
@@ -9198,10 +8934,10 @@
         <v>22</v>
       </c>
       <c r="H26" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I26" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J26">
         <v>2</v>
@@ -9221,7 +8957,7 @@
         <v>16065411.5</v>
       </c>
       <c r="E27" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
         <v>5</v>
@@ -9230,10 +8966,10 @@
         <v>6</v>
       </c>
       <c r="H27" t="s">
+        <v>124</v>
+      </c>
+      <c r="I27" t="s">
         <v>125</v>
-      </c>
-      <c r="I27" t="s">
-        <v>156</v>
       </c>
       <c r="J27">
         <v>2</v>
@@ -9253,7 +8989,7 @@
         <v>16065411.5</v>
       </c>
       <c r="E28" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -9262,10 +8998,10 @@
         <v>10</v>
       </c>
       <c r="H28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I28" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J28">
         <v>5</v>
@@ -9285,7 +9021,7 @@
         <v>38270479.5</v>
       </c>
       <c r="E29" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
@@ -9294,10 +9030,10 @@
         <v>18</v>
       </c>
       <c r="H29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I29" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J29">
         <v>5</v>
@@ -9317,7 +9053,7 @@
         <v>38270479.5</v>
       </c>
       <c r="E30" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F30" t="s">
         <v>14</v>
@@ -9326,10 +9062,10 @@
         <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I30" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -9358,10 +9094,10 @@
         <v>24</v>
       </c>
       <c r="H31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I31" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="J31">
         <v>3</v>
@@ -9381,7 +9117,7 @@
         <v>10548856.5</v>
       </c>
       <c r="E32" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -9390,10 +9126,10 @@
         <v>11</v>
       </c>
       <c r="H32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I32" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J32">
         <v>5</v>
@@ -9413,7 +9149,7 @@
         <v>10548856.5</v>
       </c>
       <c r="E33" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -9422,10 +9158,10 @@
         <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I33" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -9445,7 +9181,7 @@
         <v>45072968.5</v>
       </c>
       <c r="E34" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F34" t="s">
         <v>20</v>
@@ -9454,10 +9190,10 @@
         <v>21</v>
       </c>
       <c r="H34" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I34" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J34">
         <v>2</v>
@@ -9477,7 +9213,7 @@
         <v>45072968.5</v>
       </c>
       <c r="E35" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F35" t="s">
         <v>20</v>
@@ -9486,10 +9222,10 @@
         <v>22</v>
       </c>
       <c r="H35" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I35" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -9518,10 +9254,10 @@
         <v>24</v>
       </c>
       <c r="H36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I36" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J36">
         <v>4</v>
@@ -9541,7 +9277,7 @@
         <v>49372562.5</v>
       </c>
       <c r="E37" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F37" t="s">
         <v>20</v>
@@ -9550,10 +9286,10 @@
         <v>21</v>
       </c>
       <c r="H37" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I37" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="J37">
         <v>2</v>
@@ -9573,7 +9309,7 @@
         <v>49372562.5</v>
       </c>
       <c r="E38" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F38" t="s">
         <v>20</v>
@@ -9582,10 +9318,10 @@
         <v>22</v>
       </c>
       <c r="H38" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I38" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="J38">
         <v>2</v>
@@ -9614,10 +9350,10 @@
         <v>24</v>
       </c>
       <c r="H39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I39" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="J39">
         <v>5</v>
@@ -9637,7 +9373,7 @@
         <v>11738448.5</v>
       </c>
       <c r="E40" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F40" t="s">
         <v>5</v>
@@ -9646,10 +9382,10 @@
         <v>8</v>
       </c>
       <c r="H40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I40" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="J40">
         <v>4</v>
@@ -9669,7 +9405,7 @@
         <v>11738448.5</v>
       </c>
       <c r="E41" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -9678,10 +9414,10 @@
         <v>10</v>
       </c>
       <c r="H41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I41" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="J41">
         <v>4</v>
@@ -9701,7 +9437,7 @@
         <v>32722063.5</v>
       </c>
       <c r="E42" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F42" t="s">
         <v>15</v>
@@ -9710,10 +9446,10 @@
         <v>15</v>
       </c>
       <c r="H42" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I42" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="J42">
         <v>5</v>
@@ -9733,7 +9469,7 @@
         <v>32722063.5</v>
       </c>
       <c r="E43" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F43" t="s">
         <v>16</v>
@@ -9742,10 +9478,10 @@
         <v>17</v>
       </c>
       <c r="H43" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I43" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="J43">
         <v>3</v>
@@ -9774,10 +9510,10 @@
         <v>24</v>
       </c>
       <c r="H44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I44" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="J44">
         <v>5</v>
@@ -9797,7 +9533,7 @@
         <v>39449654.5</v>
       </c>
       <c r="E45" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F45" t="s">
         <v>15</v>
@@ -9806,10 +9542,10 @@
         <v>15</v>
       </c>
       <c r="H45" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I45" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="J45">
         <v>2</v>
@@ -9829,7 +9565,7 @@
         <v>39449654.5</v>
       </c>
       <c r="E46" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
@@ -9838,10 +9574,10 @@
         <v>18</v>
       </c>
       <c r="H46" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I46" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="J46">
         <v>4</v>
@@ -9870,10 +9606,10 @@
         <v>24</v>
       </c>
       <c r="H47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I47" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="J47">
         <v>3</v>
@@ -9893,7 +9629,7 @@
         <v>22844895.5</v>
       </c>
       <c r="E48" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
@@ -9902,10 +9638,10 @@
         <v>11</v>
       </c>
       <c r="H48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I48" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="J48">
         <v>4</v>
@@ -9925,7 +9661,7 @@
         <v>22844895.5</v>
       </c>
       <c r="E49" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
@@ -9934,10 +9670,10 @@
         <v>10</v>
       </c>
       <c r="H49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I49" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="J49">
         <v>4</v>
@@ -9966,10 +9702,10 @@
         <v>24</v>
       </c>
       <c r="H50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I50" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="J50">
         <v>2</v>
@@ -9989,7 +9725,7 @@
         <v>6193853</v>
       </c>
       <c r="E51" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F51" t="s">
         <v>20</v>
@@ -9998,10 +9734,10 @@
         <v>22</v>
       </c>
       <c r="H51" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I51" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="J51">
         <v>2</v>
@@ -10021,7 +9757,7 @@
         <v>6193853</v>
       </c>
       <c r="E52" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F52" t="s">
         <v>20</v>
@@ -10030,10 +9766,10 @@
         <v>21</v>
       </c>
       <c r="H52" t="s">
+        <v>137</v>
+      </c>
+      <c r="I52" t="s">
         <v>140</v>
-      </c>
-      <c r="I52" t="s">
-        <v>181</v>
       </c>
       <c r="J52">
         <v>3</v>
@@ -10062,10 +9798,10 @@
         <v>24</v>
       </c>
       <c r="H53" t="s">
+        <v>127</v>
+      </c>
+      <c r="I53" t="s">
         <v>128</v>
-      </c>
-      <c r="I53" t="s">
-        <v>182</v>
       </c>
       <c r="J53">
         <v>2</v>
@@ -10085,7 +9821,7 @@
         <v>6191408</v>
       </c>
       <c r="E54" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
@@ -10094,10 +9830,10 @@
         <v>12</v>
       </c>
       <c r="H54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I54" t="s">
-        <v>183</v>
+        <v>129</v>
       </c>
       <c r="J54">
         <v>2</v>
@@ -10117,7 +9853,7 @@
         <v>6191408</v>
       </c>
       <c r="E55" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F55" t="s">
         <v>5</v>
@@ -10126,10 +9862,10 @@
         <v>8</v>
       </c>
       <c r="H55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I55" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="J55">
         <v>5</v>
@@ -10158,10 +9894,10 @@
         <v>24</v>
       </c>
       <c r="H56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I56" t="s">
-        <v>185</v>
+        <v>134</v>
       </c>
       <c r="J56">
         <v>3</v>
@@ -10181,7 +9917,7 @@
         <v>17274785.5</v>
       </c>
       <c r="E57" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F57" t="s">
         <v>20</v>
@@ -10190,10 +9926,10 @@
         <v>22</v>
       </c>
       <c r="H57" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I57" t="s">
-        <v>186</v>
+        <v>141</v>
       </c>
       <c r="J57">
         <v>3</v>
@@ -10213,7 +9949,7 @@
         <v>17274785.5</v>
       </c>
       <c r="E58" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F58" t="s">
         <v>20</v>
@@ -10222,10 +9958,10 @@
         <v>21</v>
       </c>
       <c r="H58" t="s">
+        <v>137</v>
+      </c>
+      <c r="I58" t="s">
         <v>140</v>
-      </c>
-      <c r="I58" t="s">
-        <v>187</v>
       </c>
       <c r="J58">
         <v>2</v>
@@ -10254,10 +9990,10 @@
         <v>24</v>
       </c>
       <c r="H59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I59" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="J59">
         <v>4</v>
@@ -10277,7 +10013,7 @@
         <v>38275917.5</v>
       </c>
       <c r="E60" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
@@ -10286,10 +10022,10 @@
         <v>8</v>
       </c>
       <c r="H60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I60" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="J60">
         <v>5</v>
@@ -10309,7 +10045,7 @@
         <v>38275917.5</v>
       </c>
       <c r="E61" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F61" t="s">
         <v>5</v>
@@ -10318,10 +10054,10 @@
         <v>7</v>
       </c>
       <c r="H61" t="s">
+        <v>124</v>
+      </c>
+      <c r="I61" t="s">
         <v>125</v>
-      </c>
-      <c r="I61" t="s">
-        <v>190</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -10350,10 +10086,10 @@
         <v>24</v>
       </c>
       <c r="H62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I62" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -10373,7 +10109,7 @@
         <v>6178822</v>
       </c>
       <c r="E63" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F63" t="s">
         <v>15</v>
@@ -10382,10 +10118,10 @@
         <v>15</v>
       </c>
       <c r="H63" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I63" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="J63">
         <v>2</v>
@@ -10405,7 +10141,7 @@
         <v>6178822</v>
       </c>
       <c r="E64" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F64" t="s">
         <v>14</v>
@@ -10414,10 +10150,10 @@
         <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I64" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -10446,10 +10182,10 @@
         <v>24</v>
       </c>
       <c r="H65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I65" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="J65">
         <v>2</v>
@@ -10469,7 +10205,7 @@
         <v>32719260</v>
       </c>
       <c r="E66" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F66" t="s">
         <v>20</v>
@@ -10478,10 +10214,10 @@
         <v>22</v>
       </c>
       <c r="H66" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I66" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
       <c r="J66">
         <v>5</v>
@@ -10501,7 +10237,7 @@
         <v>32719260</v>
       </c>
       <c r="E67" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F67" t="s">
         <v>20</v>
@@ -10510,10 +10246,10 @@
         <v>21</v>
       </c>
       <c r="H67" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I67" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="J67">
         <v>4</v>
@@ -10542,10 +10278,10 @@
         <v>24</v>
       </c>
       <c r="H68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I68" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="J68">
         <v>2</v>
@@ -10565,7 +10301,7 @@
         <v>28405040.5</v>
       </c>
       <c r="E69" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F69" t="s">
         <v>5</v>
@@ -10574,10 +10310,10 @@
         <v>6</v>
       </c>
       <c r="H69" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I69" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="J69">
         <v>4</v>
@@ -10597,7 +10333,7 @@
         <v>28405040.5</v>
       </c>
       <c r="E70" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F70" t="s">
         <v>5</v>
@@ -10606,10 +10342,10 @@
         <v>7</v>
       </c>
       <c r="H70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I70" t="s">
-        <v>199</v>
+        <v>135</v>
       </c>
       <c r="J70">
         <v>2</v>
@@ -10629,7 +10365,7 @@
         <v>39461066.5</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F71" t="s">
         <v>20</v>
@@ -10638,10 +10374,10 @@
         <v>22</v>
       </c>
       <c r="H71" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I71" t="s">
-        <v>200</v>
+        <v>139</v>
       </c>
       <c r="J71">
         <v>2</v>
@@ -10661,7 +10397,7 @@
         <v>39461066.5</v>
       </c>
       <c r="E72" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F72" t="s">
         <v>20</v>
@@ -10670,10 +10406,10 @@
         <v>21</v>
       </c>
       <c r="H72" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I72" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="J72">
         <v>2</v>
@@ -10702,10 +10438,10 @@
         <v>24</v>
       </c>
       <c r="H73" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I73" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="J73">
         <v>4</v>
@@ -10734,10 +10470,10 @@
         <v>24</v>
       </c>
       <c r="H74" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I74" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="J74">
         <v>5</v>
@@ -10766,10 +10502,10 @@
         <v>24</v>
       </c>
       <c r="H75" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I75" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="J75">
         <v>5</v>
@@ -10789,7 +10525,7 @@
         <v>38271926</v>
       </c>
       <c r="E76" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F76" t="s">
         <v>9</v>
@@ -10798,10 +10534,10 @@
         <v>10</v>
       </c>
       <c r="H76" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I76" t="s">
-        <v>205</v>
+        <v>126</v>
       </c>
       <c r="J76">
         <v>3</v>
@@ -10821,7 +10557,7 @@
         <v>38271926</v>
       </c>
       <c r="E77" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F77" t="s">
         <v>5</v>
@@ -10830,10 +10566,10 @@
         <v>6</v>
       </c>
       <c r="H77" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I77" t="s">
-        <v>206</v>
+        <v>136</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -10853,7 +10589,7 @@
         <v>43841753</v>
       </c>
       <c r="E78" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F78" t="s">
         <v>14</v>
@@ -10862,10 +10598,10 @@
         <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I78" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -10885,7 +10621,7 @@
         <v>43841753</v>
       </c>
       <c r="E79" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F79" t="s">
         <v>16</v>
@@ -10894,10 +10630,10 @@
         <v>18</v>
       </c>
       <c r="H79" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I79" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="J79">
         <v>5</v>
@@ -10926,10 +10662,10 @@
         <v>24</v>
       </c>
       <c r="H80" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I80" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -10949,7 +10685,7 @@
         <v>22847790</v>
       </c>
       <c r="E81" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F81" t="s">
         <v>5</v>
@@ -10958,10 +10694,10 @@
         <v>8</v>
       </c>
       <c r="H81" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I81" t="s">
-        <v>210</v>
+        <v>135</v>
       </c>
       <c r="J81">
         <v>2</v>
@@ -10981,7 +10717,7 @@
         <v>22847790</v>
       </c>
       <c r="E82" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F82" t="s">
         <v>9</v>
@@ -10990,10 +10726,10 @@
         <v>10</v>
       </c>
       <c r="H82" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I82" t="s">
-        <v>211</v>
+        <v>153</v>
       </c>
       <c r="J82">
         <v>3</v>
@@ -11013,7 +10749,7 @@
         <v>11745506.5</v>
       </c>
       <c r="E83" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F83" t="s">
         <v>20</v>
@@ -11022,10 +10758,10 @@
         <v>21</v>
       </c>
       <c r="H83" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I83" t="s">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -11045,7 +10781,7 @@
         <v>11745506.5</v>
       </c>
       <c r="E84" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F84" t="s">
         <v>20</v>
@@ -11054,10 +10790,10 @@
         <v>22</v>
       </c>
       <c r="H84" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I84" t="s">
-        <v>213</v>
+        <v>141</v>
       </c>
       <c r="J84">
         <v>5</v>
@@ -11086,10 +10822,10 @@
         <v>24</v>
       </c>
       <c r="H85" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I85" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="J85">
         <v>4</v>
@@ -11118,10 +10854,10 @@
         <v>24</v>
       </c>
       <c r="H86" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I86" t="s">
-        <v>215</v>
+        <v>142</v>
       </c>
       <c r="J86">
         <v>3</v>
@@ -11141,7 +10877,7 @@
         <v>28397010.5</v>
       </c>
       <c r="E87" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F87" t="s">
         <v>15</v>
@@ -11150,10 +10886,10 @@
         <v>15</v>
       </c>
       <c r="H87" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I87" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="J87">
         <v>4</v>
@@ -11173,7 +10909,7 @@
         <v>28397010.5</v>
       </c>
       <c r="E88" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F88" t="s">
         <v>14</v>
@@ -11182,10 +10918,10 @@
         <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I88" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="J88">
         <v>3</v>
@@ -11205,7 +10941,7 @@
         <v>33937832</v>
       </c>
       <c r="E89" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F89" t="s">
         <v>20</v>
@@ -11214,10 +10950,10 @@
         <v>21</v>
       </c>
       <c r="H89" t="s">
+        <v>137</v>
+      </c>
+      <c r="I89" t="s">
         <v>140</v>
-      </c>
-      <c r="I89" t="s">
-        <v>218</v>
       </c>
       <c r="J89">
         <v>2</v>
@@ -11237,7 +10973,7 @@
         <v>33937832</v>
       </c>
       <c r="E90" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F90" t="s">
         <v>20</v>
@@ -11246,10 +10982,10 @@
         <v>22</v>
       </c>
       <c r="H90" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I90" t="s">
-        <v>219</v>
+        <v>160</v>
       </c>
       <c r="J90">
         <v>5</v>
@@ -11278,10 +11014,10 @@
         <v>24</v>
       </c>
       <c r="H91" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I91" t="s">
-        <v>220</v>
+        <v>171</v>
       </c>
       <c r="J91">
         <v>2</v>
@@ -11301,7 +11037,7 @@
         <v>5478410.5</v>
       </c>
       <c r="E92" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F92" t="s">
         <v>9</v>
@@ -11310,10 +11046,10 @@
         <v>12</v>
       </c>
       <c r="H92" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I92" t="s">
-        <v>221</v>
+        <v>153</v>
       </c>
       <c r="J92">
         <v>3</v>
@@ -11333,7 +11069,7 @@
         <v>5478410.5</v>
       </c>
       <c r="E93" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F93" t="s">
         <v>5</v>
@@ -11342,10 +11078,10 @@
         <v>6</v>
       </c>
       <c r="H93" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I93" t="s">
-        <v>222</v>
+        <v>172</v>
       </c>
       <c r="J93">
         <v>4</v>
@@ -11365,7 +11101,7 @@
         <v>5496141.5</v>
       </c>
       <c r="E94" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F94" t="s">
         <v>16</v>
@@ -11374,10 +11110,10 @@
         <v>18</v>
       </c>
       <c r="H94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I94" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="J94">
         <v>5</v>
@@ -11397,7 +11133,7 @@
         <v>5496141.5</v>
       </c>
       <c r="E95" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F95" t="s">
         <v>16</v>
@@ -11406,10 +11142,10 @@
         <v>17</v>
       </c>
       <c r="H95" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I95" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -11438,10 +11174,10 @@
         <v>24</v>
       </c>
       <c r="H96" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I96" t="s">
-        <v>225</v>
+        <v>161</v>
       </c>
       <c r="J96">
         <v>5</v>
@@ -11461,7 +11197,7 @@
         <v>43828060.5</v>
       </c>
       <c r="E97" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F97" t="s">
         <v>20</v>
@@ -11470,10 +11206,10 @@
         <v>22</v>
       </c>
       <c r="H97" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I97" t="s">
-        <v>226</v>
+        <v>139</v>
       </c>
       <c r="J97">
         <v>2</v>
@@ -11493,7 +11229,7 @@
         <v>43828060.5</v>
       </c>
       <c r="E98" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F98" t="s">
         <v>20</v>
@@ -11502,10 +11238,10 @@
         <v>21</v>
       </c>
       <c r="H98" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I98" t="s">
-        <v>227</v>
+        <v>152</v>
       </c>
       <c r="J98">
         <v>2</v>
@@ -11534,10 +11270,10 @@
         <v>24</v>
       </c>
       <c r="H99" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I99" t="s">
-        <v>228</v>
+        <v>161</v>
       </c>
       <c r="J99">
         <v>3</v>
@@ -11557,7 +11293,7 @@
         <v>11727442.5</v>
       </c>
       <c r="E100" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F100" t="s">
         <v>14</v>
@@ -11566,10 +11302,10 @@
         <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I100" t="s">
-        <v>229</v>
+        <v>145</v>
       </c>
       <c r="J100">
         <v>2</v>
@@ -11589,7 +11325,7 @@
         <v>11727442.5</v>
       </c>
       <c r="E101" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F101" t="s">
         <v>16</v>
@@ -11598,10 +11334,10 @@
         <v>17</v>
       </c>
       <c r="H101" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I101" t="s">
-        <v>230</v>
+        <v>183</v>
       </c>
       <c r="J101">
         <v>3</v>
@@ -11630,10 +11366,10 @@
         <v>24</v>
       </c>
       <c r="H102" t="s">
+        <v>127</v>
+      </c>
+      <c r="I102" t="s">
         <v>128</v>
-      </c>
-      <c r="I102" t="s">
-        <v>231</v>
       </c>
       <c r="J102">
         <v>4</v>
@@ -11653,7 +11389,7 @@
         <v>49387672</v>
       </c>
       <c r="E103" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F103" t="s">
         <v>16</v>
@@ -11662,10 +11398,10 @@
         <v>17</v>
       </c>
       <c r="H103" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I103" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
       <c r="J103">
         <v>3</v>
@@ -11685,7 +11421,7 @@
         <v>49387672</v>
       </c>
       <c r="E104" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F104" t="s">
         <v>16</v>
@@ -11694,10 +11430,10 @@
         <v>18</v>
       </c>
       <c r="H104" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I104" t="s">
-        <v>233</v>
+        <v>149</v>
       </c>
       <c r="J104">
         <v>3</v>
@@ -11717,7 +11453,7 @@
         <v>11751939</v>
       </c>
       <c r="E105" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F105" t="s">
         <v>20</v>
@@ -11726,10 +11462,10 @@
         <v>21</v>
       </c>
       <c r="H105" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I105" t="s">
-        <v>234</v>
+        <v>151</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -11749,7 +11485,7 @@
         <v>11751939</v>
       </c>
       <c r="E106" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F106" t="s">
         <v>20</v>
@@ -11758,10 +11494,10 @@
         <v>22</v>
       </c>
       <c r="H106" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I106" t="s">
-        <v>235</v>
+        <v>159</v>
       </c>
       <c r="J106">
         <v>4</v>
@@ -11790,10 +11526,10 @@
         <v>24</v>
       </c>
       <c r="H107" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I107" t="s">
-        <v>236</v>
+        <v>161</v>
       </c>
       <c r="J107">
         <v>5</v>
@@ -11813,7 +11549,7 @@
         <v>6175149.5</v>
       </c>
       <c r="E108" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F108" t="s">
         <v>9</v>
@@ -11822,10 +11558,10 @@
         <v>12</v>
       </c>
       <c r="H108" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I108" t="s">
-        <v>237</v>
+        <v>147</v>
       </c>
       <c r="J108">
         <v>1</v>
@@ -11845,7 +11581,7 @@
         <v>6175149.5</v>
       </c>
       <c r="E109" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F109" t="s">
         <v>5</v>
@@ -11854,10 +11590,10 @@
         <v>8</v>
       </c>
       <c r="H109" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I109" t="s">
-        <v>238</v>
+        <v>143</v>
       </c>
       <c r="J109">
         <v>5</v>
@@ -11877,7 +11613,7 @@
         <v>17273882</v>
       </c>
       <c r="E110" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F110" t="s">
         <v>9</v>
@@ -11886,10 +11622,10 @@
         <v>12</v>
       </c>
       <c r="H110" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I110" t="s">
-        <v>239</v>
+        <v>144</v>
       </c>
       <c r="J110">
         <v>3</v>
@@ -11909,7 +11645,7 @@
         <v>17273882</v>
       </c>
       <c r="E111" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F111" t="s">
         <v>5</v>
@@ -11918,10 +11654,10 @@
         <v>7</v>
       </c>
       <c r="H111" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I111" t="s">
-        <v>240</v>
+        <v>135</v>
       </c>
       <c r="J111">
         <v>1</v>
@@ -11941,7 +11677,7 @@
         <v>32716931</v>
       </c>
       <c r="E112" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F112" t="s">
         <v>20</v>
@@ -11950,10 +11686,10 @@
         <v>22</v>
       </c>
       <c r="H112" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I112" t="s">
-        <v>241</v>
+        <v>141</v>
       </c>
       <c r="J112">
         <v>4</v>
@@ -11973,7 +11709,7 @@
         <v>32716931</v>
       </c>
       <c r="E113" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F113" t="s">
         <v>20</v>
@@ -11982,10 +11718,10 @@
         <v>21</v>
       </c>
       <c r="H113" t="s">
+        <v>137</v>
+      </c>
+      <c r="I113" t="s">
         <v>140</v>
-      </c>
-      <c r="I113" t="s">
-        <v>242</v>
       </c>
       <c r="J113">
         <v>3</v>
@@ -12014,10 +11750,10 @@
         <v>24</v>
       </c>
       <c r="H114" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I114" t="s">
-        <v>243</v>
+        <v>156</v>
       </c>
       <c r="J114">
         <v>2</v>
@@ -12037,7 +11773,7 @@
         <v>38275716.5</v>
       </c>
       <c r="E115" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F115" t="s">
         <v>5</v>
@@ -12046,10 +11782,10 @@
         <v>6</v>
       </c>
       <c r="H115" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I115" t="s">
-        <v>244</v>
+        <v>136</v>
       </c>
       <c r="J115">
         <v>1</v>
@@ -12069,7 +11805,7 @@
         <v>38275716.5</v>
       </c>
       <c r="E116" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F116" t="s">
         <v>5</v>
@@ -12078,10 +11814,10 @@
         <v>7</v>
       </c>
       <c r="H116" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I116" t="s">
-        <v>245</v>
+        <v>130</v>
       </c>
       <c r="J116">
         <v>4</v>
@@ -12101,7 +11837,7 @@
         <v>49394656.5</v>
       </c>
       <c r="E117" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F117" t="s">
         <v>15</v>
@@ -12110,10 +11846,10 @@
         <v>15</v>
       </c>
       <c r="H117" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I117" t="s">
-        <v>246</v>
+        <v>185</v>
       </c>
       <c r="J117">
         <v>1</v>
@@ -12133,7 +11869,7 @@
         <v>49394656.5</v>
       </c>
       <c r="E118" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F118" t="s">
         <v>16</v>
@@ -12142,10 +11878,10 @@
         <v>17</v>
       </c>
       <c r="H118" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I118" t="s">
-        <v>247</v>
+        <v>154</v>
       </c>
       <c r="J118">
         <v>4</v>
@@ -12165,7 +11901,7 @@
         <v>22841743</v>
       </c>
       <c r="E119" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F119" t="s">
         <v>5</v>
@@ -12174,10 +11910,10 @@
         <v>6</v>
       </c>
       <c r="H119" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I119" t="s">
-        <v>248</v>
+        <v>143</v>
       </c>
       <c r="J119">
         <v>1</v>
@@ -12197,7 +11933,7 @@
         <v>22841743</v>
       </c>
       <c r="E120" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F120" t="s">
         <v>5</v>
@@ -12206,10 +11942,10 @@
         <v>7</v>
       </c>
       <c r="H120" t="s">
+        <v>124</v>
+      </c>
+      <c r="I120" t="s">
         <v>125</v>
-      </c>
-      <c r="I120" t="s">
-        <v>249</v>
       </c>
       <c r="J120">
         <v>5</v>
@@ -12229,7 +11965,7 @@
         <v>22842691</v>
       </c>
       <c r="E121" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F121" t="s">
         <v>15</v>
@@ -12238,10 +11974,10 @@
         <v>15</v>
       </c>
       <c r="H121" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I121" t="s">
-        <v>250</v>
+        <v>174</v>
       </c>
       <c r="J121">
         <v>3</v>
@@ -12261,7 +11997,7 @@
         <v>22842691</v>
       </c>
       <c r="E122" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F122" t="s">
         <v>16</v>
@@ -12270,10 +12006,10 @@
         <v>18</v>
       </c>
       <c r="H122" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I122" t="s">
-        <v>251</v>
+        <v>154</v>
       </c>
       <c r="J122">
         <v>3</v>
@@ -12293,7 +12029,7 @@
         <v>11732917.5</v>
       </c>
       <c r="E123" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F123" t="s">
         <v>20</v>
@@ -12302,10 +12038,10 @@
         <v>22</v>
       </c>
       <c r="H123" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I123" t="s">
-        <v>252</v>
+        <v>139</v>
       </c>
       <c r="J123">
         <v>3</v>
@@ -12325,7 +12061,7 @@
         <v>11732917.5</v>
       </c>
       <c r="E124" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F124" t="s">
         <v>20</v>
@@ -12334,10 +12070,10 @@
         <v>21</v>
       </c>
       <c r="H124" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I124" t="s">
-        <v>253</v>
+        <v>186</v>
       </c>
       <c r="J124">
         <v>5</v>
@@ -12357,7 +12093,7 @@
         <v>32712182</v>
       </c>
       <c r="E125" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F125" t="s">
         <v>5</v>
@@ -12366,10 +12102,10 @@
         <v>7</v>
       </c>
       <c r="H125" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I125" t="s">
-        <v>254</v>
+        <v>173</v>
       </c>
       <c r="J125">
         <v>4</v>
@@ -12389,7 +12125,7 @@
         <v>32712182</v>
       </c>
       <c r="E126" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F126" t="s">
         <v>5</v>
@@ -12398,10 +12134,10 @@
         <v>8</v>
       </c>
       <c r="H126" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I126" t="s">
-        <v>255</v>
+        <v>163</v>
       </c>
       <c r="J126">
         <v>4</v>
@@ -12430,10 +12166,10 @@
         <v>24</v>
       </c>
       <c r="H127" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I127" t="s">
-        <v>256</v>
+        <v>171</v>
       </c>
       <c r="J127">
         <v>1</v>
@@ -12453,7 +12189,7 @@
         <v>28382691.5</v>
       </c>
       <c r="E128" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F128" t="s">
         <v>5</v>
@@ -12462,10 +12198,10 @@
         <v>7</v>
       </c>
       <c r="H128" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I128" t="s">
-        <v>257</v>
+        <v>172</v>
       </c>
       <c r="J128">
         <v>2</v>
@@ -12485,7 +12221,7 @@
         <v>28382691.5</v>
       </c>
       <c r="E129" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F129" t="s">
         <v>9</v>
@@ -12494,10 +12230,10 @@
         <v>11</v>
       </c>
       <c r="H129" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I129" t="s">
-        <v>258</v>
+        <v>148</v>
       </c>
       <c r="J129">
         <v>3</v>
@@ -12517,7 +12253,7 @@
         <v>17273645</v>
       </c>
       <c r="E130" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F130" t="s">
         <v>15</v>
@@ -12526,10 +12262,10 @@
         <v>15</v>
       </c>
       <c r="H130" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I130" t="s">
-        <v>259</v>
+        <v>132</v>
       </c>
       <c r="J130">
         <v>5</v>
@@ -12549,7 +12285,7 @@
         <v>17273645</v>
       </c>
       <c r="E131" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F131" t="s">
         <v>14</v>
@@ -12558,10 +12294,10 @@
         <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I131" t="s">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="J131">
         <v>4</v>
@@ -12581,7 +12317,7 @@
         <v>27152028.5</v>
       </c>
       <c r="E132" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F132" t="s">
         <v>20</v>
@@ -12590,10 +12326,10 @@
         <v>22</v>
       </c>
       <c r="H132" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I132" t="s">
-        <v>261</v>
+        <v>138</v>
       </c>
       <c r="J132">
         <v>3</v>
@@ -12613,7 +12349,7 @@
         <v>27152028.5</v>
       </c>
       <c r="E133" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F133" t="s">
         <v>20</v>
@@ -12622,10 +12358,10 @@
         <v>21</v>
       </c>
       <c r="H133" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I133" t="s">
-        <v>262</v>
+        <v>187</v>
       </c>
       <c r="J133">
         <v>3</v>
@@ -12654,10 +12390,10 @@
         <v>24</v>
       </c>
       <c r="H134" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I134" t="s">
-        <v>263</v>
+        <v>167</v>
       </c>
       <c r="J134">
         <v>2</v>
@@ -12677,7 +12413,7 @@
         <v>33948937</v>
       </c>
       <c r="E135" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F135" t="s">
         <v>15</v>
@@ -12686,10 +12422,10 @@
         <v>15</v>
       </c>
       <c r="H135" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I135" t="s">
-        <v>264</v>
+        <v>146</v>
       </c>
       <c r="J135">
         <v>2</v>
@@ -12709,7 +12445,7 @@
         <v>33948937</v>
       </c>
       <c r="E136" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F136" t="s">
         <v>16</v>
@@ -12718,10 +12454,10 @@
         <v>17</v>
       </c>
       <c r="H136" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I136" t="s">
-        <v>265</v>
+        <v>169</v>
       </c>
       <c r="J136">
         <v>3</v>
@@ -12750,10 +12486,10 @@
         <v>24</v>
       </c>
       <c r="H137" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I137" t="s">
-        <v>266</v>
+        <v>142</v>
       </c>
       <c r="J137">
         <v>2</v>
@@ -12773,7 +12509,7 @@
         <v>21603317</v>
       </c>
       <c r="E138" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F138" t="s">
         <v>5</v>
@@ -12782,10 +12518,10 @@
         <v>6</v>
       </c>
       <c r="H138" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I138" t="s">
-        <v>267</v>
+        <v>135</v>
       </c>
       <c r="J138">
         <v>1</v>
@@ -12805,7 +12541,7 @@
         <v>21603317</v>
       </c>
       <c r="E139" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F139" t="s">
         <v>9</v>
@@ -12814,10 +12550,10 @@
         <v>11</v>
       </c>
       <c r="H139" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I139" t="s">
-        <v>268</v>
+        <v>129</v>
       </c>
       <c r="J139">
         <v>1</v>
@@ -12837,7 +12573,7 @@
         <v>32718719</v>
       </c>
       <c r="E140" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F140" t="s">
         <v>20</v>
@@ -12846,10 +12582,10 @@
         <v>21</v>
       </c>
       <c r="H140" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I140" t="s">
-        <v>269</v>
+        <v>152</v>
       </c>
       <c r="J140">
         <v>2</v>
@@ -12869,7 +12605,7 @@
         <v>32718719</v>
       </c>
       <c r="E141" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F141" t="s">
         <v>20</v>
@@ -12878,10 +12614,10 @@
         <v>22</v>
       </c>
       <c r="H141" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I141" t="s">
-        <v>270</v>
+        <v>138</v>
       </c>
       <c r="J141">
         <v>1</v>
@@ -12901,7 +12637,7 @@
         <v>39460901.5</v>
       </c>
       <c r="E142" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F142" t="s">
         <v>20</v>
@@ -12910,10 +12646,10 @@
         <v>21</v>
       </c>
       <c r="H142" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I142" t="s">
-        <v>271</v>
+        <v>178</v>
       </c>
       <c r="J142">
         <v>3</v>
@@ -12933,7 +12669,7 @@
         <v>39460901.5</v>
       </c>
       <c r="E143" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F143" t="s">
         <v>20</v>
@@ -12942,10 +12678,10 @@
         <v>22</v>
       </c>
       <c r="H143" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I143" t="s">
-        <v>272</v>
+        <v>188</v>
       </c>
       <c r="J143">
         <v>5</v>
@@ -12974,10 +12710,10 @@
         <v>24</v>
       </c>
       <c r="H144" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I144" t="s">
-        <v>273</v>
+        <v>170</v>
       </c>
       <c r="J144">
         <v>2</v>
@@ -12997,7 +12733,7 @@
         <v>16058454</v>
       </c>
       <c r="E145" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F145" t="s">
         <v>5</v>
@@ -13006,10 +12742,10 @@
         <v>8</v>
       </c>
       <c r="H145" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I145" t="s">
-        <v>274</v>
+        <v>189</v>
       </c>
       <c r="J145">
         <v>2</v>
@@ -13029,7 +12765,7 @@
         <v>16058454</v>
       </c>
       <c r="E146" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F146" t="s">
         <v>9</v>
@@ -13038,10 +12774,10 @@
         <v>10</v>
       </c>
       <c r="H146" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I146" t="s">
-        <v>275</v>
+        <v>148</v>
       </c>
       <c r="J146">
         <v>2</v>
@@ -13061,7 +12797,7 @@
         <v>27152739.5</v>
       </c>
       <c r="E147" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F147" t="s">
         <v>14</v>
@@ -13070,10 +12806,10 @@
         <v>14</v>
       </c>
       <c r="H147" t="s">
+        <v>131</v>
+      </c>
+      <c r="I147" t="s">
         <v>133</v>
-      </c>
-      <c r="I147" t="s">
-        <v>276</v>
       </c>
       <c r="J147">
         <v>4</v>
@@ -13093,7 +12829,7 @@
         <v>27152739.5</v>
       </c>
       <c r="E148" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F148" t="s">
         <v>16</v>
@@ -13102,10 +12838,10 @@
         <v>17</v>
       </c>
       <c r="H148" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I148" t="s">
-        <v>277</v>
+        <v>166</v>
       </c>
       <c r="J148">
         <v>2</v>
@@ -13118,10 +12854,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B2:G39"/>
+  <dimension ref="A2:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13134,29 +12870,35 @@
     <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
       <c r="B2" s="24" t="s">
-        <v>278</v>
+        <v>190</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>279</v>
+        <v>191</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>280</v>
+        <v>192</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>281</v>
+        <v>193</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>282</v>
+        <v>194</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
       <c r="B3" s="27" t="s">
-        <v>284</v>
+        <v>196</v>
       </c>
       <c r="C3" s="28">
         <v>40426848</v>
@@ -13165,20 +12907,23 @@
         <v>2023</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>285</v>
+        <v>197</v>
       </c>
       <c r="F3" s="29">
         <f t="shared" ref="F3:F39" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>8106557.6000000006</v>
+        <v>8106255.6000000006</v>
       </c>
       <c r="G3" s="28">
         <f t="shared" ref="G3:G39" ca="1" si="1">C3-F3</f>
-        <v>32320290.399999999</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
+        <v>32320592.399999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
       <c r="B4" s="27" t="s">
-        <v>286</v>
+        <v>198</v>
       </c>
       <c r="C4" s="28">
         <v>53896550.399999999</v>
@@ -13187,20 +12932,23 @@
         <v>2022</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>285</v>
+        <v>197</v>
       </c>
       <c r="F4" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>10793218.08</v>
+        <v>10781695.08</v>
       </c>
       <c r="G4" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>43103332.32</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="30" customHeight="1">
+        <v>43114855.32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
       <c r="B5" s="27" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="C5" s="28">
         <v>67366252.799999997</v>
@@ -13209,20 +12957,23 @@
         <v>2019</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>285</v>
+        <v>197</v>
       </c>
       <c r="F5" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>13488901.560000001</v>
+        <v>13477643.560000001</v>
       </c>
       <c r="G5" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>53877351.239999995</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
+        <v>53888609.239999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
       <c r="B6" s="27" t="s">
-        <v>288</v>
+        <v>200</v>
       </c>
       <c r="C6" s="28">
         <v>94305657.600000009</v>
@@ -13231,20 +12982,23 @@
         <v>2023</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>285</v>
+        <v>197</v>
       </c>
       <c r="F6" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>18883729.520000003</v>
+        <v>18885611.520000003</v>
       </c>
       <c r="G6" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>75421928.080000013</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="30" customHeight="1">
+        <v>75420046.080000013</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1">
+      <c r="A7" t="s">
+        <v>114</v>
+      </c>
       <c r="B7" s="27" t="s">
-        <v>289</v>
+        <v>201</v>
       </c>
       <c r="C7" s="28">
         <v>107760576</v>
@@ -13253,20 +13007,23 @@
         <v>2022</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>285</v>
+        <v>197</v>
       </c>
       <c r="F7" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>21570770.200000003</v>
+        <v>21573694.200000003</v>
       </c>
       <c r="G7" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>86189805.799999997</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
+        <v>86186881.799999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
       <c r="B8" s="27" t="s">
-        <v>290</v>
+        <v>202</v>
       </c>
       <c r="C8" s="28">
         <v>121082438.40000001</v>
@@ -13275,20 +13032,23 @@
         <v>2019</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>285</v>
+        <v>197</v>
       </c>
       <c r="F8" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>24227840.680000003</v>
+        <v>24233347.680000003</v>
       </c>
       <c r="G8" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>96854597.719999999</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
+        <v>96849090.719999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>114</v>
+      </c>
       <c r="B9" s="27" t="s">
-        <v>291</v>
+        <v>203</v>
       </c>
       <c r="C9" s="28">
         <v>146543443.19999999</v>
@@ -13297,20 +13057,23 @@
         <v>2023</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>285</v>
+        <v>197</v>
       </c>
       <c r="F9" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29315761.640000001</v>
+        <v>29316137.640000001</v>
       </c>
       <c r="G9" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>117227681.55999999</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
+        <v>117227305.55999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>114</v>
+      </c>
       <c r="B10" s="27" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="C10" s="28">
         <v>16608345.6</v>
@@ -13319,20 +13082,23 @@
         <v>2022</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>285</v>
+        <v>197</v>
       </c>
       <c r="F10" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>3339407.12</v>
+        <v>3331121.12</v>
       </c>
       <c r="G10" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>13268938.48</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
+        <v>13277224.48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>114</v>
+      </c>
       <c r="B11" s="27" t="s">
-        <v>293</v>
+        <v>205</v>
       </c>
       <c r="C11" s="28">
         <v>33034848</v>
@@ -13341,20 +13107,23 @@
         <v>2019</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>285</v>
+        <v>197</v>
       </c>
       <c r="F11" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>6611696.6000000006</v>
+        <v>6628411.6000000006</v>
       </c>
       <c r="G11" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>26423151.399999999</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="30" customHeight="1">
+        <v>26406436.399999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1">
+      <c r="A12" t="s">
+        <v>114</v>
+      </c>
       <c r="B12" s="27" t="s">
-        <v>294</v>
+        <v>206</v>
       </c>
       <c r="C12" s="28">
         <v>49461350.399999999</v>
@@ -13363,20 +13132,23 @@
         <v>2020</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>285</v>
+        <v>197</v>
       </c>
       <c r="F12" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>9908766.0800000001</v>
+        <v>9915378.0800000001</v>
       </c>
       <c r="G12" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>39552584.32</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
+        <v>39545972.32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>114</v>
+      </c>
       <c r="B13" s="27" t="s">
-        <v>295</v>
+        <v>207</v>
       </c>
       <c r="C13" s="28">
         <v>65887852.799999997</v>
@@ -13385,20 +13157,23 @@
         <v>2020</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>285</v>
+        <v>197</v>
       </c>
       <c r="F13" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>13185573.560000001</v>
+        <v>13184988.560000001</v>
       </c>
       <c r="G13" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>52702279.239999995</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
+        <v>52702864.239999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>114</v>
+      </c>
       <c r="B14" s="27" t="s">
-        <v>296</v>
+        <v>208</v>
       </c>
       <c r="C14" s="28">
         <v>82314355.199999988</v>
@@ -13407,20 +13182,23 @@
         <v>2020</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>285</v>
+        <v>197</v>
       </c>
       <c r="F14" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>16464008.039999999</v>
+        <v>16485178.039999999</v>
       </c>
       <c r="G14" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>65850347.159999989</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7">
+        <v>65829177.159999989</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>114</v>
+      </c>
       <c r="B15" s="27" t="s">
-        <v>297</v>
+        <v>209</v>
       </c>
       <c r="C15" s="28">
         <v>98740857.600000009</v>
@@ -13429,20 +13207,23 @@
         <v>2020</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>298</v>
+        <v>210</v>
       </c>
       <c r="F15" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>19765869.520000003</v>
+        <v>19770122.520000003</v>
       </c>
       <c r="G15" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>78974988.080000013</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="30" customHeight="1">
+        <v>78970735.080000013</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1">
+      <c r="A16" t="s">
+        <v>114</v>
+      </c>
       <c r="B16" s="27" t="s">
-        <v>299</v>
+        <v>211</v>
       </c>
       <c r="C16" s="28">
         <v>115152576</v>
@@ -13451,20 +13232,23 @@
         <v>2020</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>285</v>
+        <v>197</v>
       </c>
       <c r="F16" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>23050909.200000003</v>
+        <v>23035188.200000003</v>
       </c>
       <c r="G16" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>92101666.799999997</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
+        <v>92117387.799999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>114</v>
+      </c>
       <c r="B17" s="27" t="s">
-        <v>300</v>
+        <v>212</v>
       </c>
       <c r="C17" s="28">
         <v>131431238.40000001</v>
@@ -13473,20 +13257,23 @@
         <v>2020</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>285</v>
+        <v>197</v>
       </c>
       <c r="F17" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>26309264.680000003</v>
+        <v>26295688.680000003</v>
       </c>
       <c r="G17" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>105121973.72</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1">
+        <v>105135549.72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1">
+      <c r="A18" t="s">
+        <v>114</v>
+      </c>
       <c r="B18" s="27" t="s">
-        <v>301</v>
+        <v>213</v>
       </c>
       <c r="C18" s="28">
         <v>146379340.80000001</v>
@@ -13495,20 +13282,23 @@
         <v>2017</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>298</v>
+        <v>210</v>
       </c>
       <c r="F18" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29280785.160000004</v>
+        <v>29293128.160000004</v>
       </c>
       <c r="G18" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>117098555.64000002</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7">
+        <v>117086212.64000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>114</v>
+      </c>
       <c r="B19" s="27" t="s">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="C19" s="28">
         <v>14965843.199999999</v>
@@ -13517,20 +13307,23 @@
         <v>2017</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>285</v>
+        <v>197</v>
       </c>
       <c r="F19" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>2997359.64</v>
+        <v>3004570.64</v>
       </c>
       <c r="G19" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>11968483.559999999</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
+        <v>11961272.559999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>114</v>
+      </c>
       <c r="B20" s="27" t="s">
-        <v>303</v>
+        <v>215</v>
       </c>
       <c r="C20" s="28">
         <v>31392345.600000001</v>
@@ -13539,20 +13332,23 @@
         <v>2017</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>298</v>
+        <v>210</v>
       </c>
       <c r="F20" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>6296745.120000001</v>
+        <v>6285292.120000001</v>
       </c>
       <c r="G20" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>25095600.48</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
+        <v>25107053.48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
       <c r="B21" s="27" t="s">
-        <v>304</v>
+        <v>216</v>
       </c>
       <c r="C21" s="28">
         <v>47818848</v>
@@ -13561,20 +13357,23 @@
         <v>2017</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>285</v>
+        <v>197</v>
       </c>
       <c r="F21" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>9580419.5999999996</v>
+        <v>9588281.5999999996</v>
       </c>
       <c r="G21" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>38238428.399999999</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="30" customHeight="1">
+        <v>38230566.399999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1">
+      <c r="A22" t="s">
+        <v>114</v>
+      </c>
       <c r="B22" s="27" t="s">
-        <v>305</v>
+        <v>217</v>
       </c>
       <c r="C22" s="28">
         <v>64245350.399999999</v>
@@ -13583,20 +13382,23 @@
         <v>2017</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>285</v>
+        <v>197</v>
       </c>
       <c r="F22" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>12863540.08</v>
+        <v>12853295.08</v>
       </c>
       <c r="G22" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>51381810.32</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
+        <v>51392055.32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>114</v>
+      </c>
       <c r="B23" s="27" t="s">
-        <v>306</v>
+        <v>218</v>
       </c>
       <c r="C23" s="28">
         <v>80671852.799999997</v>
@@ -13605,20 +13407,23 @@
         <v>2017</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>285</v>
+        <v>197</v>
       </c>
       <c r="F23" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>16144926.560000001</v>
+        <v>16157917.560000001</v>
       </c>
       <c r="G23" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>64526926.239999995</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="30" customHeight="1">
+        <v>64513935.239999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1">
+      <c r="A24" t="s">
+        <v>114</v>
+      </c>
       <c r="B24" s="27" t="s">
-        <v>307</v>
+        <v>219</v>
       </c>
       <c r="C24" s="28">
         <v>97098355.199999988</v>
@@ -13627,20 +13432,23 @@
         <v>2017</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>285</v>
+        <v>197</v>
       </c>
       <c r="F24" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>19421733.039999999</v>
+        <v>19428540.039999999</v>
       </c>
       <c r="G24" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>77676622.159999996</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7">
+        <v>77669815.159999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>114</v>
+      </c>
       <c r="B25" s="27" t="s">
-        <v>308</v>
+        <v>220</v>
       </c>
       <c r="C25" s="28">
         <v>113524857.59999999</v>
@@ -13649,20 +13457,23 @@
         <v>2015</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>285</v>
+        <v>197</v>
       </c>
       <c r="F25" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>22718439.52</v>
+        <v>22722915.52</v>
       </c>
       <c r="G25" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>90806418.079999998</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7">
+        <v>90801942.079999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>114</v>
+      </c>
       <c r="B26" s="27" t="s">
-        <v>309</v>
+        <v>221</v>
       </c>
       <c r="C26" s="28">
         <v>129936576</v>
@@ -13671,20 +13482,23 @@
         <v>2015</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>298</v>
+        <v>210</v>
       </c>
       <c r="F26" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>25997481.200000003</v>
+        <v>25995524.200000003</v>
       </c>
       <c r="G26" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>103939094.8</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1">
+        <v>103941051.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" customHeight="1">
+      <c r="A27" t="s">
+        <v>114</v>
+      </c>
       <c r="B27" s="27" t="s">
-        <v>310</v>
+        <v>222</v>
       </c>
       <c r="C27" s="28">
         <v>146215238.40000001</v>
@@ -13693,20 +13507,23 @@
         <v>2015</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>298</v>
+        <v>210</v>
       </c>
       <c r="F27" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29250100.680000003</v>
+        <v>29261546.680000003</v>
       </c>
       <c r="G27" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>116965137.72</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
+        <v>116953691.72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>114</v>
+      </c>
       <c r="B28" s="27" t="s">
-        <v>311</v>
+        <v>223</v>
       </c>
       <c r="C28" s="28">
         <v>28107340.800000001</v>
@@ -13715,20 +13532,23 @@
         <v>2015</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>298</v>
+        <v>210</v>
       </c>
       <c r="F28" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>5630380.1600000001</v>
+        <v>5627151.1600000001</v>
       </c>
       <c r="G28" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>22476960.640000001</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7">
+        <v>22480189.640000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>114</v>
+      </c>
       <c r="B29" s="27" t="s">
-        <v>312</v>
+        <v>224</v>
       </c>
       <c r="C29" s="28">
         <v>44533843.200000003</v>
@@ -13737,20 +13557,23 @@
         <v>2015</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>298</v>
+        <v>210</v>
       </c>
       <c r="F29" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>8926311.6400000006</v>
+        <v>8930400.6400000006</v>
       </c>
       <c r="G29" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>35607531.560000002</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1">
+        <v>35603442.560000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" customHeight="1">
+      <c r="A30" t="s">
+        <v>114</v>
+      </c>
       <c r="B30" s="27" t="s">
-        <v>313</v>
+        <v>225</v>
       </c>
       <c r="C30" s="28">
         <v>60960345.599999987</v>
@@ -13759,20 +13582,23 @@
         <v>2015</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>285</v>
+        <v>197</v>
       </c>
       <c r="F30" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>12214116.119999997</v>
+        <v>12206346.119999997</v>
       </c>
       <c r="G30" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>48746229.479999989</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
+        <v>48753999.479999989</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>114</v>
+      </c>
       <c r="B31" s="27" t="s">
-        <v>314</v>
+        <v>226</v>
       </c>
       <c r="C31" s="28">
         <v>77386848</v>
@@ -13781,20 +13607,23 @@
         <v>2015</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>285</v>
+        <v>197</v>
       </c>
       <c r="F31" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>15490340.600000001</v>
+        <v>15491951.600000001</v>
       </c>
       <c r="G31" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>61896507.399999999</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7">
+        <v>61894896.399999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>114</v>
+      </c>
       <c r="B32" s="27" t="s">
-        <v>315</v>
+        <v>227</v>
       </c>
       <c r="C32" s="28">
         <v>93813350.399999991</v>
@@ -13803,20 +13632,23 @@
         <v>2015</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>285</v>
+        <v>197</v>
       </c>
       <c r="F32" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>18769675.079999998</v>
+        <v>18775852.079999998</v>
       </c>
       <c r="G32" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>75043675.319999993</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="30" customHeight="1">
+        <v>75037498.319999993</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" customHeight="1">
+      <c r="A33" t="s">
+        <v>114</v>
+      </c>
       <c r="B33" s="27" t="s">
-        <v>316</v>
+        <v>228</v>
       </c>
       <c r="C33" s="28">
         <v>110239852.8</v>
@@ -13825,20 +13657,23 @@
         <v>2015</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>285</v>
+        <v>197</v>
       </c>
       <c r="F33" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>22050016.560000002</v>
+        <v>22066919.560000002</v>
       </c>
       <c r="G33" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>88189836.239999995</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7">
+        <v>88172933.239999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>114</v>
+      </c>
       <c r="B34" s="27" t="s">
-        <v>317</v>
+        <v>229</v>
       </c>
       <c r="C34" s="28">
         <v>126666355.2</v>
@@ -13847,20 +13682,23 @@
         <v>2015</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>285</v>
+        <v>197</v>
       </c>
       <c r="F34" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>25355088.040000003</v>
+        <v>25354995.040000003</v>
       </c>
       <c r="G34" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>101311267.16</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7">
+        <v>101311360.16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>114</v>
+      </c>
       <c r="B35" s="27" t="s">
-        <v>318</v>
+        <v>230</v>
       </c>
       <c r="C35" s="28">
         <v>143092857.59999999</v>
@@ -13869,20 +13707,23 @@
         <v>2015</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>298</v>
+        <v>210</v>
       </c>
       <c r="F35" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>28632440.52</v>
+        <v>28633607.52</v>
       </c>
       <c r="G35" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>114460417.08</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" ht="30" customHeight="1">
+        <v>114459250.08</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" customHeight="1">
+      <c r="A36" t="s">
+        <v>114</v>
+      </c>
       <c r="B36" s="27" t="s">
-        <v>319</v>
+        <v>231</v>
       </c>
       <c r="C36" s="28">
         <v>26448576</v>
@@ -13891,20 +13732,23 @@
         <v>2015</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>298</v>
+        <v>210</v>
       </c>
       <c r="F36" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>5298499.2</v>
+        <v>5302425.2</v>
       </c>
       <c r="G36" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>21150076.800000001</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7">
+        <v>21146150.800000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>114</v>
+      </c>
       <c r="B37" s="27" t="s">
-        <v>320</v>
+        <v>232</v>
       </c>
       <c r="C37" s="28">
         <v>42727238.399999999</v>
@@ -13913,20 +13757,23 @@
         <v>2015</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>298</v>
+        <v>210</v>
       </c>
       <c r="F37" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>8566650.6799999997</v>
+        <v>8567878.6799999997</v>
       </c>
       <c r="G37" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>34160587.719999999</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7">
+        <v>34159359.719999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>114</v>
+      </c>
       <c r="B38" s="27" t="s">
-        <v>321</v>
+        <v>233</v>
       </c>
       <c r="C38" s="28">
         <v>57675340.799999997</v>
@@ -13935,20 +13782,23 @@
         <v>2015</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>298</v>
+        <v>210</v>
       </c>
       <c r="F38" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>11558060.16</v>
+        <v>11547783.16</v>
       </c>
       <c r="G38" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>46117280.640000001</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7">
+        <v>46127557.640000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>114</v>
+      </c>
       <c r="B39" s="27" t="s">
-        <v>322</v>
+        <v>234</v>
       </c>
       <c r="C39" s="28">
         <v>74101843.200000003</v>
@@ -13957,15 +13807,15 @@
         <v>2015</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>298</v>
+        <v>210</v>
       </c>
       <c r="F39" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>14833025.640000001</v>
+        <v>14825897.640000001</v>
       </c>
       <c r="G39" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>59268817.560000002</v>
+        <v>59275945.560000002</v>
       </c>
     </row>
   </sheetData>
@@ -13975,10 +13825,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B2:F41"/>
+  <dimension ref="A2:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13990,7 +13840,10 @@
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
       <c r="B2" s="30" t="s">
         <v>25</v>
       </c>
@@ -14001,13 +13854,16 @@
         <v>94</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>323</v>
+        <v>235</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
       <c r="B3" s="30" t="s">
         <v>48</v>
       </c>
@@ -14016,13 +13872,16 @@
       </c>
       <c r="D3" s="30"/>
       <c r="E3" s="31" t="s">
-        <v>325</v>
+        <v>237</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
       <c r="B4" s="30" t="s">
         <v>51</v>
       </c>
@@ -14033,13 +13892,16 @@
         <v>2</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>327</v>
+        <v>239</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
       <c r="B5" s="30" t="s">
         <v>52</v>
       </c>
@@ -14048,15 +13910,15 @@
       </c>
       <c r="D5" s="30"/>
       <c r="E5" s="31" t="s">
-        <v>327</v>
+        <v>239</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>328</v>
+        <v>240</v>
       </c>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="30" t="s">
-        <v>329</v>
+        <v>241</v>
       </c>
       <c r="C40" s="30">
         <v>6</v>
@@ -14074,7 +13936,7 @@
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="30" t="s">
-        <v>330</v>
+        <v>242</v>
       </c>
       <c r="C41" s="30">
         <v>7</v>
@@ -14131,13 +13993,13 @@
         <v>99</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>331</v>
+        <v>243</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>332</v>
+        <v>244</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>333</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -14145,7 +14007,7 @@
         <v>114</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>334</v>
+        <v>246</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
@@ -14157,10 +14019,10 @@
         <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="H2" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -14182,10 +14044,10 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="H3" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -14206,10 +14068,10 @@
         <v>12</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
       <c r="H4" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -14230,10 +14092,10 @@
         <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="H5" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -14254,10 +14116,10 @@
         <v>14</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
       <c r="H6" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -14279,10 +14141,10 @@
         <v>7</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>340</v>
+        <v>252</v>
       </c>
       <c r="H7" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -14304,10 +14166,10 @@
         <v>11</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="H8" t="s">
-        <v>341</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -14329,10 +14191,10 @@
         <v>12</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="H9" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -14354,10 +14216,10 @@
         <v>12</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="H10" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -14379,10 +14241,10 @@
         <v>12</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>340</v>
+        <v>252</v>
       </c>
       <c r="H11" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -14404,7 +14266,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -14426,10 +14288,10 @@
         <v>4</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="H13" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -14451,7 +14313,7 @@
         <v>12</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -14474,7 +14336,7 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -14496,7 +14358,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -14518,10 +14380,10 @@
         <v>10</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="H17" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -14543,7 +14405,7 @@
         <v>7</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -14565,7 +14427,7 @@
         <v>9</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>344</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -14587,7 +14449,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -14610,7 +14472,7 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" t="s">
-        <v>346</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -14632,7 +14494,7 @@
         <v>4</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -14654,7 +14516,7 @@
         <v>6</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -14676,7 +14538,7 @@
         <v>14</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -14698,7 +14560,7 @@
         <v>12</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>347</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -14720,7 +14582,7 @@
         <v>13</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -14742,7 +14604,7 @@
         <v>4</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -14764,10 +14626,10 @@
         <v>7</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="H28" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -14789,10 +14651,10 @@
         <v>12</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="H29" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -14814,7 +14676,7 @@
         <v>12</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -14836,7 +14698,7 @@
         <v>15</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -14859,7 +14721,7 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -14881,10 +14743,10 @@
         <v>7</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="H33" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -14906,10 +14768,10 @@
         <v>13</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="H34" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -14931,10 +14793,10 @@
         <v>15</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="H35" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -14956,10 +14818,10 @@
         <v>13</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="H36" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -14981,7 +14843,7 @@
         <v>11</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -15003,7 +14865,7 @@
         <v>7</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -15025,7 +14887,7 @@
         <v>10</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -15047,10 +14909,10 @@
         <v>13</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="H40" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -15072,10 +14934,10 @@
         <v>12</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="H41" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -15097,7 +14959,7 @@
         <v>3</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -15119,7 +14981,7 @@
         <v>6</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -15141,7 +15003,7 @@
         <v>11</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -15163,7 +15025,7 @@
         <v>13</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -15185,7 +15047,7 @@
         <v>15</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -15207,7 +15069,7 @@
         <v>3</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -15229,7 +15091,7 @@
         <v>8</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>348</v>
+        <v>260</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -15251,7 +15113,7 @@
         <v>11</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -15273,7 +15135,7 @@
         <v>12</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>344</v>
+        <v>256</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -15295,7 +15157,7 @@
         <v>10</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -15315,30 +15177,30 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1">
       <c r="A1" s="33" t="s">
-        <v>349</v>
+        <v>261</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>350</v>
+        <v>262</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>351</v>
+        <v>263</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>352</v>
+        <v>264</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>353</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>354</v>
+        <v>266</v>
       </c>
       <c r="B2" t="s">
-        <v>355</v>
+        <v>267</v>
       </c>
       <c r="C2" t="s">
-        <v>354</v>
+        <v>266</v>
       </c>
       <c r="D2">
         <v>21</v>
@@ -15349,13 +15211,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>356</v>
+        <v>268</v>
       </c>
       <c r="B3" t="s">
-        <v>357</v>
+        <v>269</v>
       </c>
       <c r="C3" t="s">
-        <v>356</v>
+        <v>268</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -15366,13 +15228,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>347</v>
+        <v>259</v>
       </c>
       <c r="B4" t="s">
-        <v>358</v>
+        <v>270</v>
       </c>
       <c r="C4" t="s">
-        <v>347</v>
+        <v>259</v>
       </c>
       <c r="D4">
         <v>19</v>
@@ -15383,13 +15245,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
       <c r="B5" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
       <c r="C5" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
       <c r="D5">
         <v>18</v>
@@ -15400,13 +15262,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>340</v>
+        <v>252</v>
       </c>
       <c r="B6" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
       <c r="C6" t="s">
-        <v>340</v>
+        <v>252</v>
       </c>
       <c r="D6">
         <v>17</v>
@@ -15417,13 +15279,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="B7" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
       <c r="C7" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="D7">
         <v>16</v>
@@ -15434,13 +15296,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>344</v>
+        <v>256</v>
       </c>
       <c r="B8" t="s">
-        <v>341</v>
+        <v>253</v>
       </c>
       <c r="C8" t="s">
-        <v>344</v>
+        <v>256</v>
       </c>
       <c r="D8">
         <v>15</v>
@@ -15451,13 +15313,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
       <c r="B9" t="s">
-        <v>359</v>
+        <v>271</v>
       </c>
       <c r="C9" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
       <c r="D9">
         <v>14</v>
@@ -15468,13 +15330,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
       <c r="B10" t="s">
-        <v>360</v>
+        <v>272</v>
       </c>
       <c r="C10" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
       <c r="D10">
         <v>13</v>
@@ -15485,13 +15347,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>361</v>
+        <v>273</v>
       </c>
       <c r="B11" t="s">
-        <v>362</v>
+        <v>274</v>
       </c>
       <c r="C11" t="s">
-        <v>361</v>
+        <v>273</v>
       </c>
       <c r="D11">
         <v>12</v>
@@ -15502,13 +15364,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>348</v>
+        <v>260</v>
       </c>
       <c r="B12" t="s">
-        <v>363</v>
+        <v>275</v>
       </c>
       <c r="C12" t="s">
-        <v>348</v>
+        <v>260</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -15519,13 +15381,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>364</v>
+        <v>276</v>
       </c>
       <c r="B13" t="s">
-        <v>365</v>
+        <v>277</v>
       </c>
       <c r="C13" t="s">
-        <v>364</v>
+        <v>276</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -15536,13 +15398,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>366</v>
+        <v>278</v>
       </c>
       <c r="B14" t="s">
-        <v>367</v>
+        <v>279</v>
       </c>
       <c r="C14" t="s">
-        <v>366</v>
+        <v>278</v>
       </c>
       <c r="D14">
         <v>9</v>
@@ -15553,13 +15415,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>346</v>
+        <v>258</v>
       </c>
       <c r="B15" t="s">
-        <v>368</v>
+        <v>280</v>
       </c>
       <c r="C15" t="s">
-        <v>346</v>
+        <v>258</v>
       </c>
       <c r="D15">
         <v>8</v>
@@ -15570,13 +15432,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>369</v>
+        <v>281</v>
       </c>
       <c r="B16" t="s">
-        <v>370</v>
+        <v>282</v>
       </c>
       <c r="C16" t="s">
-        <v>369</v>
+        <v>281</v>
       </c>
       <c r="D16">
         <v>7</v>
@@ -15587,13 +15449,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>371</v>
+        <v>283</v>
       </c>
       <c r="B17" t="s">
-        <v>372</v>
+        <v>284</v>
       </c>
       <c r="C17" t="s">
-        <v>371</v>
+        <v>283</v>
       </c>
       <c r="D17">
         <v>6</v>
@@ -15604,13 +15466,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>373</v>
+        <v>285</v>
       </c>
       <c r="B18" t="s">
-        <v>374</v>
+        <v>286</v>
       </c>
       <c r="C18" t="s">
-        <v>373</v>
+        <v>285</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -15621,13 +15483,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>375</v>
+        <v>287</v>
       </c>
       <c r="B19" t="s">
-        <v>376</v>
+        <v>288</v>
       </c>
       <c r="C19" t="s">
-        <v>375</v>
+        <v>287</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -15638,13 +15500,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>377</v>
+        <v>289</v>
       </c>
       <c r="B20" t="s">
-        <v>378</v>
+        <v>290</v>
       </c>
       <c r="C20" t="s">
-        <v>377</v>
+        <v>289</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -15655,13 +15517,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>379</v>
+        <v>291</v>
       </c>
       <c r="B21" t="s">
-        <v>380</v>
+        <v>292</v>
       </c>
       <c r="C21" t="s">
-        <v>379</v>
+        <v>291</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -15672,7 +15534,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="C22" t="s">
-        <v>381</v>
+        <v>293</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -15683,13 +15545,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>382</v>
+        <v>294</v>
       </c>
       <c r="B23" t="s">
-        <v>381</v>
+        <v>293</v>
       </c>
       <c r="C23" t="s">
-        <v>383</v>
+        <v>295</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -15697,10 +15559,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>384</v>
+        <v>296</v>
       </c>
       <c r="C24" t="s">
-        <v>385</v>
+        <v>297</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -15708,7 +15570,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="C25" t="s">
-        <v>384</v>
+        <v>296</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -15731,21 +15593,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1">
       <c r="A1" s="33" t="s">
-        <v>350</v>
+        <v>262</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>353</v>
+        <v>265</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>386</v>
+        <v>298</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>387</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>355</v>
+        <v>267</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -15759,7 +15621,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>357</v>
+        <v>269</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -15773,7 +15635,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>358</v>
+        <v>270</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -15787,7 +15649,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -15801,7 +15663,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -15815,7 +15677,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -15829,7 +15691,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>341</v>
+        <v>253</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -15843,7 +15705,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>359</v>
+        <v>271</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -15857,7 +15719,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>360</v>
+        <v>272</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -15871,7 +15733,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>362</v>
+        <v>274</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -15885,7 +15747,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>363</v>
+        <v>275</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -15899,7 +15761,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>365</v>
+        <v>277</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -15913,7 +15775,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>367</v>
+        <v>279</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -15927,7 +15789,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>368</v>
+        <v>280</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -15941,7 +15803,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>370</v>
+        <v>282</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -15955,7 +15817,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>372</v>
+        <v>284</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -15969,7 +15831,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>374</v>
+        <v>286</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -15983,7 +15845,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>376</v>
+        <v>288</v>
       </c>
       <c r="B19">
         <v>17</v>
@@ -15997,7 +15859,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>378</v>
+        <v>290</v>
       </c>
       <c r="B20">
         <v>17</v>
@@ -16011,7 +15873,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>380</v>
+        <v>292</v>
       </c>
       <c r="B21">
         <v>17</v>
@@ -16025,7 +15887,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>381</v>
+        <v>293</v>
       </c>
       <c r="B22">
         <v>17</v>
